--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\七一\Documents\hply\04_设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="734" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="734" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="437">
   <si>
     <t>序号</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>信息登记</t>
   </si>
   <si>
-    <t>请提供信息登记样表</t>
-  </si>
-  <si>
     <t>信息登记</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1458,10 +1455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一个用户对应一个角色，一个角色可以给多个用户。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同调增金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1682,10 +1675,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所在角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1707,6 +1696,102 @@
   </si>
   <si>
     <t>1-事业部或项目部操作员申请/2-事业部或项目部负责人审核/3-财务部审核/4-经办人办理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块/菜单/功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鹃</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>财务总监，系统管理员</t>
+  </si>
+  <si>
+    <t>张梦</t>
+  </si>
+  <si>
+    <t>财务经理</t>
+  </si>
+  <si>
+    <t>刘月翠</t>
+  </si>
+  <si>
+    <t>财务核算员</t>
+  </si>
+  <si>
+    <t>王书岩</t>
+  </si>
+  <si>
+    <t>盖章经办人</t>
+  </si>
+  <si>
+    <t>杨德友</t>
+  </si>
+  <si>
+    <t>项目部</t>
+  </si>
+  <si>
+    <t>项目部负责人</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>项目部操作员</t>
+  </si>
+  <si>
+    <t>夏冬燕</t>
+  </si>
+  <si>
+    <t>张岩</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>盖章</t>
+  </si>
+  <si>
+    <t>王有青</t>
+  </si>
+  <si>
+    <t>事业部</t>
+  </si>
+  <si>
+    <t>事业部负责人</t>
+  </si>
+  <si>
+    <t>周楷</t>
+  </si>
+  <si>
+    <t>王佳鑫</t>
+  </si>
+  <si>
+    <t>角色暂时不要了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1992,7 +2077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2065,9 +2150,6 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,14 +2174,11 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2125,6 +2204,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2136,18 +2230,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2433,74 +2515,74 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="29" customWidth="1"/>
-    <col min="4" max="4" width="47.25" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="47.25" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.75" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="29" customWidth="1"/>
     <col min="15" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="37" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="16" t="s">
         <v>59</v>
       </c>
@@ -2528,13 +2610,13 @@
       <c r="M3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2576,7 +2658,7 @@
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
@@ -2616,7 +2698,7 @@
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2738,7 @@
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
@@ -2690,7 +2772,7 @@
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2716,7 +2798,7 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="19" t="s">
         <v>68</v>
       </c>
@@ -2740,7 +2822,7 @@
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
@@ -2764,7 +2846,7 @@
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2794,7 +2876,7 @@
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
@@ -2822,7 +2904,7 @@
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
@@ -2850,7 +2932,7 @@
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
@@ -2878,7 +2960,7 @@
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
@@ -2906,7 +2988,7 @@
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="19" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +3016,7 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
@@ -2962,7 +3044,7 @@
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="19" t="s">
         <v>47</v>
       </c>
@@ -2990,7 +3072,7 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
@@ -3018,7 +3100,7 @@
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="19" t="s">
         <v>48</v>
       </c>
@@ -3046,7 +3128,7 @@
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3074,7 +3156,7 @@
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3190,7 @@
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
@@ -3140,7 +3222,7 @@
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="42" t="s">
         <v>331</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -3164,15 +3246,13 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="24" t="s">
-        <v>332</v>
-      </c>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="19" t="s">
         <v>57</v>
       </c>
@@ -3200,7 +3280,7 @@
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -3226,7 +3306,7 @@
       <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="19" t="s">
         <v>28</v>
       </c>
@@ -3247,21 +3327,27 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -3269,12 +3355,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:M2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3360,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3406,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3422,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3436,7 +3516,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3450,7 +3530,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3522,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3629,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3657,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3671,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3729,7 +3809,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3748,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3876,7 +3956,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3939,7 +4019,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="33" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="4"/>
@@ -3955,8 +4035,8 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>340</v>
+      <c r="B14" s="33" t="s">
+        <v>339</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3969,8 +4049,8 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>338</v>
+      <c r="B15" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3985,8 +4065,8 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>339</v>
+      <c r="B16" s="33" t="s">
+        <v>338</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3999,8 +4079,8 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>341</v>
+      <c r="B17" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4013,7 +4093,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="33" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="4"/>
@@ -4029,7 +4109,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="33" t="s">
         <v>283</v>
       </c>
       <c r="C19" s="4"/>
@@ -4043,8 +4123,8 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>342</v>
+      <c r="B20" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4057,7 +4137,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="33" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="4"/>
@@ -4071,7 +4151,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="33" t="s">
         <v>285</v>
       </c>
       <c r="C22" s="4"/>
@@ -4085,7 +4165,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="33" t="s">
         <v>286</v>
       </c>
       <c r="C23" s="4"/>
@@ -4094,7 +4174,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4128,7 +4208,7 @@
         <v>235</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4167,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4203,7 +4283,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -4211,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4225,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4239,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4253,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4267,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4281,7 +4361,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4295,7 +4375,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4309,7 +4389,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4323,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4337,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4351,7 +4431,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4365,7 +4445,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4393,7 +4473,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4409,7 +4489,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4426,17 +4506,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -4518,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4590,7 +4672,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4604,7 +4686,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4632,16 +4714,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
-        <v>347</v>
-      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
@@ -4706,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4720,7 +4800,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4731,7 +4811,210 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
+        <v>6</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>11</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4742,10 +5025,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4899,6 +5182,11 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4907,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5041,21 +5329,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+        <v>408</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5069,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5078,12 +5368,12 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5097,7 +5387,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -5111,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -5125,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -5134,19 +5424,33 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5323,7 +5627,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5438,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5527,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5548,10 +5852,10 @@
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5572,10 +5876,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4" t="s">
         <v>78</v>
       </c>
@@ -5590,10 +5894,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="4" t="s">
         <v>81</v>
       </c>
@@ -5610,10 +5914,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>85</v>
       </c>
@@ -5632,10 +5936,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="5" t="s">
         <v>89</v>
       </c>
@@ -5654,10 +5958,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
@@ -5676,10 +5980,10 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5" t="s">
         <v>78</v>
       </c>
@@ -5694,10 +5998,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="5" t="s">
         <v>98</v>
       </c>
@@ -5714,10 +6018,10 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="5" t="s">
         <v>93</v>
       </c>
@@ -5732,10 +6036,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="4" t="s">
         <v>103</v>
       </c>
@@ -5750,10 +6054,10 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="5" t="s">
         <v>105</v>
       </c>
@@ -5770,10 +6074,10 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5" t="s">
         <v>109</v>
       </c>
@@ -5788,10 +6092,10 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="5" t="s">
         <v>93</v>
       </c>
@@ -5806,10 +6110,10 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" s="48"/>
+      <c r="B14" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="5" t="s">
         <v>113</v>
       </c>
@@ -5826,10 +6130,10 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="5" t="s">
         <v>93</v>
       </c>
@@ -5844,8 +6148,8 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>349</v>
+      <c r="B16" s="47" t="s">
+        <v>347</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>117</v>
@@ -5866,7 +6170,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="5" t="s">
         <v>120</v>
       </c>
@@ -5886,7 +6190,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
@@ -5906,8 +6210,8 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>350</v>
+      <c r="B19" s="47" t="s">
+        <v>348</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>123</v>
@@ -5928,7 +6232,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="5" t="s">
         <v>126</v>
       </c>
@@ -5948,7 +6252,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="47" t="s">
         <v>127</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -5972,7 +6276,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="5" t="s">
         <v>131</v>
       </c>
@@ -5992,7 +6296,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="47" t="s">
         <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -6014,7 +6318,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5" t="s">
         <v>122</v>
       </c>
@@ -6034,7 +6338,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="47" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -6056,7 +6360,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="5" t="s">
         <v>138</v>
       </c>
@@ -6078,7 +6382,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="5" t="s">
         <v>141</v>
       </c>
@@ -6098,7 +6402,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="5" t="s">
         <v>143</v>
       </c>
@@ -6118,7 +6422,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="5" t="s">
         <v>144</v>
       </c>
@@ -6138,7 +6442,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="47" t="s">
         <v>146</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -6158,7 +6462,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="5" t="s">
         <v>148</v>
       </c>
@@ -6178,7 +6482,7 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="5" t="s">
         <v>150</v>
       </c>
@@ -6196,7 +6500,7 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="5" t="s">
         <v>151</v>
       </c>
@@ -6214,7 +6518,7 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="5" t="s">
         <v>152</v>
       </c>
@@ -6232,7 +6536,7 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="48" t="s">
         <v>154</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -6248,7 +6552,7 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="10" t="s">
         <v>156</v>
       </c>
@@ -6262,7 +6566,7 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="49" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -6282,7 +6586,7 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12" t="s">
         <v>160</v>
       </c>
@@ -6306,12 +6610,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -6324,11 +6627,12 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6342,7 +6646,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6619,7 +6923,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -6627,7 +6931,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -6657,7 +6961,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -6844,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -6866,7 +7170,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -6888,7 +7192,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7101,7 +7405,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7117,7 +7421,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7125,7 +7429,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7147,7 +7451,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7161,7 +7465,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -7175,7 +7479,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7189,7 +7493,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -7203,7 +7507,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7217,7 +7521,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -7231,7 +7535,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -7412,7 +7716,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7594,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7608,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7654,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7668,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7682,7 +7986,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7738,7 +8042,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -7775,7 +8079,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7879,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -7895,14 +8199,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="32" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7911,7 +8215,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7925,7 +8229,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -7939,7 +8243,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7953,7 +8257,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -7967,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7981,7 +8285,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -8009,7 +8313,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -8121,7 +8425,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8135,7 +8439,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8149,7 +8453,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8163,7 +8467,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8191,7 +8495,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="734" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="734"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
     <sheet name="00_多项目汇总" sheetId="2" r:id="rId2"/>
     <sheet name="01_合同项目信息" sheetId="3" r:id="rId3"/>
     <sheet name="02_合同补充协议" sheetId="4" r:id="rId4"/>
-    <sheet name="03_工程发票情况" sheetId="5" r:id="rId5"/>
-    <sheet name="04_收客户发票情况" sheetId="6" r:id="rId6"/>
+    <sheet name="03_工程开票情况" sheetId="5" r:id="rId5"/>
+    <sheet name="04_客户开票情况" sheetId="6" r:id="rId6"/>
     <sheet name="05_收款情况" sheetId="7" r:id="rId7"/>
     <sheet name="06_付款情况" sheetId="8" r:id="rId8"/>
     <sheet name="06+A_付款项目" sheetId="18" r:id="rId9"/>
@@ -26,10 +26,9 @@
     <sheet name="09_盖章管理" sheetId="11" r:id="rId12"/>
     <sheet name="10_信息登记" sheetId="12" r:id="rId13"/>
     <sheet name="11_系统用户" sheetId="13" r:id="rId14"/>
-    <sheet name="12_用户角色" sheetId="17" r:id="rId15"/>
-    <sheet name="13_系统功能" sheetId="14" r:id="rId16"/>
-    <sheet name="14_系统权限" sheetId="15" r:id="rId17"/>
-    <sheet name="15_系统参数" sheetId="16" r:id="rId18"/>
+    <sheet name="12_系统资源" sheetId="14" r:id="rId15"/>
+    <sheet name="13_授权关系" sheetId="15" r:id="rId16"/>
+    <sheet name="14_系统参数" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">功能一览表!$D$11</definedName>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="566">
   <si>
     <t>序号</t>
   </si>
@@ -794,26 +793,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>甲方名称</t>
-  </si>
-  <si>
     <t>甲方地址</t>
   </si>
   <si>
-    <t>合同号</t>
-  </si>
-  <si>
-    <t>合作单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异地代扣代缴</t>
-  </si>
-  <si>
     <t>如果是，应收税金手工填，否则自动计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,32 +808,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>税金比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同金额</t>
-  </si>
-  <si>
-    <t>结算金额</t>
-  </si>
-  <si>
-    <t>印花税上交时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>印花税单独交，仅一笔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>印花税收据编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用资金情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -884,10 +844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同补充协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>摘要</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -932,10 +888,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增减金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认为创建时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,10 +912,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工程发票情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原来叫“给甲方的发票”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -972,11 +920,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>默认为创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>发票票号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认为创建时间</t>
+    <t>发票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料，劳务，其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（工程款/税金/管理费/其他？）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（现金/银行转帐/汇款/支票/汇票？）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -984,27 +1028,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>支付工程款情况</t>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠款分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收客户发票情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票票号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料，劳务，其他</t>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章申请编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据申请人所在部门过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部/项目部，根据申请人所在部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部审核人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部审核时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1016,23 +1139,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收款情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
+    <t>系统用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1056,27 +1163,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>凭证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（工程款/税金/管理费/其他？）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（现金/银行转帐/汇款/支票/汇票？）</t>
+    <t>登陆名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从系统参数中取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登陆IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆总次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用后，用户不能登陆系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1088,245 +1215,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>经手人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付工程款情况</t>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>往来欠款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠款分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>型材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经手人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖章管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖章申请编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据申请人所在部门过滤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部/项目部，根据申请人所在部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部审核人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部审核时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增序列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从系统参数中取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登陆IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆总次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用后，用户不能登陆系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>图标路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>URL地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1335,22 +1231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>父菜单ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1368,14 +1248,6 @@
   </si>
   <si>
     <t>期间费用核算，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1475,47 +1347,559 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在异地开发票的项目  会随着当地季节性收费而税率也跟着变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登陆时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续登录失败次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-事业部或项目部操作员申请/2-事业部或项目部负责人审核/3-财务部审核/4-经办人办理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鹃</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>财务总监，系统管理员</t>
+  </si>
+  <si>
+    <t>张梦</t>
+  </si>
+  <si>
+    <t>财务经理</t>
+  </si>
+  <si>
+    <t>刘月翠</t>
+  </si>
+  <si>
+    <t>财务核算员</t>
+  </si>
+  <si>
+    <t>王书岩</t>
+  </si>
+  <si>
+    <t>盖章经办人</t>
+  </si>
+  <si>
+    <t>杨德友</t>
+  </si>
+  <si>
+    <t>项目部</t>
+  </si>
+  <si>
+    <t>项目部负责人</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>项目部操作员</t>
+  </si>
+  <si>
+    <t>夏冬燕</t>
+  </si>
+  <si>
+    <t>张岩</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>盖章</t>
+  </si>
+  <si>
+    <t>王有青</t>
+  </si>
+  <si>
+    <t>事业部</t>
+  </si>
+  <si>
+    <t>事业部负责人</t>
+  </si>
+  <si>
+    <t>周楷</t>
+  </si>
+  <si>
+    <t>王佳鑫</t>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门集合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额显示单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元/万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curdate()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>legal_assignee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异地代扣代缴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_withholding_offsite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税上交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税收据编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital_occupied</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同补充协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_contract_supplemental_agreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_customer_invoice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_collections</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>增补协议编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>审核时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在异地开发票的项目  会随着当地季节性收费而税率也跟着变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>税率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
+    <t>csa_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>this_day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_rnd(8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1523,95 +1907,231 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_item_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销比例上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_cap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间费用核算，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_arrears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrears_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_chop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程开票情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_engineering_invoice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收税金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>款项来源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计用量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
+    <t>source_of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1619,11 +2139,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>developer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总包单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品种</t>
+    <t>epc_corporation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1631,155 +2159,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>total_area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>登记人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登陆时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续登录失败次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款项目ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销比例上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-事业部或项目部操作员申请/2-事业部或项目部负责人审核/3-财务部审核/4-经办人办理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块/菜单/功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜鹃</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>财务总监，系统管理员</t>
-  </si>
-  <si>
-    <t>张梦</t>
-  </si>
-  <si>
-    <t>财务经理</t>
-  </si>
-  <si>
-    <t>刘月翠</t>
-  </si>
-  <si>
-    <t>财务核算员</t>
-  </si>
-  <si>
-    <t>王书岩</t>
-  </si>
-  <si>
-    <t>盖章经办人</t>
-  </si>
-  <si>
-    <t>杨德友</t>
-  </si>
-  <si>
-    <t>项目部</t>
-  </si>
-  <si>
-    <t>项目部负责人</t>
-  </si>
-  <si>
-    <t>王勇</t>
-  </si>
-  <si>
-    <t>项目部操作员</t>
-  </si>
-  <si>
-    <t>夏冬燕</t>
-  </si>
-  <si>
-    <t>张岩</t>
-  </si>
-  <si>
-    <t>待定</t>
-  </si>
-  <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>盖章</t>
-  </si>
-  <si>
-    <t>王有青</t>
-  </si>
-  <si>
-    <t>事业部</t>
-  </si>
-  <si>
-    <t>事业部负责人</t>
-  </si>
-  <si>
-    <t>周楷</t>
-  </si>
-  <si>
-    <t>王佳鑫</t>
-  </si>
-  <si>
-    <t>角色暂时不要了。</t>
+    <t>subscriber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_registration_information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fails</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1787,11 +2231,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
+    <t>position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_authorization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以不选择项目ID，可以为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2514,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2534,7 +3054,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -3223,7 +3743,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>54</v>
@@ -3367,58 +3887,62 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3428,41 +3952,55 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>336</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="10" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>243</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>479</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3470,15 +4008,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>477</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -3486,15 +4026,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>337</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>476</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="9" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3502,9 +4044,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>338</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3516,9 +4060,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>329</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3530,9 +4076,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>339</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3544,9 +4092,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -3558,9 +4108,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>235</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3572,15 +4124,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -3588,9 +4142,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -3602,9 +4158,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>340</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3614,6 +4172,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3622,58 +4181,62 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3683,21 +4246,31 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -3709,9 +4282,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>480</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -3723,9 +4298,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>481</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3737,9 +4314,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3751,9 +4330,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>342</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3765,9 +4346,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3779,9 +4362,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3793,15 +4378,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="10" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3809,9 +4396,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>343</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3829,58 +4418,62 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="65.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3888,29 +4481,39 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>230</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3918,15 +4521,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3934,9 +4539,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3948,15 +4555,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>488</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="10" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3964,9 +4573,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>489</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3978,9 +4589,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>491</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3992,9 +4605,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>492</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>496</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4006,9 +4621,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>256</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>493</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4020,15 +4637,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -4036,9 +4655,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -4050,15 +4671,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -4066,9 +4689,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -4080,9 +4705,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>499</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -4094,15 +4721,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -4110,9 +4739,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -4124,9 +4755,11 @@
         <v>17</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>502</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4138,9 +4771,11 @@
         <v>18</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4152,9 +4787,11 @@
         <v>19</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4166,15 +4803,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4188,58 +4827,61 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="2" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4247,53 +4889,67 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>344</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>334</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>346</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>520</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4305,9 +4961,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>521</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>522</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -4319,9 +4977,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>523</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>524</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -4333,9 +4993,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>347</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>525</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -4347,9 +5009,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>526</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4361,9 +5025,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>274</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4375,9 +5041,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>529</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4389,9 +5057,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>349</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -4403,9 +5073,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>531</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>532</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4417,9 +5089,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -4431,9 +5105,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>351</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -4445,9 +5121,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>352</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -4459,9 +5137,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -4473,15 +5153,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>353</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -4489,9 +5171,11 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>354</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -4506,17 +5190,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
@@ -4525,13 +5209,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>264</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4544,22 +5231,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>76</v>
@@ -4572,13 +5259,19 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4586,9 +5279,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>273</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>535</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -4600,9 +5295,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>355</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>536</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -4616,13 +5313,15 @@
       <c r="B7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>537</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -4630,9 +5329,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>276</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>538</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -4644,9 +5345,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>277</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>539</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -4658,9 +5361,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>278</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -4672,9 +5377,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>356</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4686,9 +5393,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>357</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4700,9 +5409,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>279</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4714,9 +5425,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>544</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>545</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -4728,25 +5441,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>280</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>546</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -4758,9 +5475,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -4772,9 +5491,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -4786,269 +5507,294 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>358</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="B26" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>425</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>377</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>427</v>
+        <v>377</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>264</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>310</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5061,22 +5807,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>76</v>
@@ -5087,81 +5833,92 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>10</v>
+        <v>286</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>401</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>554</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>12</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>287</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -5169,23 +5926,84 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>14</v>
+      <c r="A10" s="12">
+        <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>433</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5195,30 +6013,34 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>264</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>310</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5231,22 +6053,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>76</v>
@@ -5257,363 +6079,86 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>391</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>561</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>282</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5622,32 +6167,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>264</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5660,22 +6209,22 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>76</v>
@@ -5686,23 +6235,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="12"/>
@@ -5714,9 +6273,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="12"/>
@@ -5728,9 +6289,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="12"/>
@@ -5742,9 +6305,11 @@
         <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
@@ -5756,9 +6321,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="12"/>
@@ -5770,9 +6337,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="12"/>
@@ -5784,9 +6353,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="12"/>
@@ -5798,9 +6369,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="12"/>
@@ -5814,12 +6387,42 @@
       <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5832,7 +6435,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6111,7 +6714,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="5" t="s">
@@ -6149,7 +6752,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>117</v>
@@ -6211,7 +6814,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>123</v>
@@ -6643,17 +7246,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -6662,6 +7267,9 @@
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
@@ -6707,12 +7315,20 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
@@ -6721,7 +7337,9 @@
       <c r="B5" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>406</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -6735,7 +7353,9 @@
       <c r="B6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -6749,7 +7369,9 @@
       <c r="B7" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>408</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -6763,9 +7385,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>409</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>410</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -6777,9 +7401,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>411</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -6791,23 +7417,27 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>489</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>412</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>413</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -6819,9 +7449,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>414</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -6833,31 +7465,33 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>416</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>417</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>418</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>419</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="10" t="s">
-        <v>187</v>
+      <c r="H14" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -6865,23 +7499,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>420</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>421</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -6893,9 +7533,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>424</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -6907,31 +7549,33 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12" t="s">
-        <v>344</v>
+      <c r="H19" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -6939,45 +7583,51 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>430</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>350</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="s">
-        <v>196</v>
+        <v>565</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -6985,23 +7635,29 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>434</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="12"/>
+        <v>451</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -7013,13 +7669,17 @@
         <v>22</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -7027,9 +7687,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -7038,17 +7700,53 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7061,58 +7759,62 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="2" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7120,23 +7822,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>201</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -7148,9 +7860,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>447</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>448</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -7162,15 +7876,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7178,9 +7894,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>450</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>449</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -7192,15 +7910,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>312</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H9" s="12" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7208,13 +7930,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>204</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -7222,9 +7948,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -7236,13 +7964,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>206</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -7250,15 +7982,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -7268,7 +8001,9 @@
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -7287,14 +8022,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -7303,11 +8039,14 @@
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7315,7 +8054,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -7351,21 +8090,31 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -7377,9 +8126,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -7393,7 +8144,9 @@
       <c r="B7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>509</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -7405,15 +8158,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>325</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H8" s="12" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -7421,15 +8178,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>324</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7437,9 +8196,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>510</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>511</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -7451,9 +8212,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7465,9 +8228,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -7479,9 +8244,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -7493,13 +8260,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>319</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -7507,13 +8275,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7521,9 +8293,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>321</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -7535,13 +8309,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7549,15 +8327,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="10" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7567,7 +8347,9 @@
       <c r="B19" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -7585,58 +8367,62 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7644,23 +8430,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+        <v>201</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -7672,9 +8468,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>214</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -7686,15 +8484,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7702,9 +8502,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>509</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -7716,13 +8518,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>316</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7730,13 +8536,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7744,9 +8554,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -7758,13 +8570,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>206</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7772,15 +8588,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -7788,9 +8606,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -7808,61 +8628,66 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7872,21 +8697,31 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -7898,9 +8733,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>231</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -7912,15 +8749,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>514</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>515</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7928,15 +8767,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>233</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -7946,7 +8787,9 @@
       <c r="B9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>517</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -7958,9 +8801,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>328</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -7972,9 +8817,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>329</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -7986,13 +8833,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -8000,13 +8851,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -8014,9 +8869,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -8028,13 +8885,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -8042,15 +8903,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -8060,7 +8923,9 @@
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -8079,61 +8944,65 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>255</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>257</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -8143,21 +9012,31 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -8169,9 +9048,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>463</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -8183,15 +9064,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>477</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8199,15 +9082,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="32" t="s">
-        <v>324</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8215,9 +9100,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -8229,9 +9116,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>468</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -8243,9 +9132,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>470</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -8257,9 +9148,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -8271,9 +9164,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>334</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -8285,9 +9180,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>335</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -8299,9 +9196,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -8313,15 +9212,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -8331,7 +9232,9 @@
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -8346,17 +9249,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
+    <col min="3" max="3" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="2"/>
     <col min="8" max="8" width="36.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -8365,11 +9269,14 @@
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8377,7 +9284,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -8413,21 +9320,31 @@
       <c r="B4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>459</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>361</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -8439,9 +9356,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>473</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -8453,9 +9372,11 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>334</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -8467,9 +9388,11 @@
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>335</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -8481,9 +9404,11 @@
         <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8495,9 +9420,11 @@
         <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>438</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -8511,13 +9438,20 @@
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>439</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\七一\Documents\hply\04_设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="555">
   <si>
     <t>序号</t>
   </si>
@@ -810,10 +810,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -858,22 +854,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最后登陆IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆总次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>禁用后，用户不能登陆系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间费用核算，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程项目核算系统业务功能一览表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标，押金，其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务经理/总经理审批，由总经理可设置，也可以在后台设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记</t>
+  </si>
+  <si>
+    <t>信息登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部/项目部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不予许删除自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以支持未找到的项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部/项目部审核人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部/项目部审核时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部/项目部审核意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部审核意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人办理结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税上交金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动提取项目的，可以修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手填的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>创建时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -886,118 +965,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>在异地开发票的项目  会随着当地季节性收费而税率也跟着变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核意见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>修改用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图标路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期间费用核算，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程项目核算系统业务功能一览表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标，押金，其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务经理/总经理审批，由总经理可设置，也可以在后台设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息登记</t>
-  </si>
-  <si>
-    <t>信息登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否系统内置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部/项目部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不予许删除自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以支持未找到的项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部/项目部审核人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部/项目部审核时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部/项目部审核意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部审核意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人办理结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印花税上交金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动提取项目的，可以修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手填的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程状态</t>
+    <t>付款金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1009,23 +1005,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在异地开发票的项目  会随着当地季节性收费而税率也跟着变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>税率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
+    <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1033,255 +1017,479 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续登录失败次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-事业部或项目部操作员申请/2-事业部或项目部负责人审核/3-财务部审核/4-经办人办理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鹃</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>财务总监，系统管理员</t>
+  </si>
+  <si>
+    <t>张梦</t>
+  </si>
+  <si>
+    <t>财务经理</t>
+  </si>
+  <si>
+    <t>刘月翠</t>
+  </si>
+  <si>
+    <t>财务核算员</t>
+  </si>
+  <si>
+    <t>王书岩</t>
+  </si>
+  <si>
+    <t>盖章经办人</t>
+  </si>
+  <si>
+    <t>杨德友</t>
+  </si>
+  <si>
+    <t>项目部</t>
+  </si>
+  <si>
+    <t>项目部负责人</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>项目部操作员</t>
+  </si>
+  <si>
+    <t>夏冬燕</t>
+  </si>
+  <si>
+    <t>张岩</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>盖章</t>
+  </si>
+  <si>
+    <t>王有青</t>
+  </si>
+  <si>
+    <t>事业部</t>
+  </si>
+  <si>
+    <t>事业部负责人</t>
+  </si>
+  <si>
+    <t>周楷</t>
+  </si>
+  <si>
+    <t>王佳鑫</t>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门集合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额显示单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元/万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>legal_assignee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异地代扣代缴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_withholding_offsite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税上交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty_paid_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税收据编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital_occupied</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同补充协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_contract_supplemental_agreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_collections</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增补协议编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csa_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_rnd(8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_item_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>开户行名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登陆时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续登录失败次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-事业部或项目部操作员申请/2-事业部或项目部负责人审核/3-财务部审核/4-经办人办理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜鹃</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>财务总监，系统管理员</t>
-  </si>
-  <si>
-    <t>张梦</t>
-  </si>
-  <si>
-    <t>财务经理</t>
-  </si>
-  <si>
-    <t>刘月翠</t>
-  </si>
-  <si>
-    <t>财务核算员</t>
-  </si>
-  <si>
-    <t>王书岩</t>
-  </si>
-  <si>
-    <t>盖章经办人</t>
-  </si>
-  <si>
-    <t>杨德友</t>
-  </si>
-  <si>
-    <t>项目部</t>
-  </si>
-  <si>
-    <t>项目部负责人</t>
-  </si>
-  <si>
-    <t>王勇</t>
-  </si>
-  <si>
-    <t>项目部操作员</t>
-  </si>
-  <si>
-    <t>夏冬燕</t>
-  </si>
-  <si>
-    <t>张岩</t>
-  </si>
-  <si>
-    <t>待定</t>
-  </si>
-  <si>
-    <t>王鹏</t>
-  </si>
-  <si>
-    <t>盖章</t>
-  </si>
-  <si>
-    <t>王有青</t>
-  </si>
-  <si>
-    <t>事业部</t>
-  </si>
-  <si>
-    <t>事业部负责人</t>
-  </si>
-  <si>
-    <t>周楷</t>
-  </si>
-  <si>
-    <t>王佳鑫</t>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门集合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额显示单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元/万元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>now()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源编码</t>
+    <t>bank_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销比例上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_cap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_arrears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrears_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_chop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1293,422 +1501,118 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step3_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收税金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>department</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>甲方名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>party_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>party_address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooperation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>legal_assignee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异地代扣代缴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_withholding_offsite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理费率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>税金比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tax_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>management_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印花税上交时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty_paid_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty_paid_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty_paid_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印花税收据编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>capital_occupied</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同补充协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_contract_supplemental_agreement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_collections</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增补协议编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csa_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增减金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>values</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string_rnd(8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_payment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凭证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_item_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_payment_item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销比例上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement_cap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_arrears</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrears_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>型材点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>型材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>profile_point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_profile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_chop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chop_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>project_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step1_idea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step1_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step1_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step2_idea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step2_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step2_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step3_idea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step3_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step3_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoice_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收税金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tax_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoice_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1765,119 +1669,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t_sys_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>logined</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fails</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>职务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>is_enable</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>order_by</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>res_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>res_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>res_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderby</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>res_path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_enable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_sys_resource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_sys_authorization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2180,6 +1992,270 @@
   </si>
   <si>
     <t>付款科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否系统内置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登陆IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登陆时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆总次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_authorization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2536,14 +2612,20 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,14 +2651,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2585,12 +2673,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2602,14 +2684,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2913,56 +2989,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="32" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
@@ -2990,13 +3066,13 @@
       <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3038,7 +3114,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3078,7 +3154,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3118,7 +3194,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3152,7 +3228,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3178,7 +3254,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
@@ -3202,7 +3278,7 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3226,7 +3302,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3256,7 +3332,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -3284,7 +3360,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3312,7 +3388,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
@@ -3340,9 +3416,9 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="13" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
@@ -3368,7 +3444,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -3396,7 +3472,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3500,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
@@ -3452,7 +3528,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3556,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3508,7 +3584,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3536,7 +3612,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -3570,7 +3646,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -3602,8 +3678,8 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>216</v>
+      <c r="B24" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>53</v>
@@ -3632,7 +3708,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3736,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -3686,7 +3762,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -3722,6 +3798,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -3729,12 +3811,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:M2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3765,7 +3841,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>138</v>
@@ -3813,18 +3889,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3832,17 +3908,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3853,14 +3929,14 @@
         <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3868,10 +3944,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3886,17 +3962,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3904,10 +3980,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3920,10 +3996,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3936,10 +4012,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3955,7 +4031,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3971,7 +4047,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3987,7 +4063,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4005,7 +4081,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4018,10 +4094,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4059,13 +4135,13 @@
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4107,18 +4183,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4129,7 +4205,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4145,7 +4221,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4158,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4174,10 +4250,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4190,10 +4266,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4209,7 +4285,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4225,7 +4301,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4241,7 +4317,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4256,10 +4332,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4296,7 +4372,7 @@
         <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>165</v>
@@ -4344,18 +4420,18 @@
         <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4366,7 +4442,7 @@
         <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4384,7 +4460,7 @@
         <v>170</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4402,7 +4478,7 @@
         <v>172</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4418,14 +4494,14 @@
         <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -4433,10 +4509,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4452,7 +4528,7 @@
         <v>174</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4465,10 +4541,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4484,7 +4560,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4500,7 +4576,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4515,10 +4591,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4531,17 +4607,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -4549,10 +4625,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4565,10 +4641,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4584,14 +4660,14 @@
         <v>178</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -4602,7 +4678,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4615,10 +4691,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4634,7 +4710,7 @@
         <v>180</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4650,7 +4726,7 @@
         <v>181</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4666,14 +4742,14 @@
         <v>182</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4704,13 +4780,13 @@
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4749,21 +4825,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4774,14 +4850,14 @@
         <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -4789,10 +4865,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4805,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4821,10 +4897,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4837,10 +4913,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4853,10 +4929,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4869,10 +4945,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4885,10 +4961,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4901,10 +4977,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4917,10 +4993,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4933,10 +5009,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4949,10 +5025,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4965,10 +5041,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -4981,10 +5057,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5000,7 +5076,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5013,10 +5089,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5031,10 +5107,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5052,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5072,13 +5148,13 @@
         <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5094,19 +5170,19 @@
         <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -5120,18 +5196,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5139,10 +5215,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5155,10 +5231,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5171,17 +5247,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>97</v>
+        <v>515</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -5189,10 +5265,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5205,10 +5281,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5221,10 +5297,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>197</v>
+        <v>514</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5237,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>263</v>
+        <v>517</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5253,10 +5329,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5269,10 +5345,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>198</v>
+        <v>519</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5285,10 +5361,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5301,17 +5377,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>199</v>
+        <v>523</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -5319,10 +5395,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5335,10 +5411,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5351,10 +5427,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>340</v>
+        <v>526</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5367,10 +5443,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>528</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>341</v>
+        <v>527</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5383,10 +5459,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>265</v>
+        <v>529</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5399,10 +5475,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>343</v>
+        <v>530</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5412,7 +5488,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -5420,13 +5496,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>9</v>
@@ -5437,13 +5513,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -5452,13 +5528,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -5467,13 +5543,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -5482,13 +5558,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -5497,13 +5573,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -5512,13 +5588,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -5527,13 +5603,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -5542,16 +5618,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5559,16 +5635,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5576,13 +5652,13 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -5591,13 +5667,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E37" s="6"/>
     </row>
@@ -5606,16 +5682,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5706,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5648,13 +5724,13 @@
         <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5670,19 +5746,19 @@
         <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -5693,21 +5769,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5715,10 +5791,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -5726,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>445</v>
+        <v>535</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5742,10 +5818,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5758,10 +5834,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>306</v>
+        <v>536</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5774,10 +5850,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>447</v>
+        <v>537</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5790,10 +5866,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5806,10 +5882,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>207</v>
+        <v>540</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5822,10 +5898,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5838,10 +5914,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>308</v>
+        <v>542</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5854,10 +5930,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>343</v>
+        <v>543</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5876,7 +5952,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5894,13 +5970,13 @@
         <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>458</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5916,19 +5992,19 @@
         <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -5939,21 +6015,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5961,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>304</v>
+        <v>549</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5977,10 +6053,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>296</v>
+        <v>551</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5993,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>339</v>
+        <v>552</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6009,10 +6085,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6032,7 +6108,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6040,7 +6116,8 @@
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
+    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -6050,13 +6127,13 @@
         <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6072,19 +6149,19 @@
         <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -6095,21 +6172,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6117,12 +6196,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>502</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>495</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -6133,12 +6214,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>210</v>
+        <v>503</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6149,12 +6232,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>496</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6165,12 +6250,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -6181,12 +6268,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>497</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -6197,12 +6286,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>202</v>
+        <v>505</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>498</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6213,12 +6304,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>499</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -6229,12 +6322,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>204</v>
+        <v>507</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -6248,9 +6343,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -6258,35 +6355,36 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6294,14 +6392,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
@@ -6314,15 +6412,15 @@
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="40"/>
+      <c r="B1" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="45"/>
       <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6334,10 +6432,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
@@ -6361,8 +6459,8 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>496</v>
+      <c r="B4" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>94</v>
@@ -6370,23 +6468,23 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="27" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6399,7 +6497,7 @@
       <c r="A6" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -6414,11 +6512,11 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>483</v>
+      <c r="B7" s="46" t="s">
+        <v>436</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6431,7 +6529,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="9" t="s">
         <v>97</v>
       </c>
@@ -6441,14 +6539,14 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="9" t="s">
         <v>95</v>
       </c>
@@ -6458,14 +6556,14 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="9" t="s">
         <v>96</v>
       </c>
@@ -6475,16 +6573,16 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="27" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -6492,16 +6590,16 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="27" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -6509,16 +6607,16 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="27" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -6526,14 +6624,14 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -6545,23 +6643,23 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6569,7 +6667,7 @@
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="27" t="s">
         <v>79</v>
       </c>
@@ -6579,16 +6677,16 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="27" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -6596,16 +6694,16 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="27" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -6613,18 +6711,18 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>505</v>
+      <c r="B19" s="44" t="s">
+        <v>458</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -6632,16 +6730,16 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="27" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -6649,16 +6747,16 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="27" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -6666,18 +6764,18 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>513</v>
+      <c r="B22" s="44" t="s">
+        <v>466</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -6685,16 +6783,16 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="27" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6702,35 +6800,35 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50" t="s">
-        <v>530</v>
+      <c r="B24" s="44"/>
+      <c r="C24" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>506</v>
+      <c r="B25" s="49" t="s">
+        <v>459</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6738,16 +6836,16 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="27" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -6755,16 +6853,16 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="27" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -6772,18 +6870,18 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>475</v>
+      <c r="B28" s="44" t="s">
+        <v>428</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -6791,16 +6889,16 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="27" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -6808,69 +6906,69 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50" t="s">
-        <v>528</v>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="50" t="s">
-        <v>478</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50" t="s">
-        <v>522</v>
+      <c r="B31" s="44"/>
+      <c r="C31" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="50" t="s">
-        <v>525</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50" t="s">
-        <v>532</v>
+      <c r="B32" s="44"/>
+      <c r="C32" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="27" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6878,14 +6976,14 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="27" t="s">
         <v>81</v>
       </c>
@@ -6895,34 +6993,34 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50" t="s">
-        <v>524</v>
+      <c r="B35" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>481</v>
+      <c r="B36" s="44" t="s">
+        <v>434</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>82</v>
@@ -6938,9 +7036,9 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="2" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -6993,7 +7091,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
@@ -7041,18 +7139,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7063,7 +7161,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7079,7 +7177,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7095,7 +7193,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7110,10 +7208,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7129,7 +7227,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7142,10 +7240,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7158,10 +7256,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7174,10 +7272,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7190,10 +7288,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7206,10 +7304,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7224,10 +7322,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7242,10 +7340,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7258,10 +7356,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7274,10 +7372,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7290,10 +7388,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -7308,17 +7406,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -7326,10 +7424,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7341,18 +7439,18 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>230</v>
+      <c r="B22" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -7363,7 +7461,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -7378,10 +7476,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7397,13 +7495,13 @@
         <v>106</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -7415,7 +7513,7 @@
         <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7431,13 +7529,13 @@
         <v>108</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -7449,7 +7547,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7465,7 +7563,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7502,13 +7600,13 @@
         <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7550,18 +7648,18 @@
         <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7572,7 +7670,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7585,10 +7683,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7604,14 +7702,14 @@
         <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7619,10 +7717,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7635,16 +7733,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>123</v>
@@ -7658,13 +7756,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -7676,7 +7774,7 @@
         <v>107</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7692,13 +7790,13 @@
         <v>126</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -7710,7 +7808,7 @@
         <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7727,7 +7825,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7765,13 +7863,13 @@
         <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7779,7 +7877,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -7816,18 +7914,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7838,7 +7936,7 @@
         <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7854,7 +7952,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7870,7 +7968,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7883,16 +7981,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>130</v>
@@ -7902,18 +8000,18 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
-        <v>236</v>
+      <c r="B9" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7921,10 +8019,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7937,10 +8035,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7953,10 +8051,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7969,10 +8067,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7985,10 +8083,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8000,16 +8098,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -8018,10 +8116,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8034,16 +8132,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -8055,7 +8153,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -8073,7 +8171,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8110,7 +8208,7 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>114</v>
@@ -8124,7 +8222,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -8161,18 +8259,18 @@
         <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8183,7 +8281,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8199,7 +8297,7 @@
         <v>133</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8215,7 +8313,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8233,7 +8331,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8246,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -8267,13 +8365,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -8285,7 +8383,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8301,13 +8399,13 @@
         <v>126</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8319,7 +8417,7 @@
         <v>127</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8337,7 +8435,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8375,7 +8473,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>138</v>
@@ -8426,18 +8524,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8448,7 +8546,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8464,7 +8562,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8476,17 +8574,17 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="B7" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8498,7 +8596,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8516,7 +8614,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8529,10 +8627,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8545,10 +8643,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8561,16 +8659,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8582,13 +8680,13 @@
         <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -8600,7 +8698,7 @@
         <v>107</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8616,13 +8714,13 @@
         <v>155</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -8631,10 +8729,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8652,7 +8750,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8691,13 +8789,13 @@
         <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8742,18 +8840,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8764,7 +8862,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8777,10 +8875,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8793,10 +8891,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -8811,17 +8909,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8829,10 +8927,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8845,10 +8943,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8861,10 +8959,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8877,10 +8975,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8893,10 +8991,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8909,10 +9007,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8928,7 +9026,7 @@
         <v>155</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8941,10 +9039,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8962,7 +9060,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8999,13 +9097,13 @@
         <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -9050,18 +9148,18 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -9069,10 +9167,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -9085,10 +9183,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9101,10 +9199,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9117,10 +9215,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9136,7 +9234,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9149,10 +9247,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -9168,7 +9266,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9178,7 +9276,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\七一\Documents\hply\04_设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Cheng Qiyi</author>
+  </authors>
+  <commentList>
+    <comment ref="H21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Cheng Qiyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这些类型对不对？缺不缺？</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="562">
   <si>
     <t>序号</t>
   </si>
@@ -386,10 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（合同额+合同增减金额）*比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实收管理费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -464,10 +496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目部/事业部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>甲方地址</t>
   </si>
   <si>
@@ -483,18 +511,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>印花税单独交，仅一笔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[待建/在建/已结算]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -675,10 +695,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（工程款/税金/管理费/其他？）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收款方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -938,10 +954,6 @@
   </si>
   <si>
     <t>手填的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1963,18 +1975,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>从“合同项目信息”中自动提取，还是从“甲方开票情况”中提取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>款项来源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计收款/（合同额+合同增减金额）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>从“收款情况”中，款项来源是管理费的费用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2256,6 +2260,66 @@
   </si>
   <si>
     <t>create_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（合同额+合同增减金额）*比率，和结算金额有关，如果结算金额有，则拿结算金额计算。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票票号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收款/（合同额+合同增减金额），和应收一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“合同项目信息”中自动提取，还是从“甲方开票情况”中提取，签合同，10w,3.4，结算价出来后，比率不变，总价按结算价。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫资，只收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标，押金不收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么算利息，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部/事业部/…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税单独交，仅一笔，可能会补交。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和，限额，比例段，20%，20%~30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率自己输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（工程款/税金/管理费/其他？/利息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标保证金，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[待建/在建/已结算]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2368,7 +2432,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2408,6 +2472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,7 +2597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,6 +2697,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2649,15 +2728,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2686,6 +2756,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2989,56 +3074,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="A1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="34" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
@@ -3066,13 +3151,13 @@
       <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3114,7 +3199,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3154,7 +3239,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3279,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3228,7 +3313,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3254,7 +3339,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
@@ -3278,7 +3363,7 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3302,7 +3387,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3332,7 +3417,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -3360,7 +3445,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3388,7 +3473,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
@@ -3416,9 +3501,9 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="13" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
@@ -3444,7 +3529,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -3472,7 +3557,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
@@ -3500,7 +3585,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
@@ -3528,7 +3613,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
@@ -3556,7 +3641,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3584,7 +3669,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3612,7 +3697,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +3731,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -3678,8 +3763,8 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>205</v>
+      <c r="B24" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>53</v>
@@ -3708,7 +3793,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -3736,7 +3821,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -3762,7 +3847,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -3798,12 +3883,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -3811,6 +3890,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:M2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3820,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3836,154 +3921,165 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3991,15 +4087,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4007,31 +4103,34 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4039,15 +4138,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4055,33 +4154,33 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4089,21 +4188,29 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="H19" s="57">
+        <v>41863</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4132,47 +4239,47 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4180,21 +4287,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4202,10 +4309,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4218,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4234,10 +4341,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4250,10 +4357,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4266,10 +4373,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4282,10 +4389,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4298,10 +4405,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4314,17 +4421,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -4332,10 +4439,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4354,7 +4461,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4363,53 +4470,53 @@
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="65.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4417,21 +4524,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4439,17 +4546,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -4457,17 +4564,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -4475,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4491,17 +4598,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -4509,10 +4616,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4525,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4541,10 +4648,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4557,10 +4664,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4573,17 +4680,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -4591,10 +4698,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4607,17 +4714,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -4625,10 +4732,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4641,10 +4748,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4657,17 +4764,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -4675,10 +4782,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4691,10 +4798,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4707,10 +4814,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4723,10 +4830,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4739,17 +4846,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4763,7 +4870,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4777,47 +4884,47 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4825,21 +4932,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4847,17 +4954,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -4865,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4881,10 +4988,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4897,10 +5004,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4913,10 +5020,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4929,10 +5036,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4945,10 +5052,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4961,10 +5068,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4977,10 +5084,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4993,10 +5100,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5009,10 +5116,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5025,10 +5132,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5041,10 +5148,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5057,10 +5164,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5073,10 +5180,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5089,17 +5196,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -5107,10 +5214,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5128,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5145,16 +5252,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5167,22 +5274,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -5193,21 +5300,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5215,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5231,10 +5338,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5247,17 +5354,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -5265,10 +5372,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5281,10 +5388,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5297,10 +5404,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5313,10 +5420,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5329,10 +5436,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5345,10 +5452,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5361,10 +5468,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5377,17 +5484,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -5395,10 +5502,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5411,10 +5518,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5427,10 +5534,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5443,10 +5550,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5459,10 +5566,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5475,10 +5582,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5488,7 +5595,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -5496,13 +5603,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>9</v>
@@ -5513,13 +5620,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -5528,13 +5635,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -5543,13 +5650,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -5558,13 +5665,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -5573,13 +5680,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -5588,13 +5695,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -5603,13 +5710,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -5618,16 +5725,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5635,16 +5742,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5652,13 +5759,13 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -5667,13 +5774,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E37" s="6"/>
     </row>
@@ -5682,16 +5789,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5721,16 +5828,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5743,22 +5850,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -5769,21 +5876,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5791,10 +5898,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -5802,10 +5909,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5818,10 +5925,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5834,10 +5941,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5850,10 +5957,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5866,10 +5973,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5882,10 +5989,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5898,10 +6005,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5914,10 +6021,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5930,10 +6037,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5967,16 +6074,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5989,22 +6096,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -6015,21 +6122,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6037,10 +6144,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6053,10 +6160,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6069,10 +6176,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6085,10 +6192,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6124,16 +6231,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6146,22 +6253,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>70</v>
@@ -6172,23 +6279,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6196,13 +6303,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -6214,13 +6321,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -6232,13 +6339,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -6250,13 +6357,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -6268,13 +6375,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -6286,13 +6393,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -6304,13 +6411,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -6322,13 +6429,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -6343,10 +6450,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -6355,30 +6462,30 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6390,10 +6497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6404,23 +6511,23 @@
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C1" s="45"/>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6433,23 +6540,23 @@
         <v>71</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>9</v>
@@ -6460,22 +6567,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -6484,7 +6591,7 @@
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="27" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6513,10 +6620,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6531,7 +6638,7 @@
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -6539,7 +6646,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -6548,7 +6655,7 @@
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -6556,7 +6663,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -6565,7 +6672,7 @@
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -6573,7 +6680,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -6582,7 +6689,7 @@
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="27" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -6590,7 +6697,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -6599,7 +6706,7 @@
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="27" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -6607,7 +6714,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -6616,7 +6723,7 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="27" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -6624,7 +6731,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -6643,7 +6750,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -6652,15 +6759,15 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="30" t="s">
-        <v>78</v>
+      <c r="I15" s="53" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -6669,7 +6776,7 @@
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6677,16 +6784,16 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="27" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -6694,16 +6801,16 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="27" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -6711,18 +6818,18 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>422</v>
+        <v>452</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>416</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -6730,16 +6837,19 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -6747,16 +6857,16 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -6764,18 +6874,18 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -6783,16 +6893,16 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6800,35 +6910,35 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="30" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="30" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="53" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>422</v>
+        <v>453</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>548</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6836,16 +6946,19 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -6853,16 +6966,16 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="27" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -6870,18 +6983,18 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -6889,16 +7002,16 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -6906,15 +7019,15 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>77</v>
@@ -6924,34 +7037,34 @@
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
-      <c r="I30" s="30" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I30" s="53" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="30" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-      <c r="I31" s="30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I31" s="53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -6959,7 +7072,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -6968,7 +7081,7 @@
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -6976,7 +7089,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -6985,7 +7098,7 @@
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -6993,7 +7106,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -7001,10 +7114,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -7012,7 +7125,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -7020,10 +7133,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -7038,7 +7151,7 @@
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -7069,10 +7182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="B15:H15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7088,47 +7201,47 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7136,21 +7249,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7158,10 +7271,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7174,10 +7287,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7189,18 +7302,18 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>98</v>
+      <c r="B7" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7208,10 +7321,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7224,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7240,10 +7353,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7256,10 +7369,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7272,10 +7385,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7288,10 +7401,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7304,17 +7417,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -7322,17 +7435,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -7340,10 +7453,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7351,15 +7464,15 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7367,15 +7480,15 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7383,51 +7496,51 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7435,51 +7548,52 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7487,33 +7601,33 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7521,33 +7635,33 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7555,15 +7669,15 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7582,7 +7696,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7597,47 +7711,47 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7645,21 +7759,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7667,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7683,10 +7797,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7699,17 +7813,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7717,10 +7831,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7733,19 +7847,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -7753,16 +7867,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -7771,10 +7885,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7787,16 +7901,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -7805,16 +7919,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -7825,7 +7939,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7845,7 +7959,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7860,50 +7974,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -7911,21 +8025,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7933,10 +8047,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7952,7 +8066,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7968,7 +8082,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7981,19 +8095,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8001,17 +8115,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -8019,10 +8133,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8035,10 +8149,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8051,10 +8165,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8067,10 +8181,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8083,10 +8197,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8098,16 +8212,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -8116,10 +8230,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8132,16 +8246,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -8150,17 +8264,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8168,10 +8282,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8190,7 +8304,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8205,13 +8319,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>44</v>
@@ -8219,36 +8333,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -8256,21 +8370,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8278,10 +8392,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8294,10 +8408,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8310,17 +8424,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8328,10 +8442,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8344,16 +8458,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -8362,16 +8476,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -8380,10 +8494,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8396,16 +8510,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8414,17 +8528,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -8432,10 +8546,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8454,7 +8568,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8470,13 +8584,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>45</v>
@@ -8484,36 +8598,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -8521,21 +8635,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8543,10 +8657,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8559,10 +8673,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8575,17 +8689,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31" t="s">
-        <v>151</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8593,17 +8707,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8614,7 +8728,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8627,10 +8741,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8643,10 +8757,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8659,16 +8773,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8677,16 +8791,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -8695,10 +8809,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8711,16 +8825,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -8729,17 +8843,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -8750,7 +8864,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8767,11 +8881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8786,50 +8900,50 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -8837,21 +8951,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8859,10 +8973,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8875,10 +8989,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8891,17 +9005,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8909,17 +9023,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -8927,10 +9041,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8943,10 +9057,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8959,10 +9073,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8975,10 +9089,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8991,10 +9105,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -9007,10 +9121,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -9023,10 +9137,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -9039,17 +9153,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -9060,7 +9174,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -9068,9 +9182,15 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9079,7 +9199,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -9094,16 +9214,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -9111,7 +9231,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -9119,22 +9239,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>9</v>
@@ -9145,21 +9265,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -9167,10 +9287,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -9183,10 +9303,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9199,10 +9319,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9215,10 +9335,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9231,10 +9351,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9247,10 +9367,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -9266,7 +9386,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9276,7 +9396,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\七一\Documents\hply\04_设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="920" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="09_盖章管理" sheetId="11" r:id="rId12"/>
     <sheet name="10_信息登记" sheetId="12" r:id="rId13"/>
     <sheet name="11_系统用户" sheetId="13" r:id="rId14"/>
-    <sheet name="12_系统资源" sheetId="14" r:id="rId15"/>
-    <sheet name="13_授权关系" sheetId="15" r:id="rId16"/>
-    <sheet name="14_系统参数" sheetId="16" r:id="rId17"/>
+    <sheet name="11+A_组织机构" sheetId="20" r:id="rId15"/>
+    <sheet name="12_系统资源" sheetId="14" r:id="rId16"/>
+    <sheet name="13_授权关系" sheetId="15" r:id="rId17"/>
+    <sheet name="14_系统参数" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">功能一览表!$D$11</definedName>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="605">
   <si>
     <t>序号</t>
   </si>
@@ -1093,78 +1094,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杜鹃</t>
-  </si>
-  <si>
     <t>财务部</t>
   </si>
   <si>
     <t>财务总监，系统管理员</t>
   </si>
   <si>
-    <t>张梦</t>
-  </si>
-  <si>
     <t>财务经理</t>
   </si>
   <si>
-    <t>刘月翠</t>
-  </si>
-  <si>
     <t>财务核算员</t>
   </si>
   <si>
-    <t>王书岩</t>
-  </si>
-  <si>
     <t>盖章经办人</t>
   </si>
   <si>
-    <t>杨德友</t>
-  </si>
-  <si>
     <t>项目部</t>
   </si>
   <si>
     <t>项目部负责人</t>
   </si>
   <si>
-    <t>王勇</t>
-  </si>
-  <si>
     <t>项目部操作员</t>
   </si>
   <si>
-    <t>夏冬燕</t>
-  </si>
-  <si>
-    <t>张岩</t>
-  </si>
-  <si>
     <t>待定</t>
   </si>
   <si>
-    <t>王鹏</t>
-  </si>
-  <si>
     <t>盖章</t>
   </si>
   <si>
-    <t>王有青</t>
-  </si>
-  <si>
     <t>事业部</t>
   </si>
   <si>
     <t>事业部负责人</t>
   </si>
   <si>
-    <t>周楷</t>
-  </si>
-  <si>
-    <t>王佳鑫</t>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1745,10 +1710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发票票号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发票金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1882,19 +1843,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>甲方开票情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户开票情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有实收的累计和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从“甲方开票情况”中自动提取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2263,26 +2212,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（合同额+合同增减金额）*比率，和结算金额有关，如果结算金额有，则拿结算金额计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票票号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计收款/（合同额+合同增减金额），和应收一样</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>从“合同项目信息”中自动提取，还是从“甲方开票情况”中提取，签合同，10w,3.4，结算价出来后，比率不变，总价按结算价。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>垫资，只收利息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2295,32 +2228,270 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>印花税单独交，仅一笔，可能会补交。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和，限额，比例段，20%，20%~30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率自己输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（工程款/税金/管理费/其他？/利息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标保证金，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[待建/在建/已结算]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鹃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘月翠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王书岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨德友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王勇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏冬燕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王有青</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周楷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王佳鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangmeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuyuecui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangshuyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangdeyou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiadongyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangpeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyouqing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoukai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangjiaxin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果结算金额填了，则等于结算金额*比率，否则等于（合同额+合同增减金额）*比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“合同项目信息”中自动提取，签合同，10w,3.4，结算价出来后，比率不变，总价按结算价。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>项目部/事业部/…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>印花税单独交，仅一笔，可能会补交。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占用资金，根据往来欠款计算，点击可查询明细，提示额度，往来欠款的和，限额，比例段，20%，20%~30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率自己输入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（工程款/税金/管理费/其他？/利息）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标保证金，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[待建/在建/已结算]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>机构名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sys_organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平台</t>
+  </si>
+  <si>
+    <t>基础平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核算</t>
+  </si>
+  <si>
+    <t>财务核算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"基础平台", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"系统管理", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"财务核算", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"盖章管理", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"信息登记", "ROOT");</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2688,13 +2859,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,9 +2934,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2757,20 +2943,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3055,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="B4:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3074,56 +3248,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="37" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
@@ -3151,13 +3325,13 @@
       <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3199,7 +3373,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3239,7 +3413,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3453,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3313,7 +3487,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3339,7 +3513,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
@@ -3363,7 +3537,7 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3387,7 +3561,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3417,7 +3591,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -3445,7 +3619,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3473,7 +3647,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
@@ -3501,9 +3675,9 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="13" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
@@ -3529,7 +3703,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -3557,7 +3731,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
@@ -3585,7 +3759,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
@@ -3613,7 +3787,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
@@ -3641,7 +3815,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3669,7 +3843,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3697,7 +3871,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -3731,7 +3905,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3937,7 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3793,7 +3967,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -3821,7 +3995,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -3847,7 +4021,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -3907,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3926,7 +4100,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -3974,18 +4148,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -3996,14 +4170,14 @@
         <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -4014,7 +4188,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4023,24 +4197,24 @@
       <c r="H6" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="L6" s="54"/>
+      <c r="I6" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4058,17 +4232,17 @@
         <v>229</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>554</v>
+        <v>454</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -4079,7 +4253,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4095,7 +4269,7 @@
         <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4108,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4119,7 +4293,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -4130,7 +4304,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4146,7 +4320,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4162,7 +4336,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4180,7 +4354,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4196,7 +4370,7 @@
         <v>231</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4205,10 +4379,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="H19" s="57">
+      <c r="C19" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="H19" s="34">
         <v>41863</v>
       </c>
     </row>
@@ -4242,13 +4416,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4290,18 +4464,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4312,7 +4486,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4328,7 +4502,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4341,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4357,10 +4531,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4376,7 +4550,7 @@
         <v>232</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4392,7 +4566,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4408,7 +4582,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4424,7 +4598,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4442,7 +4616,7 @@
         <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4479,7 +4653,7 @@
         <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>160</v>
@@ -4527,18 +4701,18 @@
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4549,7 +4723,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4567,7 +4741,7 @@
         <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4585,7 +4759,7 @@
         <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4601,7 +4775,7 @@
         <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4616,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4635,7 +4809,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4648,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4667,7 +4841,7 @@
         <v>170</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4683,7 +4857,7 @@
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4701,7 +4875,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4717,7 +4891,7 @@
         <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4735,7 +4909,7 @@
         <v>206</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4751,7 +4925,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4767,7 +4941,7 @@
         <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4785,7 +4959,7 @@
         <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4801,7 +4975,7 @@
         <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4817,7 +4991,7 @@
         <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4833,7 +5007,7 @@
         <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4849,7 +5023,7 @@
         <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4887,7 +5061,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -4935,18 +5109,18 @@
         <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4957,7 +5131,7 @@
         <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4975,7 +5149,7 @@
         <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4991,7 +5165,7 @@
         <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5004,10 +5178,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5020,10 +5194,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5039,7 +5213,7 @@
         <v>237</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5052,10 +5226,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5071,7 +5245,7 @@
         <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5087,7 +5261,7 @@
         <v>238</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5103,7 +5277,7 @@
         <v>239</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5116,10 +5290,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5132,10 +5306,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5151,7 +5325,7 @@
         <v>240</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5167,7 +5341,7 @@
         <v>241</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5183,7 +5357,7 @@
         <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5199,7 +5373,7 @@
         <v>242</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5217,7 +5391,7 @@
         <v>243</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5235,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5255,13 +5429,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5303,18 +5477,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5325,7 +5499,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5341,7 +5515,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5354,10 +5528,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5375,7 +5549,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5391,7 +5565,7 @@
         <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5404,10 +5578,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5420,10 +5594,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5439,7 +5613,7 @@
         <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5452,10 +5626,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5468,10 +5642,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5484,10 +5658,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5505,7 +5679,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5518,10 +5692,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5537,7 +5711,7 @@
         <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5550,10 +5724,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -5566,10 +5740,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -5582,10 +5756,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -5606,12 +5780,15 @@
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>271</v>
+        <v>554</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5620,185 +5797,269 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" ref="H27:H38" si="0">"INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),""" &amp; C27 &amp;""",""" &amp; B27 &amp;""",""" &amp; D27 &amp;""",""" &amp; E27 &amp;""");"</f>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"dujuan","杜鹃","财务部","财务总监，系统管理员");</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>248</v>
+        <v>543</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhangmeng","张梦","财务部","财务经理");</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>248</v>
+        <v>544</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"liuyuecui","刘月翠","财务部","财务核算员");</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>248</v>
+        <v>545</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangshuyan","王书岩","财务部","盖章经办人");</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>257</v>
+        <v>546</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"yangdeyou","杨德友","项目部","项目部负责人");</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>257</v>
+        <v>547</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangyong","王勇","项目部","项目部操作员");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>257</v>
+        <v>548</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"xiadongyan","夏冬燕","项目部","项目部操作员");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>257</v>
+        <v>549</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhangyan","张岩","项目部","项目部操作员");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>257</v>
+        <v>550</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangpeng","王鹏","项目部","项目部操作员");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>267</v>
+        <v>551</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangyouqing","王有青","事业部","事业部负责人");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>267</v>
+        <v>552</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhoukai","周楷","事业部","项目部操作员");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>267</v>
+        <v>553</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangjiaxin","王佳鑫","事业部","项目部操作员");</v>
       </c>
     </row>
   </sheetData>
@@ -5810,10 +6071,218 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="1" t="str">
+        <f>"INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),""" &amp; B13 &amp;""");"</f>
+        <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"事业部");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ref="H14:H15" si="0">"INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),""" &amp; B14 &amp;""");"</f>
+        <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"项目部");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"财务部");</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5821,31 +6290,34 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
+    <col min="4" max="4" width="47.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="39.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -5871,7 +6343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5879,32 +6351,32 @@
         <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5912,7 +6384,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5920,39 +6392,81 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="L7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58">
+        <v>0</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="T7" s="58">
+        <v>1</v>
+      </c>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58">
+        <v>0</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="T8" s="58">
+        <v>1</v>
+      </c>
+      <c r="U8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5960,15 +6474,36 @@
         <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J9" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="L9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58">
+        <v>0</v>
+      </c>
+      <c r="S9" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="T9" s="58">
+        <v>1</v>
+      </c>
+      <c r="U9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -5976,55 +6511,108 @@
         <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58">
+        <v>0</v>
+      </c>
+      <c r="S10" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="T10" s="58">
+        <v>1</v>
+      </c>
+      <c r="U10" s="58"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J11" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58">
+        <v>0</v>
+      </c>
+      <c r="S11" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="T11" s="58">
+        <v>1</v>
+      </c>
+      <c r="U11" s="58"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6032,21 +6620,521 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C21 &amp;""", """&amp;E21&amp;""", "&amp;A21&amp;", """&amp;D21&amp;""");"</f>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"系统框架", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 1, "该模块是整个系统的基础及核心，用于为其他各模块提供统一的接口协议，包括提供统一的人机交互界面，以及数据存储访问管理服务。");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" ref="I22:I42" si="0">"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C22 &amp;""", """&amp;E22&amp;""", "&amp;A22&amp;", """&amp;D22&amp;""");"</f>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"登录认证", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 2, "该模块提供用户、密码登录验证及安全访问控制功能，登录密码采用非对称加密算法（MD5），防止破坏性攻击，保证系统的访问安全。");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"修改个人信息", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 3, "为已经登录系统的用户修改自己的个人信息，包括密码的功能。");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"报表导出", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 4, "提供报表数据导出功能，可将单项目统计和多项目汇总功能导出成Excel文件。");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用户管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 1, "该模块提供系统登录帐户信息的管理功能，包括用户的新建，修改及删除，以及用户信息及密码的重置功能。");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"角色管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 2, "该模块用于新建/修改/删除系统角色，以及为角色授权。");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"权限控制", "9f932cce-06a3-11e4-99f8-6cf049046039", 3, "该模块用于控制其他各业务模块的访问权限，提供基于用户的权限控制管理，通过该模块可以设置每个登录帐户可以访问哪些模块。");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"项目汇总表", "9f94f3df-06a3-11e4-99f8-6cf049046039", 1, "按业务需求实现多项目汇总的3张报表，包括按全部、项目部或事业部分别输出报表。");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"汇总参数设置", "9f94f3df-06a3-11e4-99f8-6cf049046039", 2, "通过该功能可以设置系统的结算周期，比如指定25日为结算日，则系统所有数据的汇总统计按照上月26日~本月25日的结算周期。");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同项目信息", "9f94f3df-06a3-11e4-99f8-6cf049046039", 3, "按业务需求实现合同项目信息功能");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同补充协议", "9f94f3df-06a3-11e4-99f8-6cf049046039", 4, "按业务需求实现合同补充协议功能");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"甲方开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 5, "按业务需求实现甲方开票功能，包括审核功能。");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"客户开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 6, "按业务需求实现客户开票功能。");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"收款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 7, "按业务需求实现收款情况功能。");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"付款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 8, "按业务需求实现付款情况功能，包括期间费用报销功能，以及报销比例的设置，报销上限及剩余金额的计算与控制。");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"往来欠款", "9f94f3df-06a3-11e4-99f8-6cf049046039", 9, "按业务需求实现往来欠款功能，包括利率的设置，以及利息的计算。");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"型材", "9f94f3df-06a3-11e4-99f8-6cf049046039", 10, "按业务需求实现型材功能。");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章申请", "9f982ad0-06a3-11e4-99f8-6cf049046039", 1, "由项目部或事业部人员填写用章申请,并提交给财务部审核");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章审批控制", "9f982ad0-06a3-11e4-99f8-6cf049046039", 2, "财务部对用章申请进行审批,当财务主管外出,可将审批权限委托给财务经理，财务经办人根据审批通过的用章申请进行盖章。");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章统计表", "9f982ad0-06a3-11e4-99f8-6cf049046039", 3, "包括用章的申请各环节的业务控制，以及输出按月的用章统计表。");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息检索", "9f99c4af-06a3-11e4-99f8-6cf049046039", 1, "提供按关键字进行信息检索的功能，进行模糊搜索匹配展示信息检索结果。");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息录入", "9f99c4af-06a3-11e4-99f8-6cf049046039", 2, "提供信息管理平台的录入管理功能，包括信息的新建/修改与删除。");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I45" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I46" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I47" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I48" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I49" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6054,7 +7142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -6077,13 +7165,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6125,18 +7213,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6144,10 +7232,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6160,10 +7248,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6176,10 +7264,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6195,7 +7283,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6210,12 +7298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6234,13 +7322,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6282,20 +7370,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6303,13 +7391,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -6321,13 +7409,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -6342,10 +7430,10 @@
         <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -6357,13 +7445,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -6378,10 +7466,10 @@
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -6393,13 +7481,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -6411,13 +7499,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -6429,13 +7517,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -6450,10 +7538,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -6462,30 +7550,30 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6497,10 +7585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6519,15 +7607,15 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="45"/>
+      <c r="B1" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="51"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6539,10 +7627,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -6566,8 +7654,8 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>443</v>
+      <c r="B4" s="52" t="s">
+        <v>430</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>93</v>
@@ -6575,23 +7663,23 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="47"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="53"/>
       <c r="C5" s="27" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6602,9 +7690,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -6617,13 +7705,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>417</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6634,9 +7722,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="47"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="53"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
@@ -6646,14 +7734,14 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="53"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
@@ -6663,14 +7751,14 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="53"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
@@ -6680,16 +7768,16 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="27" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -6697,16 +7785,16 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -6714,16 +7802,16 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="27" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -6731,14 +7819,14 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="50" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -6750,31 +7838,31 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="53" t="s">
-        <v>547</v>
+      <c r="B15" s="50"/>
+      <c r="C15" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
@@ -6784,16 +7872,16 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="27" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -6801,16 +7889,16 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="44"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -6818,18 +7906,16 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>416</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="27" t="s">
+        <v>404</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -6837,19 +7923,16 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="50"/>
       <c r="C20" s="27" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -6857,16 +7940,18 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="44"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>444</v>
+      </c>
       <c r="C21" s="27" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -6874,18 +7959,16 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>460</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B22" s="50"/>
       <c r="C22" s="27" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -6893,16 +7976,16 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="50"/>
       <c r="C23" s="27" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -6910,35 +7993,33 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>548</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="27" t="s">
+        <v>447</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -6946,19 +8027,18 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>409</v>
+      </c>
       <c r="C26" s="27" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -6966,16 +8046,16 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="51"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="50"/>
       <c r="C27" s="27" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -6983,18 +8063,18 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>422</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -7002,16 +8082,16 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="50"/>
       <c r="C29" s="27" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -7019,69 +8099,69 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="53" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="53" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30" t="s">
-        <v>477</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="27" t="s">
-        <v>426</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -7089,90 +8169,54 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
-        <v>473</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
-        <v>31</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7184,8 +8228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -7204,7 +8248,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -7252,18 +8296,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7274,7 +8318,7 @@
         <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7290,7 +8334,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7302,18 +8346,18 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56" t="s">
-        <v>555</v>
+      <c r="C7" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -7321,10 +8365,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7340,7 +8384,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7353,10 +8397,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7369,10 +8413,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7385,10 +8429,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7401,10 +8445,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7417,10 +8461,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7435,10 +8479,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7453,10 +8497,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7469,10 +8513,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7485,10 +8529,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7501,17 +8545,17 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -7522,7 +8566,7 @@
         <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7537,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7552,20 +8596,20 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="I22" s="54"/>
+      <c r="B22" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
@@ -7575,14 +8619,14 @@
         <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55" t="s">
-        <v>561</v>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -7590,10 +8634,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7609,13 +8653,13 @@
         <v>102</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -7627,7 +8671,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7643,13 +8687,13 @@
         <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -7661,7 +8705,7 @@
         <v>105</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7677,7 +8721,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7714,13 +8758,13 @@
         <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7762,18 +8806,18 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -7784,7 +8828,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7797,10 +8841,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7816,7 +8860,7 @@
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7831,10 +8875,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7847,16 +8891,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>119</v>
@@ -7870,13 +8914,13 @@
         <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -7888,7 +8932,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7904,13 +8948,13 @@
         <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -7922,7 +8966,7 @@
         <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7939,7 +8983,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7977,13 +9021,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7991,7 +9035,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -8028,18 +9072,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8050,7 +9094,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8066,7 +9110,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8082,7 +9126,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8095,16 +9139,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>126</v>
@@ -8114,17 +9158,17 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31" t="s">
+      <c r="C9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8133,10 +9177,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8152,7 +9196,7 @@
         <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8168,7 +9212,7 @@
         <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8184,7 +9228,7 @@
         <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8200,7 +9244,7 @@
         <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8215,13 +9259,13 @@
         <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -8233,7 +9277,7 @@
         <v>216</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8249,13 +9293,13 @@
         <v>217</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -8267,7 +9311,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -8285,7 +9329,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8322,7 +9366,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
@@ -8336,7 +9380,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -8373,18 +9417,18 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8395,7 +9439,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8411,7 +9455,7 @@
         <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8427,7 +9471,7 @@
         <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8445,7 +9489,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8458,16 +9502,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -8479,13 +9523,13 @@
         <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -8497,7 +9541,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8513,13 +9557,13 @@
         <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8531,7 +9575,7 @@
         <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8549,7 +9593,7 @@
         <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8587,7 +9631,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -8638,18 +9682,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8660,7 +9704,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8676,7 +9720,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8688,18 +9732,18 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
-        <v>559</v>
+      <c r="B7" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -8710,7 +9754,7 @@
         <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8728,7 +9772,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8744,7 +9788,7 @@
         <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8760,7 +9804,7 @@
         <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8773,16 +9817,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -8794,13 +9838,13 @@
         <v>102</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -8812,7 +9856,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8828,13 +9872,13 @@
         <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -8846,7 +9890,7 @@
         <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8864,7 +9908,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -8903,13 +9947,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8954,18 +9998,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -8976,7 +10020,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8989,10 +10033,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9005,10 +10049,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -9023,17 +10067,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -9044,7 +10088,7 @@
         <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9057,10 +10101,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9073,10 +10117,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9089,10 +10133,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9108,7 +10152,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -9124,7 +10168,7 @@
         <v>227</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -9140,7 +10184,7 @@
         <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -9156,7 +10200,7 @@
         <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -9174,7 +10218,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -9183,8 +10227,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="31" t="s">
-        <v>559</v>
+      <c r="H21" s="30" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9217,13 +10261,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -9268,18 +10312,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -9287,10 +10331,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -9303,10 +10347,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9322,7 +10366,7 @@
         <v>226</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9338,7 +10382,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9354,7 +10398,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9370,7 +10414,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -9386,7 +10430,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="646">
   <si>
     <t>序号</t>
   </si>
@@ -2639,6 +2639,14 @@
   </si>
   <si>
     <t>t_information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项目汇总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3037,14 +3045,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3070,6 +3075,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3093,12 +3107,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3373,7 +3381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3402,56 +3410,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="44" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="44"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
@@ -3479,13 +3487,13 @@
       <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="50" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3527,7 +3535,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3567,7 +3575,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3607,7 +3615,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3641,7 +3649,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3667,7 +3675,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
@@ -3691,7 +3699,7 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3715,7 +3723,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3745,7 +3753,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -3773,7 +3781,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -3801,7 +3809,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
@@ -3829,7 +3837,7 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="13" t="s">
         <v>432</v>
       </c>
@@ -3857,7 +3865,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
@@ -3913,7 +3921,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
@@ -3941,7 +3949,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
@@ -3969,7 +3977,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3997,7 +4005,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4025,7 +4033,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -4059,7 +4067,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -4091,7 +4099,7 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="50" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4121,7 +4129,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -4149,7 +4157,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -4175,7 +4183,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -4211,6 +4219,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -4218,12 +4232,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:M2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -4581,7 +4589,7 @@
     </row>
     <row r="22" spans="3:8">
       <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:E37" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E22:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
@@ -4934,7 +4942,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18:E32" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E18:E26" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
@@ -5458,7 +5466,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E50" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E27:E44" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">chop_code varchar(50), </v>
       </c>
     </row>
@@ -5997,7 +6005,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E52" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E25:E41" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">department char(36), </v>
       </c>
     </row>
@@ -8020,7 +8028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -8303,10 +8311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8325,10 +8333,10 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="54"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
@@ -8345,10 +8353,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -8372,7 +8380,7 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>427</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -8399,7 +8407,7 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="27" t="s">
         <v>398</v>
       </c>
@@ -8416,7 +8424,7 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -8433,7 +8441,7 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>415</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -8452,7 +8460,7 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
@@ -8471,7 +8479,7 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
@@ -8490,7 +8498,7 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
@@ -8509,7 +8517,7 @@
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="27" t="s">
         <v>399</v>
       </c>
@@ -8528,7 +8536,7 @@
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="27" t="s">
         <v>400</v>
       </c>
@@ -8547,7 +8555,7 @@
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="27" t="s">
         <v>401</v>
       </c>
@@ -8566,7 +8574,7 @@
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -8587,7 +8595,7 @@
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="27" t="s">
         <v>416</v>
       </c>
@@ -8604,7 +8612,7 @@
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
@@ -8621,7 +8629,7 @@
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="27" t="s">
         <v>417</v>
       </c>
@@ -8638,7 +8646,7 @@
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="27" t="s">
         <v>418</v>
       </c>
@@ -8655,7 +8663,7 @@
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27" t="s">
         <v>402</v>
       </c>
@@ -8672,7 +8680,7 @@
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="27" t="s">
         <v>403</v>
       </c>
@@ -8689,7 +8697,7 @@
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>441</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -8708,7 +8716,7 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="27" t="s">
         <v>405</v>
       </c>
@@ -8725,7 +8733,7 @@
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="27" t="s">
         <v>406</v>
       </c>
@@ -8742,7 +8750,7 @@
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="56"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27" t="s">
         <v>402</v>
       </c>
@@ -8759,7 +8767,7 @@
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="57"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="27" t="s">
         <v>444</v>
       </c>
@@ -8776,7 +8784,7 @@
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="53" t="s">
         <v>407</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -8795,7 +8803,7 @@
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="27" t="s">
         <v>409</v>
       </c>
@@ -8812,7 +8820,7 @@
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="53" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -8831,7 +8839,7 @@
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27" t="s">
         <v>410</v>
       </c>
@@ -8848,7 +8856,7 @@
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="27" t="s">
         <v>453</v>
       </c>
@@ -8865,7 +8873,7 @@
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="27" t="s">
         <v>411</v>
       </c>
@@ -8882,7 +8890,7 @@
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="27" t="s">
         <v>80</v>
       </c>
@@ -8918,7 +8926,7 @@
       <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="53" t="s">
         <v>413</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -8935,7 +8943,7 @@
       <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="2" t="s">
         <v>414</v>
       </c>
@@ -8945,6 +8953,16 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="C38" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9540,7 +9558,7 @@
     </row>
     <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
-        <f t="shared" ref="E35:E62" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E35:E59" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
@@ -9997,7 +10015,7 @@
     </row>
     <row r="20" spans="4:5">
       <c r="E20" s="1" t="str">
-        <f t="shared" ref="E20:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E20:E29" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
@@ -10445,14 +10463,14 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="1" t="str">
@@ -10462,97 +10480,97 @@
     </row>
     <row r="22" spans="1:8">
       <c r="E22" s="1" t="str">
-        <f>C4&amp;" "&amp;D4&amp;", "</f>
+        <f t="shared" ref="E22:E37" si="0">C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="E23" s="1" t="str">
-        <f>C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="E24" s="1" t="str">
-        <f>C6&amp;" "&amp;D6&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
-        <f>C7&amp;" "&amp;D7&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
-        <f>C8&amp;" "&amp;D8&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
-        <f>C9&amp;" "&amp;D9&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
-        <f>C10&amp;" "&amp;D10&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">tax_amount DECIMAL(20,4), </v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
-        <f>C11&amp;" "&amp;D11&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(100), </v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
-        <f>C12&amp;" "&amp;D12&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
-        <f>C13&amp;" "&amp;D13&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
-        <f>C14&amp;" "&amp;D14&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
-        <f>C15&amp;" "&amp;D15&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
-        <f>C16&amp;" "&amp;D16&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
-        <f>C17&amp;" "&amp;D17&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
-        <f>C18&amp;" "&amp;D18&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
-        <f>C19&amp;" "&amp;D19&amp;", "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
@@ -10577,7 +10595,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D16:E29"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10867,7 +10885,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="E18" s="1" t="str">
-        <f t="shared" ref="E18:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E18:E27" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
@@ -11293,7 +11311,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="E21" s="1" t="str">
-        <f t="shared" ref="E21:E36" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E21:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
@@ -12066,7 +12084,7 @@
     </row>
     <row r="19" spans="4:5">
       <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">item_name varchar(50), </v>
       </c>
     </row>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920"/>
   </bookViews>
   <sheets>
-    <sheet name="功能一览表" sheetId="1" r:id="rId1"/>
-    <sheet name="00_多项目汇总" sheetId="19" r:id="rId2"/>
-    <sheet name="01_合同项目信息" sheetId="3" r:id="rId3"/>
-    <sheet name="02_合同补充协议" sheetId="4" r:id="rId4"/>
-    <sheet name="03_甲方开票情况" sheetId="5" r:id="rId5"/>
-    <sheet name="04_客户开票情况" sheetId="6" r:id="rId6"/>
-    <sheet name="05_收款情况" sheetId="7" r:id="rId7"/>
-    <sheet name="06_付款情况" sheetId="8" r:id="rId8"/>
-    <sheet name="06+A_付款科目" sheetId="18" r:id="rId9"/>
-    <sheet name="07_往来欠款" sheetId="9" r:id="rId10"/>
-    <sheet name="08_型材" sheetId="10" r:id="rId11"/>
-    <sheet name="09_盖章管理" sheetId="11" r:id="rId12"/>
-    <sheet name="10_信息登记" sheetId="12" r:id="rId13"/>
-    <sheet name="11_系统用户" sheetId="13" r:id="rId14"/>
-    <sheet name="11+A_组织机构" sheetId="20" r:id="rId15"/>
-    <sheet name="12_系统资源" sheetId="14" r:id="rId16"/>
-    <sheet name="13_授权关系" sheetId="15" r:id="rId17"/>
-    <sheet name="14_系统参数" sheetId="16" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
+    <sheet name="功能一览表" sheetId="1" r:id="rId2"/>
+    <sheet name="00_多项目汇总" sheetId="19" r:id="rId3"/>
+    <sheet name="01_合同项目信息" sheetId="3" r:id="rId4"/>
+    <sheet name="02_合同补充协议" sheetId="4" r:id="rId5"/>
+    <sheet name="03_甲方开票情况" sheetId="5" r:id="rId6"/>
+    <sheet name="04_客户开票情况" sheetId="6" r:id="rId7"/>
+    <sheet name="05_收款情况" sheetId="7" r:id="rId8"/>
+    <sheet name="06_付款情况" sheetId="8" r:id="rId9"/>
+    <sheet name="06+A_付款科目" sheetId="18" r:id="rId10"/>
+    <sheet name="07_往来欠款" sheetId="9" r:id="rId11"/>
+    <sheet name="08_型材" sheetId="10" r:id="rId12"/>
+    <sheet name="09_盖章管理" sheetId="11" r:id="rId13"/>
+    <sheet name="10_信息登记" sheetId="12" r:id="rId14"/>
+    <sheet name="11_系统用户" sheetId="13" r:id="rId15"/>
+    <sheet name="11+A_组织机构" sheetId="20" r:id="rId16"/>
+    <sheet name="12_系统资源" sheetId="14" r:id="rId17"/>
+    <sheet name="13_授权关系" sheetId="15" r:id="rId18"/>
+    <sheet name="14_系统参数" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">功能一览表!$D$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览表!$A$1:$N$28</definedName>
+    <definedName name="OLE_LINK1" localSheetId="1">功能一览表!$D$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">功能一览表!$A$1:$O$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="708">
   <si>
     <t>序号</t>
   </si>
@@ -1666,10 +1667,6 @@
   </si>
   <si>
     <t>占用资金情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_project_summary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2647,6 +2644,245 @@
   </si>
   <si>
     <t>查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除，重置密码，授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，删除，有限修改，完全修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请，申请审核，财务审核，用章办理，用章统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除，查看全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>有限修改</t>
+  </si>
+  <si>
+    <t>完全修改</t>
+  </si>
+  <si>
+    <t>申请审核</t>
+  </si>
+  <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>用章办理</t>
+  </si>
+  <si>
+    <t>用章统计</t>
+  </si>
+  <si>
+    <t>查看全部</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许修改全部数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有该权限方可登录系统。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅允许修改自己当天添加的数据，其他数据不允许修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审核委托</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源结构树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project_summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/finance/summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/information/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有有此权限，则能看到所有部门的信息，否则只能看到自己添加的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chop/summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此权限可查看盖章申请记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请所在部门负责人审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部审核，此权限同时拥有审核委托权限，即可将审核权限委托给其他人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收财务用章审核委托。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审核通过后，进行用章办理盖章的操作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起用章申请，仅允许发起自己所在部门的用章申请。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改能看到的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新部门。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当其他用户密码忘记时，可重置密码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许修改所有能看到的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许删除所有能看到的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许删除能看到的数据。</t>
+  </si>
+  <si>
+    <t>允许删除能看到的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许添加型材数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许添加往来欠款数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许查看多项目汇总表。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2657,7 +2893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2757,6 +2993,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2924,7 +3176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3051,6 +3303,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,15 +3337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3107,6 +3362,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3381,7 +3663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3389,862 +3671,1482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="47.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.375" style="23" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="43" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="66" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1" s="68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="11" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="65" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="F2" s="65">
+        <v>10</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="65" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65">
+        <v>20</v>
+      </c>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65"/>
+      <c r="B4" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="F4" s="65">
+        <v>10</v>
+      </c>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65">
+        <v>10</v>
+      </c>
+      <c r="G5" s="65"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65">
+        <v>20</v>
+      </c>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65">
+        <v>30</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65">
+        <v>40</v>
+      </c>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65">
+        <v>50</v>
+      </c>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="65"/>
+      <c r="B10" s="69" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="F10" s="65">
+        <v>20</v>
+      </c>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65">
+        <v>10</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65">
+        <v>20</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65">
+        <v>30</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="65"/>
+      <c r="B14" s="69" t="s">
+        <v>648</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F14" s="65">
+        <v>30</v>
+      </c>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="65" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65">
+        <v>30</v>
+      </c>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="65"/>
+      <c r="B16" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F16" s="65">
+        <v>10</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="65"/>
+      <c r="B17" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F17" s="65">
+        <v>20</v>
+      </c>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65">
+        <v>10</v>
+      </c>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65">
+        <v>20</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65">
+        <v>30</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65">
+        <v>40</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="65"/>
+      <c r="B22" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F22" s="65">
+        <v>30</v>
+      </c>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65">
+        <v>10</v>
+      </c>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65">
+        <v>20</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65">
+        <v>30</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65">
+        <v>40</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="65"/>
+      <c r="B27" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F27" s="65">
+        <v>40</v>
+      </c>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65">
+        <v>10</v>
+      </c>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65">
+        <v>20</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65">
+        <v>30</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65">
+        <v>40</v>
+      </c>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65">
+        <v>50</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="65"/>
+      <c r="B33" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F33" s="65">
+        <v>50</v>
+      </c>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65">
+        <v>10</v>
+      </c>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65">
+        <v>20</v>
+      </c>
+      <c r="G35" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65">
+        <v>30</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65">
+        <v>40</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="65"/>
+      <c r="B38" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F38" s="65">
         <v>60</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="43"/>
-    </row>
-    <row r="4" spans="1:14" ht="36">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" ht="36">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="G39" s="65"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65">
+        <v>20</v>
+      </c>
+      <c r="G40" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65">
         <v>30</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" ht="12">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" ht="24">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" ht="24">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="G41" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" ht="12">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="36">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="24">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" ht="24">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="12">
-      <c r="A13" s="12">
+      <c r="G42" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="65"/>
+      <c r="B43" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F43" s="65">
+        <v>70</v>
+      </c>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65">
         <v>10</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" ht="12">
-      <c r="A14" s="12">
-        <v>11</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="12">
-      <c r="A15" s="12">
-        <v>12</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="12">
-      <c r="A16" s="12">
-        <v>13</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" ht="12">
-      <c r="A17" s="12">
-        <v>14</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="24">
-      <c r="A18" s="12">
-        <v>15</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65">
         <v>20</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" ht="24">
-      <c r="A19" s="12">
-        <v>16</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="13" t="s">
+      <c r="G45" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65">
+        <v>30</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65">
+        <v>40</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="65"/>
+      <c r="B48" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" ht="12">
-      <c r="A20" s="12">
-        <v>17</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="13" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F48" s="65">
+        <v>80</v>
+      </c>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65">
+        <v>10</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65">
+        <v>20</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65">
+        <v>30</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65">
+        <v>40</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="65"/>
+      <c r="B53" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="12">
-      <c r="A21" s="12">
-        <v>18</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="F53" s="65">
+        <v>90</v>
+      </c>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65">
+        <v>10</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65">
+        <v>20</v>
+      </c>
+      <c r="G55" s="65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65">
+        <v>30</v>
+      </c>
+      <c r="G56" s="65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65">
+        <v>40</v>
+      </c>
+      <c r="G57" s="65" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="65" t="s">
+        <v>655</v>
+      </c>
+      <c r="B58" s="69"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="F58" s="65">
+        <v>40</v>
+      </c>
+      <c r="G58" s="65" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="65"/>
+      <c r="B59" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65">
+        <v>10</v>
+      </c>
+      <c r="G59" s="65" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65">
+        <v>20</v>
+      </c>
+      <c r="G60" s="65" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="65"/>
+      <c r="B61" s="65" t="s">
+        <v>664</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65">
+        <v>30</v>
+      </c>
+      <c r="G61" s="65" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="65"/>
+      <c r="B62" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65">
+        <v>40</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65" t="s">
+        <v>665</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65">
         <v>50</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" ht="36">
-      <c r="A22" s="12">
-        <v>19</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="24">
-      <c r="A23" s="12">
+      <c r="G63" s="65" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65" t="s">
+        <v>666</v>
+      </c>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>689</v>
+      </c>
+      <c r="F64" s="65">
+        <v>60</v>
+      </c>
+      <c r="G64" s="65"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="69" t="s">
+        <v>651</v>
+      </c>
+      <c r="B65" s="69"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E65" s="65" t="s">
+        <v>687</v>
+      </c>
+      <c r="F65" s="65">
+        <v>50</v>
+      </c>
+      <c r="G65" s="65"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65">
+        <v>10</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65">
         <v>20</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" ht="24">
-      <c r="A24" s="12">
-        <v>21</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" ht="24">
-      <c r="A25" s="12">
-        <v>22</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" ht="12">
-      <c r="A26" s="12">
-        <v>23</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" ht="12">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="G67" s="65"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65">
+        <v>30</v>
+      </c>
+      <c r="G68" s="65" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65" t="s">
+        <v>658</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65">
+        <v>40</v>
+      </c>
+      <c r="G69" s="65" t="s">
+        <v>702</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:M2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1">
+      <c r="A8" s="6">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1">
+      <c r="A9" s="6">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1">
+      <c r="A10" s="6">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="1" t="str">
+        <f>"create table "&amp;$B$1&amp;" ("</f>
+        <v>create table t_payment_item (</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" s="1" t="str">
+        <f>C4&amp;" "&amp;D4&amp;", "</f>
+        <v xml:space="preserve">id char(36), </v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" s="1" t="str">
+        <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+        <v xml:space="preserve">item_name varchar(50), </v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">reimbursement_cap DECIMAL(20,4), </v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create_user char(36), </v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">update_user char(36), </v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">description VARCHAR(500), </v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="E26" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E35"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4314,7 +5216,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -4338,7 +5240,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -4358,7 +5260,7 @@
         <v>335</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4367,11 +5269,11 @@
         <v>198</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L6" s="31"/>
     </row>
@@ -4386,7 +5288,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4406,16 +5308,16 @@
         <v>332</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4429,7 +5331,7 @@
         <v>327</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -4447,7 +5349,7 @@
         <v>329</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4459,20 +5361,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1">
@@ -4486,7 +5388,7 @@
         <v>299</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4504,7 +5406,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -4522,7 +5424,7 @@
         <v>301</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -4542,7 +5444,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -4560,7 +5462,7 @@
         <v>303</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -4569,7 +5471,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H19" s="34">
         <v>41863</v>
@@ -4661,12 +5563,12 @@
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -4676,7 +5578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -4751,7 +5653,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -4775,7 +5677,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -4787,13 +5689,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>336</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4811,7 +5713,7 @@
         <v>339</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4823,13 +5725,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4847,7 +5749,7 @@
         <v>299</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -4865,7 +5767,7 @@
         <v>300</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4883,7 +5785,7 @@
         <v>301</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -4901,7 +5803,7 @@
         <v>302</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4921,7 +5823,7 @@
         <v>303</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -4996,12 +5898,12 @@
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5010,11 +5912,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -5083,7 +5987,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -5107,7 +6011,7 @@
         <v>342</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5127,7 +6031,7 @@
         <v>307</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5147,7 +6051,7 @@
         <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5165,7 +6069,7 @@
         <v>344</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5185,7 +6089,7 @@
         <v>346</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5203,7 +6107,7 @@
         <v>347</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5221,7 +6125,7 @@
         <v>352</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5239,7 +6143,7 @@
         <v>349</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5254,10 +6158,10 @@
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5277,7 +6181,7 @@
         <v>350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5295,7 +6199,7 @@
         <v>351</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5315,7 +6219,7 @@
         <v>353</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5333,7 +6237,7 @@
         <v>355</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -5351,7 +6255,7 @@
         <v>356</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -5371,7 +6275,7 @@
         <v>357</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5389,7 +6293,7 @@
         <v>358</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -5407,7 +6311,7 @@
         <v>359</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5425,7 +6329,7 @@
         <v>360</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -5443,7 +6347,7 @@
         <v>354</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -5580,12 +6484,12 @@
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5594,7 +6498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -5617,7 +6521,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -5668,7 +6572,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -5692,7 +6596,7 @@
         <v>371</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5712,7 +6616,7 @@
         <v>372</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5730,7 +6634,7 @@
         <v>373</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5748,7 +6652,7 @@
         <v>375</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5766,7 +6670,7 @@
         <v>377</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5784,7 +6688,7 @@
         <v>378</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5802,7 +6706,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5820,7 +6724,7 @@
         <v>381</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5838,7 +6742,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -5856,7 +6760,7 @@
         <v>383</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -5874,7 +6778,7 @@
         <v>385</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -5886,13 +6790,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5910,7 +6814,7 @@
         <v>299</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -5928,7 +6832,7 @@
         <v>300</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5946,7 +6850,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5964,7 +6868,7 @@
         <v>302</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -5984,7 +6888,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -6107,12 +7011,12 @@
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +7025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -6145,13 +7049,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6193,7 +7097,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -6215,7 +7119,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6244,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>272</v>
@@ -6281,7 +7185,7 @@
         <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6294,10 +7198,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6310,10 +7214,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6342,10 +7246,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6358,10 +7262,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6374,10 +7278,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6395,7 +7299,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6408,13 +7312,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6429,10 +7333,10 @@
         <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6444,13 +7348,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6462,13 +7366,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6480,13 +7384,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -6506,7 +7410,7 @@
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>259</v>
@@ -6523,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>247</v>
@@ -6545,10 +7449,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>247</v>
@@ -6567,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>247</v>
@@ -6589,10 +7493,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>247</v>
@@ -6611,10 +7515,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>252</v>
@@ -6633,10 +7537,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>252</v>
@@ -6655,10 +7559,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>252</v>
@@ -6677,10 +7581,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>252</v>
@@ -6701,10 +7605,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>252</v>
@@ -6725,10 +7629,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>257</v>
@@ -6747,10 +7651,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>257</v>
@@ -6769,10 +7673,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>257</v>
@@ -6795,12 +7699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6819,13 +7723,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6878,7 +7782,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6886,10 +7790,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6939,7 +7843,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6953,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
@@ -6969,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -6985,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
@@ -7003,7 +7907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
@@ -7029,13 +7933,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7096,7 +8000,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>389</v>
@@ -7110,7 +8014,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7134,10 +8038,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="J7" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L7" s="39"/>
       <c r="N7" s="39"/>
@@ -7148,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T7" s="39">
         <v>1</v>
@@ -7160,7 +8064,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>391</v>
@@ -7171,10 +8075,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="J8" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L8" s="39"/>
       <c r="N8" s="39"/>
@@ -7185,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T8" s="39">
         <v>1</v>
@@ -7200,7 +8104,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7208,10 +8112,10 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="J9" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L9" s="39"/>
       <c r="N9" s="39"/>
@@ -7222,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T9" s="39">
         <v>1</v>
@@ -7237,7 +8141,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7248,7 +8152,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L10" s="39"/>
       <c r="N10" s="39"/>
@@ -7259,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T10" s="39">
         <v>1</v>
@@ -7271,10 +8175,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7285,7 +8189,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L11" s="39"/>
       <c r="N11" s="39"/>
@@ -7296,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T11" s="39">
         <v>1</v>
@@ -7311,7 +8215,7 @@
         <v>269</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7335,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>388</v>
@@ -7351,10 +8255,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7367,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>37</v>
@@ -7376,7 +8280,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C21 &amp;""", """&amp;E21&amp;""", "&amp;A21&amp;", """&amp;D21&amp;""");"</f>
@@ -7388,7 +8292,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>38</v>
@@ -7397,7 +8301,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" ref="I22:I42" si="0">"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C22 &amp;""", """&amp;E22&amp;""", "&amp;A22&amp;", """&amp;D22&amp;""");"</f>
@@ -7409,7 +8313,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -7418,7 +8322,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7430,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>39</v>
@@ -7439,7 +8343,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7451,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>40</v>
@@ -7460,7 +8364,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7472,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>67</v>
@@ -7481,7 +8385,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7493,7 +8397,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>41</v>
@@ -7502,7 +8406,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7514,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>64</v>
@@ -7523,7 +8427,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7544,7 +8448,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7556,7 +8460,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>42</v>
@@ -7565,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="1" t="str">
@@ -7578,7 +8482,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>43</v>
@@ -7587,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="1" t="str">
@@ -7600,16 +8504,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="1" t="str">
@@ -7631,7 +8535,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="1" t="str">
@@ -7644,7 +8548,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>45</v>
@@ -7653,7 +8557,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H34"/>
       <c r="I34" s="1" t="str">
@@ -7666,7 +8570,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>46</v>
@@ -7675,7 +8579,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="1" t="str">
@@ -7688,7 +8592,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>48</v>
@@ -7697,7 +8601,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="1" t="str">
@@ -7710,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>47</v>
@@ -7719,7 +8623,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="1" t="str">
@@ -7732,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>35</v>
@@ -7741,7 +8645,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H38"/>
       <c r="I38" s="1" t="str">
@@ -7754,7 +8658,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>51</v>
@@ -7763,7 +8667,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H39"/>
       <c r="I39" s="1" t="str">
@@ -7776,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>36</v>
@@ -7785,7 +8689,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="1" t="str">
@@ -7798,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
@@ -7807,7 +8711,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H41"/>
       <c r="I41" s="1" t="str">
@@ -7820,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>56</v>
@@ -7829,7 +8733,7 @@
         <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H42"/>
       <c r="I42" s="1" t="str">
@@ -7839,27 +8743,27 @@
     </row>
     <row r="45" spans="1:9">
       <c r="I45" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="I46" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="I47" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="I48" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -7868,7 +8772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -7891,13 +8795,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7958,10 +8862,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7974,10 +8878,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7990,10 +8894,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8009,7 +8913,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8024,7 +8928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -8054,7 +8958,7 @@
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8099,7 +9003,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -8117,13 +9021,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -8135,13 +9039,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -8156,10 +9060,10 @@
         <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -8171,13 +9075,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -8192,10 +9096,10 @@
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -8207,13 +9111,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -8225,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -8243,13 +9147,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -8267,7 +9171,7 @@
         <v>303</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -8311,10 +9215,914 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="22" customWidth="1"/>
+    <col min="4" max="5" width="47.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="36">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="36">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="12">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" ht="24">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" ht="24">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" ht="12">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" ht="36">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="63" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" ht="24">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="24">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" ht="12">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" ht="12">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" ht="12">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" ht="12">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:15" ht="12">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:15" ht="24">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" ht="24">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" ht="12">
+      <c r="A20" s="12">
+        <v>17</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" ht="12">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" ht="36">
+      <c r="A22" s="12">
+        <v>19</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="24">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" ht="24">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>652</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" ht="24">
+      <c r="A25" s="12">
+        <v>22</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="12">
+      <c r="A26" s="12">
+        <v>23</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" ht="12">
+      <c r="A27" s="12">
+        <v>24</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8333,15 +10141,15 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1" s="55"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8353,10 +10161,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -8380,17 +10188,17 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>427</v>
+      <c r="B4" s="56" t="s">
+        <v>426</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>316</v>
@@ -8407,12 +10215,12 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -8424,7 +10232,7 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -8441,14 +10249,14 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>415</v>
+      <c r="B7" s="56" t="s">
+        <v>414</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -8460,66 +10268,66 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>289</v>
@@ -8529,35 +10337,35 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>291</v>
@@ -8567,37 +10375,37 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="54" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -8605,14 +10413,14 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
@@ -8622,16 +10430,16 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -8639,16 +10447,16 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -8656,16 +10464,16 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -8673,16 +10481,16 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -8690,18 +10498,18 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>441</v>
+      <c r="B21" s="54" t="s">
+        <v>440</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -8709,16 +10517,16 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -8726,16 +10534,16 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -8743,16 +10551,16 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -8760,16 +10568,16 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -8777,18 +10585,18 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>407</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -8796,16 +10604,16 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -8813,14 +10621,14 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="54" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -8832,16 +10640,16 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -8849,16 +10657,16 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -8866,16 +10674,16 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -8883,14 +10691,14 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="27" t="s">
         <v>80</v>
       </c>
@@ -8900,7 +10708,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8908,7 +10716,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>229</v>
@@ -8919,15 +10727,15 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>413</v>
+      <c r="B34" s="54" t="s">
+        <v>412</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>81</v>
@@ -8943,9 +10751,9 @@
       <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -8956,12 +10764,12 @@
     </row>
     <row r="38" spans="1:9">
       <c r="C38" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="D39" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -8984,7 +10792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
@@ -9060,7 +10868,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -9084,7 +10892,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -9102,7 +10910,7 @@
         <v>271</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9117,16 +10925,16 @@
         <v>96</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9140,7 +10948,7 @@
         <v>274</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9158,7 +10966,7 @@
         <v>275</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9176,7 +10984,7 @@
         <v>346</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -9194,7 +11002,7 @@
         <v>277</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9212,7 +11020,7 @@
         <v>279</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9230,7 +11038,7 @@
         <v>281</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9248,7 +11056,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -9270,7 +11078,7 @@
         <v>287</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -9290,7 +11098,7 @@
         <v>286</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -9308,7 +11116,7 @@
         <v>289</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -9326,7 +11134,7 @@
         <v>291</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -9344,13 +11152,13 @@
         <v>293</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9364,7 +11172,7 @@
         <v>294</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -9384,7 +11192,7 @@
         <v>295</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -9402,13 +11210,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -9423,13 +11231,13 @@
         <v>298</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9437,13 +11245,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -9461,7 +11269,7 @@
         <v>299</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -9481,7 +11289,7 @@
         <v>300</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -9499,7 +11307,7 @@
         <v>301</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -9519,7 +11327,7 @@
         <v>302</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -9537,7 +11345,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -9708,12 +11516,12 @@
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -9722,7 +11530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -9797,7 +11605,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -9821,7 +11629,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -9839,7 +11647,7 @@
         <v>311</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9854,10 +11662,10 @@
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -9874,10 +11682,10 @@
         <v>312</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -9889,18 +11697,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>119</v>
@@ -9917,7 +11725,7 @@
         <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -9937,7 +11745,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -9955,7 +11763,7 @@
         <v>301</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -9975,7 +11783,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -9994,7 +11802,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -10075,12 +11883,12 @@
     </row>
     <row r="30" spans="4:5">
       <c r="E30" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -10090,12 +11898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E39"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10114,13 +11922,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10128,7 +11936,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10168,7 +11976,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -10192,7 +12000,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -10210,7 +12018,7 @@
         <v>362</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -10228,7 +12036,7 @@
         <v>363</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -10240,18 +12048,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>126</v>
@@ -10268,7 +12076,7 @@
         <v>286</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -10288,7 +12096,7 @@
         <v>365</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10306,7 +12114,7 @@
         <v>350</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -10324,7 +12132,7 @@
         <v>351</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -10342,7 +12150,7 @@
         <v>353</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -10360,7 +12168,7 @@
         <v>361</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -10377,7 +12185,7 @@
         <v>299</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10397,7 +12205,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -10415,7 +12223,7 @@
         <v>301</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -10435,7 +12243,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -10455,7 +12263,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -10576,12 +12384,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -10590,7 +12398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -10614,7 +12422,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
@@ -10628,7 +12436,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10668,7 +12476,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -10692,7 +12500,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -10710,7 +12518,7 @@
         <v>362</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -10728,7 +12536,7 @@
         <v>366</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -10748,7 +12556,7 @@
         <v>363</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -10760,18 +12568,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -10786,7 +12594,7 @@
         <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10806,7 +12614,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -10824,7 +12632,7 @@
         <v>301</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -10844,7 +12652,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -10864,7 +12672,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -10945,12 +12753,12 @@
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -10959,12 +12767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11038,7 +12846,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -11062,7 +12870,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11080,7 +12888,7 @@
         <v>367</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11092,19 +12900,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>368</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11118,7 +12926,7 @@
         <v>369</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11138,7 +12946,7 @@
         <v>370</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11156,7 +12964,7 @@
         <v>327</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11174,7 +12982,7 @@
         <v>329</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11186,18 +12994,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -11212,7 +13020,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11232,7 +13040,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11250,7 +13058,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -11270,7 +13078,7 @@
         <v>302</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -11290,7 +13098,7 @@
         <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -11389,12 +13197,12 @@
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -11405,12 +13213,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E39"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11483,7 +13291,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>316</v>
@@ -11507,7 +13315,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11525,7 +13333,7 @@
         <v>367</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -11543,7 +13351,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11557,19 +13365,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11583,7 +13391,7 @@
         <v>325</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11601,7 +13409,7 @@
         <v>327</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11619,7 +13427,7 @@
         <v>329</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -11631,13 +13439,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -11655,7 +13463,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11673,7 +13481,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11691,7 +13499,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -11709,7 +13517,7 @@
         <v>302</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -11729,7 +13537,7 @@
         <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -11738,7 +13546,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -11833,12 +13641,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -11846,296 +13654,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D17:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
-      <c r="A7" s="6">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
-      <c r="A8" s="6">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="A9" s="6">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
-      <c r="A10" s="6">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="1" t="str">
-        <f>"create table "&amp;$B$1&amp;" ("</f>
-        <v>create table t_payment_item (</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="E18" s="1" t="str">
-        <f>C4&amp;" "&amp;D4&amp;", "</f>
-        <v xml:space="preserve">id char(36), </v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
-        <v xml:space="preserve">item_name varchar(50), </v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">reimbursement_cap DECIMAL(20,4), </v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">create_user char(36), </v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">update_user char(36), </v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">description VARCHAR(500), </v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="E26" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="744">
   <si>
     <t>序号</t>
   </si>
@@ -1306,26 +1306,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同补充协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t_project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t_contract_supplemental_agreement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>project_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t_collections</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>item_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1370,10 +1358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t_payment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>凭证号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1426,10 +1410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t_arrears</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>arrears_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1698,34 +1678,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付工程款情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>累计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计收款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付工程款情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>应缴税金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1812,10 +1788,6 @@
   </si>
   <si>
     <t>甲方开票情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_party_billing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2348,180 +2320,698 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平台</t>
+  </si>
+  <si>
+    <t>基础平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核算</t>
+  </si>
+  <si>
+    <t>财务核算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
+  </si>
+  <si>
+    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"基础平台", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"系统管理", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"财务核算", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"盖章管理", "ROOT");</t>
+  </si>
+  <si>
+    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"信息登记", "ROOT");</t>
+  </si>
+  <si>
+    <t>从“合同项目信息”中自动提取，签合同，10w,3.4%，结算价出来后，比率不变，总价按结算价。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(36)</t>
+  </si>
+  <si>
+    <t>trice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME(0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME(0) DEFAULT CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(20,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime(0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime(0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计用量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(20,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key (id)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项目汇总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除，重置密码，授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，删除，有限修改，完全修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请，申请审核，财务审核，用章办理，用章统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看，添加，修改，删除，查看全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>有限修改</t>
+  </si>
+  <si>
+    <t>完全修改</t>
+  </si>
+  <si>
+    <t>申请审核</t>
+  </si>
+  <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>用章办理</t>
+  </si>
+  <si>
+    <t>用章统计</t>
+  </si>
+  <si>
+    <t>查看全部</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许修改全部数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有该权限方可登录系统。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅允许修改自己当天添加的数据，其他数据不允许修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审核委托</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源结构树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project_summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/finance/summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/information/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有有此权限，则能看到所有部门的信息，否则只能看到自己添加的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chop/summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此权限可查看盖章申请记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请所在部门负责人审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部审核，此权限同时拥有审核委托权限，即可将审核权限委托给其他人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收财务用章审核委托。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审核通过后，进行用章办理盖章的操作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起用章申请，仅允许发起自己所在部门的用章申请。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改能看到的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新部门。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当其他用户密码忘记时，可重置密码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许修改所有能看到的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许删除所有能看到的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许删除能看到的数据。</t>
+  </si>
+  <si>
+    <t>允许删除能看到的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许添加型材数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许添加往来欠款数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许查看多项目汇总表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/user/create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/user
+/admin/user/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/user/modify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/resetpassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/auth/{userId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(20,4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_plan_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_real_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_owe_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方开票情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户开票情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_party_billing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_billing_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_billing_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_collections</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_billing_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_billing_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_plan_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_real_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_arrears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_owe_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrears_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>t_sys_organization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>组织机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础平台</t>
-  </si>
-  <si>
-    <t>基础平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务核算</t>
-  </si>
-  <si>
-    <t>财务核算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖章管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖章管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
-  </si>
-  <si>
-    <t>ROOT</t>
-  </si>
-  <si>
-    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
-  </si>
-  <si>
-    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
-  </si>
-  <si>
-    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
-  </si>
-  <si>
-    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
-  </si>
-  <si>
-    <t>9f8fd7da-06a3-11e4-99f8-6cf049046039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9f932cce-06a3-11e4-99f8-6cf049046039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9f94f3df-06a3-11e4-99f8-6cf049046039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9f982ad0-06a3-11e4-99f8-6cf049046039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9f99c4af-06a3-11e4-99f8-6cf049046039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"基础平台", "ROOT");</t>
-  </si>
-  <si>
-    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"系统管理", "ROOT");</t>
-  </si>
-  <si>
-    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"财务核算", "ROOT");</t>
-  </si>
-  <si>
-    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"盖章管理", "ROOT");</t>
-  </si>
-  <si>
-    <t>INSERT INTO t_sys_resource(id,res_name,parent_id) VALUES(uuid(),"信息登记", "ROOT");</t>
-  </si>
-  <si>
-    <t>从“合同项目信息”中自动提取，签合同，10w,3.4%，结算价出来后，比率不变，总价按结算价。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(36)</t>
-  </si>
-  <si>
-    <t>trice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>management_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>management_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
+    <t>organization_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(20,4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2529,360 +3019,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME(0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME(0) DEFAULT CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(20,4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime(0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime(0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计用量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(20,4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key (id)</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多项目汇总表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看，添加，修改，删除，重置密码，授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看，添加，修改，删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看，添加，删除，有限修改，完全修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请，申请审核，财务审核，用章办理，用章统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看，添加，修改，删除，查看全部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务核算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖章管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>授权</t>
-  </si>
-  <si>
-    <t>有限修改</t>
-  </si>
-  <si>
-    <t>完全修改</t>
-  </si>
-  <si>
-    <t>申请审核</t>
-  </si>
-  <si>
-    <t>财务审核</t>
-  </si>
-  <si>
-    <t>用章办理</t>
-  </si>
-  <si>
-    <t>用章统计</t>
-  </si>
-  <si>
-    <t>查看全部</t>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许修改全部数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有该权限方可登录系统。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅允许修改自己当天添加的数据，其他数据不允许修改。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务审核委托</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源结构树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/setting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_project_summary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/finance/summary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/chop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/information/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如有有此权限，则能看到所有部门的信息，否则只能看到自己添加的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/chop/summary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此权限可查看盖章申请记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用章申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请所在部门负责人审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部审核，此权限同时拥有审核委托权限，即可将审核权限委托给其他人。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收财务用章审核委托。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务审核通过后，进行用章办理盖章的操作。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起用章申请，仅允许发起自己所在部门的用章申请。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改能看到的数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加新部门。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当其他用户密码忘记时，可重置密码。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许修改所有能看到的信息。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许删除所有能看到的信息。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许删除能看到的数据。</t>
-  </si>
-  <si>
-    <t>允许删除能看到的数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许添加型材数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许添加往来欠款数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许查看多项目汇总表。</t>
+    <t>t_contract_change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3176,7 +3321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3306,6 +3451,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3362,33 +3537,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3673,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3688,1156 +3836,1166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="51" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="47" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>672</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="46" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="46">
+        <v>10</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="F3" s="46">
+        <v>20</v>
+      </c>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="F4" s="46">
+        <v>10</v>
+      </c>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="F5" s="46">
+        <v>10</v>
+      </c>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="F6" s="46">
+        <v>20</v>
+      </c>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>703</v>
+      </c>
+      <c r="F7" s="46">
+        <v>30</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>704</v>
+      </c>
+      <c r="F8" s="46">
+        <v>40</v>
+      </c>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
+        <v>50</v>
+      </c>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>673</v>
+      </c>
+      <c r="F10" s="46">
+        <v>20</v>
+      </c>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46">
+        <v>10</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46">
+        <v>20</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
+        <v>30</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="F14" s="46">
+        <v>30</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46">
+        <v>30</v>
+      </c>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="46"/>
+      <c r="B16" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F16" s="46">
+        <v>10</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="46"/>
+      <c r="B17" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F17" s="46">
+        <v>20</v>
+      </c>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46">
+        <v>10</v>
+      </c>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46">
+        <v>20</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
+        <v>30</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46">
+        <v>40</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="46"/>
+      <c r="B22" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F22" s="46">
+        <v>30</v>
+      </c>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
+        <v>10</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46">
+        <v>20</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46">
+        <v>30</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46">
+        <v>40</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="46"/>
+      <c r="B27" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F27" s="46">
+        <v>40</v>
+      </c>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46">
+        <v>10</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46">
+        <v>20</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46">
+        <v>30</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46">
+        <v>40</v>
+      </c>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46">
+        <v>50</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="46"/>
+      <c r="B33" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F33" s="46">
+        <v>50</v>
+      </c>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46">
+        <v>10</v>
+      </c>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46">
+        <v>20</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46">
+        <v>30</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46">
+        <v>40</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="46"/>
+      <c r="B38" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F38" s="46">
+        <v>60</v>
+      </c>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46">
+        <v>10</v>
+      </c>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46">
+        <v>20</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46">
+        <v>30</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46">
+        <v>40</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="46"/>
+      <c r="B43" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F43" s="46">
+        <v>70</v>
+      </c>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46">
+        <v>10</v>
+      </c>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46">
+        <v>20</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46">
+        <v>30</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46">
+        <v>40</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="46"/>
+      <c r="B48" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F48" s="46">
+        <v>80</v>
+      </c>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46">
+        <v>10</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46">
+        <v>20</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46">
+        <v>30</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46">
+        <v>40</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="46"/>
+      <c r="B53" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="F53" s="46">
+        <v>90</v>
+      </c>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46">
+        <v>10</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46">
+        <v>20</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46">
+        <v>30</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46">
+        <v>40</v>
+      </c>
+      <c r="G57" s="46" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="B58" s="48"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="F58" s="46">
+        <v>40</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="46"/>
+      <c r="B59" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46">
+        <v>10</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46" t="s">
+        <v>655</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46">
+        <v>20</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46">
+        <v>30</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46">
+        <v>40</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46">
+        <v>50</v>
+      </c>
+      <c r="G63" s="46" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>680</v>
+      </c>
+      <c r="F64" s="46">
+        <v>60</v>
+      </c>
+      <c r="G64" s="46"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="E65" s="46" t="s">
         <v>678</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68" t="s">
+      <c r="F65" s="46">
+        <v>50</v>
+      </c>
+      <c r="G65" s="46"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46" t="s">
+        <v>659</v>
+      </c>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46">
+        <v>10</v>
+      </c>
+      <c r="G66" s="46" t="s">
         <v>679</v>
       </c>
-      <c r="E1" s="68" t="s">
-        <v>680</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>681</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="65" t="s">
-        <v>668</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>676</v>
-      </c>
-      <c r="F2" s="65">
-        <v>10</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65" t="s">
-        <v>700</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65">
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46">
         <v>20</v>
       </c>
-      <c r="G3" s="65"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="65"/>
-      <c r="B4" s="69" t="s">
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46">
+        <v>30</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46">
         <v>40</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>677</v>
-      </c>
-      <c r="F4" s="65">
-        <v>10</v>
-      </c>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65">
-        <v>10</v>
-      </c>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65">
-        <v>20</v>
-      </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65" t="s">
-        <v>659</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65">
-        <v>30</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65" t="s">
-        <v>660</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65">
-        <v>40</v>
-      </c>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65">
-        <v>50</v>
-      </c>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69" t="s">
-        <v>645</v>
-      </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="F10" s="65">
-        <v>20</v>
-      </c>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65">
-        <v>10</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65">
-        <v>20</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65">
-        <v>30</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69" t="s">
-        <v>648</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>683</v>
-      </c>
-      <c r="F14" s="65">
-        <v>30</v>
-      </c>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="65" t="s">
-        <v>654</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65" t="s">
-        <v>700</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65">
-        <v>30</v>
-      </c>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F16" s="65">
-        <v>10</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F17" s="65">
-        <v>20</v>
-      </c>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65">
-        <v>10</v>
-      </c>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65">
-        <v>20</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65">
-        <v>30</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65">
-        <v>40</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="65"/>
-      <c r="B22" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F22" s="65">
-        <v>30</v>
-      </c>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65">
-        <v>10</v>
-      </c>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65">
-        <v>20</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65">
-        <v>30</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65">
-        <v>40</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="65"/>
-      <c r="B27" s="69" t="s">
-        <v>431</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F27" s="65">
-        <v>40</v>
-      </c>
-      <c r="G27" s="65"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65">
-        <v>10</v>
-      </c>
-      <c r="G28" s="65"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65">
-        <v>20</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65">
-        <v>30</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65" t="s">
-        <v>674</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65">
-        <v>40</v>
-      </c>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65">
-        <v>50</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="65"/>
-      <c r="B33" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F33" s="65">
-        <v>50</v>
-      </c>
-      <c r="G33" s="65"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65">
-        <v>10</v>
-      </c>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65">
-        <v>20</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65">
-        <v>30</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65">
-        <v>40</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="65"/>
-      <c r="B38" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F38" s="65">
-        <v>60</v>
-      </c>
-      <c r="G38" s="65"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65">
-        <v>10</v>
-      </c>
-      <c r="G39" s="65"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65">
-        <v>20</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65">
-        <v>30</v>
-      </c>
-      <c r="G41" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65">
-        <v>40</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="65"/>
-      <c r="B43" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F43" s="65">
-        <v>70</v>
-      </c>
-      <c r="G43" s="65"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65">
-        <v>10</v>
-      </c>
-      <c r="G44" s="65"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65">
-        <v>20</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65">
-        <v>30</v>
-      </c>
-      <c r="G46" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65">
-        <v>40</v>
-      </c>
-      <c r="G47" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="65"/>
-      <c r="B48" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F48" s="65">
-        <v>80</v>
-      </c>
-      <c r="G48" s="65"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65">
-        <v>10</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65">
-        <v>20</v>
-      </c>
-      <c r="G50" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65">
-        <v>30</v>
-      </c>
-      <c r="G51" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65">
-        <v>40</v>
-      </c>
-      <c r="G52" s="65" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="65"/>
-      <c r="B53" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F53" s="65">
-        <v>90</v>
-      </c>
-      <c r="G53" s="65"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="D54" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65">
-        <v>10</v>
-      </c>
-      <c r="G54" s="65" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65">
-        <v>20</v>
-      </c>
-      <c r="G55" s="65" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65">
-        <v>30</v>
-      </c>
-      <c r="G56" s="65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65">
-        <v>40</v>
-      </c>
-      <c r="G57" s="65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E58" s="65" t="s">
-        <v>686</v>
-      </c>
-      <c r="F58" s="65">
-        <v>40</v>
-      </c>
-      <c r="G58" s="65" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="65"/>
-      <c r="B59" s="70" t="s">
-        <v>691</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65">
-        <v>10</v>
-      </c>
-      <c r="G59" s="65" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65" t="s">
-        <v>663</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65">
-        <v>20</v>
-      </c>
-      <c r="G60" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65" t="s">
-        <v>664</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65">
-        <v>30</v>
-      </c>
-      <c r="G61" s="65" t="s">
+      <c r="G69" s="46" t="s">
         <v>693</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65">
-        <v>40</v>
-      </c>
-      <c r="G62" s="65" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65" t="s">
-        <v>665</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65">
-        <v>50</v>
-      </c>
-      <c r="G63" s="65" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65" t="s">
-        <v>666</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E64" s="65" t="s">
-        <v>689</v>
-      </c>
-      <c r="F64" s="65">
-        <v>60</v>
-      </c>
-      <c r="G64" s="65"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="69" t="s">
-        <v>651</v>
-      </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65" t="s">
-        <v>670</v>
-      </c>
-      <c r="E65" s="65" t="s">
-        <v>687</v>
-      </c>
-      <c r="F65" s="65">
-        <v>50</v>
-      </c>
-      <c r="G65" s="65"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65" t="s">
-        <v>667</v>
-      </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65">
-        <v>10</v>
-      </c>
-      <c r="G66" s="65" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65">
-        <v>20</v>
-      </c>
-      <c r="G67" s="65"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65">
-        <v>30</v>
-      </c>
-      <c r="G68" s="65" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65">
-        <v>40</v>
-      </c>
-      <c r="G69" s="65" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -4873,13 +5031,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4924,20 +5082,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4945,13 +5103,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -4963,13 +5121,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4987,7 +5145,7 @@
         <v>299</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5005,7 +5163,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5023,7 +5181,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5041,7 +5199,7 @@
         <v>302</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5059,7 +5217,7 @@
         <v>303</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5127,12 +5285,12 @@
     </row>
     <row r="26" spans="4:5">
       <c r="E26" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5143,17 +5301,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="36.25" style="1" bestFit="1" customWidth="1"/>
@@ -5165,7 +5322,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>730</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -5213,20 +5370,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5237,16 +5394,16 @@
         <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5257,10 +5414,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5269,11 +5426,11 @@
         <v>198</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="L6" s="31"/>
     </row>
@@ -5282,13 +5439,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5305,270 +5462,304 @@
         <v>229</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>327</v>
+        <v>743</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>742</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>329</v>
+        <v>707</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>418</v>
+        <v>230</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="7" customFormat="1">
+        <v>609</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>299</v>
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>149</v>
+        <v>413</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>611</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1">
       <c r="A14" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1">
       <c r="A15" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" s="7" customFormat="1">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="H19" s="34">
+      <c r="H16" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="H21" s="34">
         <v>41863</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
-      <c r="D20" s="1" t="str">
+    <row r="22" spans="1:8">
+      <c r="D22" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_arrears (</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="E21" s="1" t="str">
+    <row r="23" spans="1:8">
+      <c r="E23" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="22" spans="3:8">
-      <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
+    <row r="24" spans="1:8">
+      <c r="E24" s="1" t="str">
+        <f>C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="23" spans="3:8">
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:8">
+      <c r="E25" s="1" t="str">
+        <f>C6&amp;" "&amp;D6&amp;", "</f>
         <v xml:space="preserve">arrears_type varchar(50), </v>
       </c>
     </row>
-    <row r="24" spans="3:8">
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
+    <row r="26" spans="1:8">
+      <c r="E26" s="1" t="str">
+        <f>C7&amp;" "&amp;D7&amp;", "</f>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="3:8">
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
+    <row r="27" spans="1:8">
+      <c r="E27" s="1" t="str">
+        <f>C8&amp;" "&amp;D8&amp;", "</f>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="3:8">
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
+    <row r="28" spans="1:8">
+      <c r="E28" s="1" t="str">
+        <f t="shared" ref="E28:E35" si="0">C11&amp;" "&amp;D11&amp;", "</f>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="E27" s="1" t="str">
+    <row r="29" spans="1:8">
+      <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="E28" s="1" t="str">
+    <row r="30" spans="1:8">
+      <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="E29" s="1" t="str">
+    <row r="31" spans="1:8">
+      <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="30" spans="3:8">
-      <c r="E30" s="1" t="str">
+    <row r="32" spans="1:8">
+      <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
-      </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
-      </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="E32" s="1" t="str">
-        <f>C15&amp;" "&amp;D15&amp;", "</f>
-        <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="E34" s="1" t="str">
+        <f>C17&amp;" "&amp;D17&amp;", "</f>
+        <v xml:space="preserve">update_user char(36), </v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
-      <c r="E34" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
-        <v>640</v>
+    <row r="36" spans="4:5">
+      <c r="E36" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="1" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5774,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D16:E28"/>
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5602,13 +5793,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5650,20 +5841,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5674,10 +5865,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5689,13 +5880,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5707,13 +5898,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5725,13 +5916,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5749,7 +5940,7 @@
         <v>299</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5767,7 +5958,7 @@
         <v>300</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5785,7 +5976,7 @@
         <v>301</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5803,7 +5994,7 @@
         <v>302</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5823,7 +6014,7 @@
         <v>303</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -5898,12 +6089,12 @@
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5936,7 +6127,7 @@
         <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>160</v>
@@ -5984,20 +6175,20 @@
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6008,10 +6199,10 @@
         <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6028,10 +6219,10 @@
         <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6048,10 +6239,10 @@
         <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6066,10 +6257,10 @@
         <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6083,13 +6274,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6104,10 +6295,10 @@
         <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6119,13 +6310,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6140,10 +6331,10 @@
         <v>170</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6158,10 +6349,10 @@
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6178,10 +6369,10 @@
         <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6196,10 +6387,10 @@
         <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6216,10 +6407,10 @@
         <v>206</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6234,10 +6425,10 @@
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6252,10 +6443,10 @@
         <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6272,10 +6463,10 @@
         <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6290,10 +6481,10 @@
         <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6308,10 +6499,10 @@
         <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6326,10 +6517,10 @@
         <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6344,10 +6535,10 @@
         <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6484,12 +6675,12 @@
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6521,7 +6712,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -6569,20 +6760,20 @@
         <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6593,10 +6784,10 @@
         <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6613,10 +6804,10 @@
         <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6631,10 +6822,10 @@
         <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6646,13 +6837,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6664,13 +6855,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6685,10 +6876,10 @@
         <v>237</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6700,13 +6891,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6721,10 +6912,10 @@
         <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6739,10 +6930,10 @@
         <v>238</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6757,10 +6948,10 @@
         <v>239</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6772,13 +6963,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6790,13 +6981,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6814,7 +7005,7 @@
         <v>299</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6832,7 +7023,7 @@
         <v>300</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6850,7 +7041,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6868,7 +7059,7 @@
         <v>302</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6888,7 +7079,7 @@
         <v>303</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7011,12 +7202,12 @@
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -7049,13 +7240,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7097,18 +7288,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7119,7 +7310,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7135,7 +7326,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7148,7 +7339,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>272</v>
@@ -7169,7 +7360,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7185,7 +7376,7 @@
         <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7198,10 +7389,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7214,10 +7405,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7233,7 +7424,7 @@
         <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7246,10 +7437,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7262,10 +7453,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7278,10 +7469,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7299,7 +7490,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7312,13 +7503,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7333,10 +7524,10 @@
         <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7348,13 +7539,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7366,13 +7557,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7384,13 +7575,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7410,7 +7601,7 @@
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>259</v>
@@ -7427,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>247</v>
@@ -7449,10 +7640,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>247</v>
@@ -7471,10 +7662,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>247</v>
@@ -7493,10 +7684,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>247</v>
@@ -7515,10 +7706,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>252</v>
@@ -7537,10 +7728,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>252</v>
@@ -7559,10 +7750,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>252</v>
@@ -7581,10 +7772,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>252</v>
@@ -7605,10 +7796,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>252</v>
@@ -7629,10 +7820,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>257</v>
@@ -7651,10 +7842,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>257</v>
@@ -7673,10 +7864,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>257</v>
@@ -7723,13 +7914,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>566</v>
+        <v>737</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7771,18 +7962,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7790,10 +7981,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7809,7 +8000,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7843,7 +8034,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -7857,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
@@ -7873,7 +8064,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -7889,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
@@ -7933,13 +8124,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -7981,18 +8172,18 @@
         <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -8000,10 +8191,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -8014,7 +8205,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8030,7 +8221,7 @@
         <v>268</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8038,10 +8229,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="J7" s="39" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="L7" s="39"/>
       <c r="N7" s="39"/>
@@ -8052,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="T7" s="39">
         <v>1</v>
@@ -8064,10 +8255,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8075,10 +8266,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="J8" s="39" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="L8" s="39"/>
       <c r="N8" s="39"/>
@@ -8089,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="T8" s="39">
         <v>1</v>
@@ -8104,7 +8295,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8112,10 +8303,10 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="J9" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>578</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>586</v>
       </c>
       <c r="L9" s="39"/>
       <c r="N9" s="39"/>
@@ -8126,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="T9" s="39">
         <v>1</v>
@@ -8141,7 +8332,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8152,7 +8343,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="L10" s="39"/>
       <c r="N10" s="39"/>
@@ -8163,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="T10" s="39">
         <v>1</v>
@@ -8175,10 +8366,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8189,7 +8380,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="L11" s="39"/>
       <c r="N11" s="39"/>
@@ -8200,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="T11" s="39">
         <v>1</v>
@@ -8215,7 +8406,7 @@
         <v>269</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -8239,10 +8430,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8255,10 +8446,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8271,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>37</v>
@@ -8280,7 +8471,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C21 &amp;""", """&amp;E21&amp;""", "&amp;A21&amp;", """&amp;D21&amp;""");"</f>
@@ -8292,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>38</v>
@@ -8301,7 +8492,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" ref="I22:I42" si="0">"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C22 &amp;""", """&amp;E22&amp;""", "&amp;A22&amp;", """&amp;D22&amp;""");"</f>
@@ -8313,7 +8504,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -8322,7 +8513,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8334,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>39</v>
@@ -8343,7 +8534,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8355,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>40</v>
@@ -8364,7 +8555,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8376,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>67</v>
@@ -8385,7 +8576,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8397,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>41</v>
@@ -8406,7 +8597,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8418,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>64</v>
@@ -8427,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8448,7 +8639,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8460,7 +8651,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>42</v>
@@ -8469,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="1" t="str">
@@ -8482,7 +8673,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>43</v>
@@ -8491,7 +8682,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="1" t="str">
@@ -8504,16 +8695,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="1" t="str">
@@ -8535,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="1" t="str">
@@ -8548,7 +8739,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>45</v>
@@ -8557,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H34"/>
       <c r="I34" s="1" t="str">
@@ -8570,7 +8761,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>46</v>
@@ -8579,7 +8770,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="1" t="str">
@@ -8592,7 +8783,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>48</v>
@@ -8601,7 +8792,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="1" t="str">
@@ -8614,7 +8805,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>47</v>
@@ -8623,7 +8814,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="1" t="str">
@@ -8636,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>35</v>
@@ -8645,7 +8836,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H38"/>
       <c r="I38" s="1" t="str">
@@ -8658,7 +8849,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>51</v>
@@ -8667,7 +8858,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H39"/>
       <c r="I39" s="1" t="str">
@@ -8680,7 +8871,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>36</v>
@@ -8689,7 +8880,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="1" t="str">
@@ -8702,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
@@ -8711,7 +8902,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H41"/>
       <c r="I41" s="1" t="str">
@@ -8724,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>56</v>
@@ -8733,7 +8924,7 @@
         <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H42"/>
       <c r="I42" s="1" t="str">
@@ -8743,27 +8934,27 @@
     </row>
     <row r="45" spans="1:9">
       <c r="I45" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="I46" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="I47" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="I48" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -8795,13 +8986,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8843,18 +9034,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8862,10 +9053,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8878,10 +9069,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8894,10 +9085,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8913,7 +9104,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8952,13 +9143,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9000,20 +9191,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9021,13 +9212,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -9039,13 +9230,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -9060,10 +9251,10 @@
         <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -9075,13 +9266,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -9096,10 +9287,10 @@
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -9111,13 +9302,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -9129,13 +9320,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -9147,13 +9338,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -9171,7 +9362,7 @@
         <v>303</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -9236,58 +9427,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="47" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -9316,13 +9507,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9365,7 +9556,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -9406,7 +9597,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -9447,7 +9638,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -9482,17 +9673,17 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>646</v>
+      <c r="E8" s="45" t="s">
+        <v>638</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -9511,15 +9702,15 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="63" t="s">
-        <v>645</v>
+      <c r="B9" s="55"/>
+      <c r="C9" s="44" t="s">
+        <v>637</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>647</v>
+      <c r="E9" s="45" t="s">
+        <v>639</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -9538,9 +9729,9 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="63" t="s">
-        <v>648</v>
+      <c r="B10" s="55"/>
+      <c r="C10" s="44" t="s">
+        <v>640</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
@@ -9563,16 +9754,16 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="44" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="17"/>
       <c r="G11" s="15"/>
       <c r="H11" s="17"/>
@@ -9594,7 +9785,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -9623,15 +9814,15 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>649</v>
+      <c r="E13" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -9654,15 +9845,15 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>649</v>
+      <c r="E14" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
@@ -9685,15 +9876,15 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="63" t="s">
-        <v>431</v>
+      <c r="B15" s="55"/>
+      <c r="C15" s="44" t="s">
+        <v>425</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="64" t="s">
-        <v>649</v>
+      <c r="E15" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15"/>
@@ -9716,15 +9907,15 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="63" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>649</v>
+      <c r="E16" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="15"/>
@@ -9747,15 +9938,15 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>649</v>
+      <c r="E17" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="15"/>
@@ -9778,15 +9969,15 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>649</v>
+      <c r="E18" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="15"/>
@@ -9809,15 +10000,15 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>649</v>
+      <c r="E19" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="15"/>
@@ -9840,15 +10031,15 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>649</v>
+      <c r="E20" s="45" t="s">
+        <v>641</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
@@ -9871,17 +10062,17 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>650</v>
+      <c r="E21" s="45" t="s">
+        <v>642</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>12</v>
@@ -9902,7 +10093,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -9937,7 +10128,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -9970,17 +10161,17 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="44" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="64" t="s">
-        <v>652</v>
+      <c r="E24" s="45" t="s">
+        <v>644</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
@@ -10003,7 +10194,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -10032,7 +10223,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -10059,7 +10250,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -10122,7 +10313,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10130,8 +10321,9 @@
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
+    <col min="4" max="4" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="66.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -10141,15 +10333,15 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1" s="55"/>
+      <c r="B1" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1" s="65"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10161,10 +10353,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -10188,41 +10380,43 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>426</v>
+      <c r="B4" s="66" t="s">
+        <v>420</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="27" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E5" s="27"/>
+        <v>594</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>735</v>
+      </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -10232,14 +10426,16 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="27" t="s">
+        <v>736</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -10249,16 +10445,18 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>414</v>
+      <c r="B7" s="66" t="s">
+        <v>408</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>596</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>592</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -10268,447 +10466,537 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>738</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>592</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>597</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>598</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="27" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="27" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="E12" s="27"/>
+        <v>601</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>600</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="27" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="64" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="E14" s="27"/>
+        <v>603</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+        <v>409</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+        <v>410</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+        <v>411</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>614</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="64" t="s">
+        <v>712</v>
+      </c>
       <c r="C19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+        <v>396</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>614</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+        <v>436</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>440</v>
+      <c r="B21" s="64" t="s">
+        <v>433</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+        <v>397</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+        <v>398</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+        <v>399</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="69" t="s">
+        <v>713</v>
+      </c>
       <c r="C24" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+        <v>396</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+        <v>436</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="54" t="s">
-        <v>406</v>
+      <c r="B26" s="64" t="s">
+        <v>400</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+        <v>401</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+        <v>402</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="64" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+        <v>403</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+        <v>445</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+        <v>404</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -10716,32 +11004,40 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="54" t="s">
-        <v>412</v>
+      <c r="B34" s="64" t="s">
+        <v>406</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -10751,12 +11047,16 @@
       <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>740</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -10764,12 +11064,12 @@
     </row>
     <row r="38" spans="1:9">
       <c r="C38" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="D39" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -10796,8 +11096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10817,7 +11117,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -10865,20 +11165,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -10892,7 +11192,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -10910,7 +11210,7 @@
         <v>271</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -10925,16 +11225,16 @@
         <v>96</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10948,7 +11248,7 @@
         <v>274</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -10966,7 +11266,7 @@
         <v>275</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -10978,13 +11278,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11002,7 +11302,7 @@
         <v>277</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11020,7 +11320,7 @@
         <v>279</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -11038,7 +11338,7 @@
         <v>281</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11056,7 +11356,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11078,7 +11378,7 @@
         <v>287</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -11098,7 +11398,7 @@
         <v>286</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -11116,7 +11416,7 @@
         <v>289</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -11134,7 +11434,7 @@
         <v>291</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -11152,13 +11452,13 @@
         <v>293</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11172,7 +11472,7 @@
         <v>294</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -11192,7 +11492,7 @@
         <v>295</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -11204,19 +11504,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>297</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -11231,13 +11531,13 @@
         <v>298</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11245,13 +11545,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -11269,7 +11569,7 @@
         <v>299</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -11289,7 +11589,7 @@
         <v>300</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -11307,7 +11607,7 @@
         <v>301</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -11327,7 +11627,7 @@
         <v>302</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -11345,7 +11645,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -11516,12 +11816,12 @@
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -11535,7 +11835,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11554,13 +11854,13 @@
         <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>741</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11602,20 +11902,20 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11626,10 +11926,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11641,13 +11941,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11662,10 +11962,10 @@
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11679,13 +11979,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11697,18 +11997,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>119</v>
@@ -11725,7 +12025,7 @@
         <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11745,7 +12045,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11763,7 +12063,7 @@
         <v>301</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -11783,7 +12083,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11802,7 +12102,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11812,7 +12112,7 @@
     <row r="18" spans="4:5">
       <c r="D18" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
-        <v>create table t_contract_supplemental_agreement (</v>
+        <v>create table t_contract_change (</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -11883,12 +12183,12 @@
     </row>
     <row r="30" spans="4:5">
       <c r="E30" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -11903,7 +12203,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11922,13 +12222,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>433</v>
+        <v>714</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11936,7 +12236,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11973,20 +12273,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11997,10 +12297,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12015,10 +12315,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12033,10 +12333,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -12048,18 +12348,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>126</v>
@@ -12076,7 +12376,7 @@
         <v>286</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -12090,13 +12390,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -12111,10 +12411,10 @@
         <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -12129,10 +12429,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -12147,10 +12447,10 @@
         <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -12165,10 +12465,10 @@
         <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -12185,7 +12485,7 @@
         <v>299</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -12205,7 +12505,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -12223,7 +12523,7 @@
         <v>301</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -12243,7 +12543,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -12263,7 +12563,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -12384,12 +12684,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -12403,7 +12703,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12422,7 +12722,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
@@ -12436,7 +12736,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12473,20 +12773,20 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -12497,10 +12797,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12515,10 +12815,10 @@
         <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12533,10 +12833,10 @@
         <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -12553,10 +12853,10 @@
         <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -12568,18 +12868,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -12594,7 +12894,7 @@
         <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -12614,7 +12914,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -12632,7 +12932,7 @@
         <v>301</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -12652,7 +12952,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -12672,7 +12972,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -12753,12 +13053,12 @@
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -12772,7 +13072,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12792,7 +13092,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>717</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -12843,20 +13143,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -12867,10 +13167,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12885,10 +13185,10 @@
         <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12900,19 +13200,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -12923,10 +13223,10 @@
         <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -12943,10 +13243,10 @@
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -12961,10 +13261,10 @@
         <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -12979,10 +13279,10 @@
         <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -12994,18 +13294,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -13020,7 +13320,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13040,7 +13340,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13058,7 +13358,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -13078,7 +13378,7 @@
         <v>302</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13098,7 +13398,7 @@
         <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -13197,12 +13497,12 @@
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -13218,7 +13518,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13237,13 +13537,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>723</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13288,20 +13588,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13312,10 +13612,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -13327,13 +13627,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -13345,13 +13645,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13365,19 +13665,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13388,10 +13688,10 @@
         <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13403,13 +13703,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13421,13 +13721,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13439,13 +13739,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13463,7 +13763,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13481,7 +13781,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13499,7 +13799,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -13517,7 +13817,7 @@
         <v>302</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13537,7 +13837,7 @@
         <v>303</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -13546,7 +13846,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="30" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13641,12 +13941,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" firstSheet="6" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="747">
   <si>
     <t>序号</t>
   </si>
@@ -1090,9 +1090,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>财务部</t>
-  </si>
-  <si>
     <t>财务总监，系统管理员</t>
   </si>
   <si>
@@ -1105,9 +1102,6 @@
     <t>盖章经办人</t>
   </si>
   <si>
-    <t>项目部</t>
-  </si>
-  <si>
     <t>项目部负责人</t>
   </si>
   <si>
@@ -1118,9 +1112,6 @@
   </si>
   <si>
     <t>盖章</t>
-  </si>
-  <si>
-    <t>事业部</t>
   </si>
   <si>
     <t>事业部负责人</t>
@@ -3029,6 +3020,24 @@
   <si>
     <t>利息额</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>DECIMAL(20,4)</t>
+  </si>
+  <si>
+    <t>0ed38235-0c3a-11e4-9300-001c42328937</t>
+  </si>
+  <si>
+    <t>0ed4d3a1-0c3a-11e4-9300-001c42328937</t>
+  </si>
+  <si>
+    <t>0ed44f90-0c3a-11e4-9300-001c42328937</t>
   </si>
 </sst>
 </file>
@@ -3481,15 +3490,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3512,6 +3512,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3811,7 +3820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3837,18 +3846,18 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="51" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
       <c r="D1" s="47" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>9</v>
@@ -3856,34 +3865,34 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F2" s="46">
         <v>10</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="46" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F3" s="46">
         <v>20</v>
@@ -3897,10 +3906,10 @@
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F4" s="46">
         <v>10</v>
@@ -3911,13 +3920,13 @@
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F5" s="46">
         <v>10</v>
@@ -3928,13 +3937,13 @@
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F6" s="46">
         <v>20</v>
@@ -3945,32 +3954,32 @@
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F7" s="46">
         <v>30</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F8" s="46">
         <v>40</v>
@@ -3981,10 +3990,10 @@
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46">
@@ -3995,14 +4004,14 @@
     <row r="10" spans="1:7">
       <c r="A10" s="46"/>
       <c r="B10" s="48" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F10" s="46">
         <v>20</v>
@@ -4013,64 +4022,64 @@
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46">
         <v>10</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46">
         <v>20</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46">
         <v>30</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="46"/>
       <c r="B14" s="48" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F14" s="46">
         <v>30</v>
@@ -4079,12 +4088,12 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="46" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46">
@@ -4099,16 +4108,16 @@
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F16" s="46">
         <v>10</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4118,10 +4127,10 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F17" s="46">
         <v>20</v>
@@ -4132,10 +4141,10 @@
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
@@ -4147,51 +4156,51 @@
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46">
         <v>20</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46">
         <v>30</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46">
         <v>40</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4201,10 +4210,10 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F22" s="46">
         <v>30</v>
@@ -4215,10 +4224,10 @@
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46">
@@ -4230,64 +4239,64 @@
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46">
         <v>20</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46">
         <v>30</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46">
         <v>40</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="46"/>
       <c r="B27" s="48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F27" s="46">
         <v>40</v>
@@ -4298,10 +4307,10 @@
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46">
@@ -4313,44 +4322,44 @@
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46">
         <v>20</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46">
         <v>30</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46">
@@ -4362,17 +4371,17 @@
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46">
         <v>50</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4382,10 +4391,10 @@
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F33" s="46">
         <v>50</v>
@@ -4396,10 +4405,10 @@
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46">
@@ -4411,51 +4420,51 @@
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46">
         <v>20</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46">
         <v>30</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46">
         <v>40</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4465,10 +4474,10 @@
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F38" s="46">
         <v>60</v>
@@ -4479,10 +4488,10 @@
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46">
@@ -4494,51 +4503,51 @@
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="46">
         <v>20</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46">
         <v>30</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="46">
         <v>40</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4548,10 +4557,10 @@
       </c>
       <c r="C43" s="46"/>
       <c r="D43" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F43" s="46">
         <v>70</v>
@@ -4562,10 +4571,10 @@
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46">
@@ -4577,51 +4586,51 @@
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46">
         <v>20</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46">
         <v>30</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="46">
         <v>40</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4631,10 +4640,10 @@
       </c>
       <c r="C48" s="46"/>
       <c r="D48" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F48" s="46">
         <v>80</v>
@@ -4645,68 +4654,68 @@
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="46">
         <v>10</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="46">
         <v>20</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="46">
         <v>30</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="46">
         <v>40</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4716,10 +4725,10 @@
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F53" s="46">
         <v>90</v>
@@ -4730,185 +4739,185 @@
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46">
         <v>10</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="46">
         <v>20</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="46">
         <v>30</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="46">
         <v>40</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="46" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="46"/>
       <c r="D58" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F58" s="46">
         <v>40</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="46"/>
       <c r="B59" s="49" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E59" s="46"/>
       <c r="F59" s="46">
         <v>10</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="46"/>
       <c r="B60" s="46" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="46">
         <v>20</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="46"/>
       <c r="B61" s="46" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E61" s="46"/>
       <c r="F61" s="46">
         <v>30</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="46"/>
       <c r="B62" s="46" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C62" s="46"/>
       <c r="D62" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="46">
         <v>40</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="46"/>
       <c r="B63" s="46" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C63" s="46"/>
       <c r="D63" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="46">
         <v>50</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="46"/>
       <c r="B64" s="46" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C64" s="46"/>
       <c r="D64" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F64" s="46">
         <v>60</v>
@@ -4917,15 +4926,15 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="48" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="46"/>
       <c r="D65" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F65" s="46">
         <v>50</v>
@@ -4935,28 +4944,28 @@
     <row r="66" spans="1:7">
       <c r="A66" s="46"/>
       <c r="B66" s="46" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C66" s="46"/>
       <c r="D66" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46">
         <v>10</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="46"/>
       <c r="B67" s="46" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C67" s="46"/>
       <c r="D67" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E67" s="46"/>
       <c r="F67" s="46">
@@ -4967,35 +4976,35 @@
     <row r="68" spans="1:7">
       <c r="A68" s="46"/>
       <c r="B68" s="46" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C68" s="46"/>
       <c r="D68" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E68" s="46"/>
       <c r="F68" s="46">
         <v>30</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="46"/>
       <c r="B69" s="46" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C69" s="46"/>
       <c r="D69" s="46" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E69" s="46"/>
       <c r="F69" s="46">
         <v>40</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -5031,13 +5040,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5082,20 +5091,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5103,13 +5112,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5121,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5142,10 +5151,10 @@
         <v>226</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5160,10 +5169,10 @@
         <v>227</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5178,10 +5187,10 @@
         <v>104</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5196,10 +5205,10 @@
         <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5214,10 +5223,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5285,12 +5294,12 @@
     </row>
     <row r="26" spans="4:5">
       <c r="E26" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5322,7 +5331,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -5370,20 +5379,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5394,16 +5403,16 @@
         <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5414,10 +5423,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5426,11 +5435,11 @@
         <v>198</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L6" s="31"/>
     </row>
@@ -5439,13 +5448,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5462,31 +5471,31 @@
         <v>229</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5497,13 +5506,13 @@
     <row r="10" spans="1:12">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5519,10 +5528,10 @@
         <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5537,10 +5546,10 @@
         <v>223</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5552,20 +5561,20 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1">
@@ -5576,10 +5585,10 @@
         <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -5594,10 +5603,10 @@
         <v>149</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -5612,10 +5621,10 @@
         <v>104</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -5632,10 +5641,10 @@
         <v>105</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -5650,10 +5659,10 @@
         <v>231</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5662,7 +5671,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H21" s="34">
         <v>41863</v>
@@ -5754,12 +5763,12 @@
     </row>
     <row r="36" spans="4:5">
       <c r="E36" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="D37" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5793,13 +5802,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5841,20 +5850,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5865,10 +5874,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -5880,13 +5889,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5898,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5916,13 +5925,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5937,10 +5946,10 @@
         <v>232</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5955,10 +5964,10 @@
         <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5973,10 +5982,10 @@
         <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5991,10 +6000,10 @@
         <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6011,10 +6020,10 @@
         <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6089,12 +6098,12 @@
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +6136,7 @@
         <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>160</v>
@@ -6175,20 +6184,20 @@
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6199,10 +6208,10 @@
         <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6219,10 +6228,10 @@
         <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6239,10 +6248,10 @@
         <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6257,10 +6266,10 @@
         <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6274,13 +6283,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6295,10 +6304,10 @@
         <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6310,13 +6319,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6331,10 +6340,10 @@
         <v>170</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6349,10 +6358,10 @@
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6369,10 +6378,10 @@
         <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6387,10 +6396,10 @@
         <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6407,10 +6416,10 @@
         <v>206</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6425,10 +6434,10 @@
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6443,10 +6452,10 @@
         <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6463,10 +6472,10 @@
         <v>174</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6481,10 +6490,10 @@
         <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6499,10 +6508,10 @@
         <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6517,10 +6526,10 @@
         <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6535,10 +6544,10 @@
         <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6675,12 +6684,12 @@
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -6712,7 +6721,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -6760,20 +6769,20 @@
         <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6784,10 +6793,10 @@
         <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6804,10 +6813,10 @@
         <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6822,10 +6831,10 @@
         <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6837,13 +6846,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6855,13 +6864,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6876,10 +6885,10 @@
         <v>237</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6891,13 +6900,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6912,10 +6921,10 @@
         <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6930,10 +6939,10 @@
         <v>238</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6948,10 +6957,10 @@
         <v>239</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6963,13 +6972,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6981,13 +6990,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -7002,10 +7011,10 @@
         <v>240</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7020,10 +7029,10 @@
         <v>241</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7038,10 +7047,10 @@
         <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7056,10 +7065,10 @@
         <v>242</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7076,10 +7085,10 @@
         <v>243</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7202,12 +7211,12 @@
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -7220,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7240,13 +7249,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7288,18 +7297,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7310,7 +7319,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7326,7 +7335,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7339,10 +7348,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7360,7 +7369,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7376,7 +7385,7 @@
         <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7389,10 +7398,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7405,10 +7414,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7424,7 +7433,7 @@
         <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7437,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7453,10 +7462,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7469,10 +7478,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7490,7 +7499,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7503,13 +7512,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7524,10 +7533,10 @@
         <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7539,13 +7548,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7557,13 +7566,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -7575,13 +7584,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -7601,13 +7610,13 @@
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -7618,21 +7627,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F27" s="6"/>
       <c r="H27" s="1" t="str">
-        <f t="shared" ref="H27:H38" si="0">"INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),""" &amp; C27 &amp;""",""" &amp; B27 &amp;""",""" &amp; D27 &amp;""",""" &amp; E27 &amp;""");"</f>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"dujuan","杜鹃","财务部","财务总监，系统管理员");</v>
+        <f>"INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),""" &amp; C27 &amp;""",""" &amp; B27 &amp;""",""" &amp; D27 &amp;""",""" &amp; E27 &amp;""","&amp; A27&amp;");"</f>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"dujuan","杜鹃","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务总监，系统管理员",1);</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7640,21 +7649,21 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>247</v>
+        <v>745</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" s="6"/>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhangmeng","张梦","财务部","财务经理");</v>
+        <f t="shared" ref="H28:H38" si="0">"INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),""" &amp; C28 &amp;""",""" &amp; B28 &amp;""",""" &amp; D28 &amp;""",""" &amp; E28 &amp;""","&amp; A28&amp;");"</f>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangmeng","张梦","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务经理",2);</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7662,21 +7671,21 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>247</v>
+        <v>745</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"liuyuecui","刘月翠","财务部","财务核算员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"liuyuecui","刘月翠","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务核算员",3);</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7684,21 +7693,21 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>247</v>
+        <v>745</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="6"/>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangshuyan","王书岩","财务部","盖章经办人");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangshuyan","王书岩","0ed4d3a1-0c3a-11e4-9300-001c42328937","盖章经办人",4);</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7706,21 +7715,21 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>252</v>
+        <v>746</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F31" s="6"/>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"yangdeyou","杨德友","项目部","项目部负责人");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"yangdeyou","杨德友","0ed44f90-0c3a-11e4-9300-001c42328937","项目部负责人",5);</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7728,21 +7737,21 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F32" s="6"/>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangyong","王勇","项目部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyong","王勇","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",6);</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7750,21 +7759,21 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F33" s="6"/>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"xiadongyan","夏冬燕","项目部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"xiadongyan","夏冬燕","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",7);</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7772,23 +7781,23 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhangyan","张岩","项目部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangyan","张岩","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",8);</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7796,23 +7805,23 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangpeng","王鹏","项目部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangpeng","王鹏","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",9);</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7820,21 +7829,21 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>257</v>
+        <v>744</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangyouqing","王有青","事业部","事业部负责人");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyouqing","王有青","0ed38235-0c3a-11e4-9300-001c42328937","事业部负责人",10);</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7842,21 +7851,21 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>257</v>
+        <v>744</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"zhoukai","周楷","事业部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhoukai","周楷","0ed38235-0c3a-11e4-9300-001c42328937","项目部操作员",11);</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7864,23 +7873,23 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>257</v>
+        <v>744</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO t_sys_user (id, login_name, real_name, department, position) VALUES(uuid(),"wangjiaxin","王佳鑫","事业部","项目部操作员");</v>
+        <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangjiaxin","王佳鑫","0ed38235-0c3a-11e4-9300-001c42328937","项目部操作员",12);</v>
       </c>
     </row>
   </sheetData>
@@ -7895,7 +7904,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H15" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7914,13 +7923,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7962,18 +7971,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7981,10 +7990,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8000,7 +8009,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8016,7 +8025,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8034,7 +8043,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8048,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
@@ -8064,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -8080,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
@@ -8124,13 +8133,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -8172,18 +8181,18 @@
         <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -8191,10 +8200,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -8205,7 +8214,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8218,10 +8227,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8229,10 +8238,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="J7" s="39" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L7" s="39"/>
       <c r="N7" s="39"/>
@@ -8243,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T7" s="39">
         <v>1</v>
@@ -8255,10 +8264,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8266,10 +8275,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="J8" s="39" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L8" s="39"/>
       <c r="N8" s="39"/>
@@ -8280,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T8" s="39">
         <v>1</v>
@@ -8295,7 +8304,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8303,10 +8312,10 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="J9" s="39" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L9" s="39"/>
       <c r="N9" s="39"/>
@@ -8317,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T9" s="39">
         <v>1</v>
@@ -8332,7 +8341,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8343,7 +8352,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L10" s="39"/>
       <c r="N10" s="39"/>
@@ -8354,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T10" s="39">
         <v>1</v>
@@ -8366,10 +8375,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8380,7 +8389,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L11" s="39"/>
       <c r="N11" s="39"/>
@@ -8391,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="T11" s="39">
         <v>1</v>
@@ -8403,10 +8412,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -8430,10 +8439,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8446,10 +8455,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8462,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>37</v>
@@ -8471,7 +8480,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C21 &amp;""", """&amp;E21&amp;""", "&amp;A21&amp;", """&amp;D21&amp;""");"</f>
@@ -8483,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>38</v>
@@ -8492,7 +8501,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" ref="I22:I42" si="0">"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C22 &amp;""", """&amp;E22&amp;""", "&amp;A22&amp;", """&amp;D22&amp;""");"</f>
@@ -8504,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -8513,7 +8522,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8525,7 +8534,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>39</v>
@@ -8534,7 +8543,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8546,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>40</v>
@@ -8555,7 +8564,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8567,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>67</v>
@@ -8576,7 +8585,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8588,7 +8597,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>41</v>
@@ -8597,7 +8606,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8609,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>64</v>
@@ -8618,7 +8627,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8639,7 +8648,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8651,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>42</v>
@@ -8660,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="1" t="str">
@@ -8673,7 +8682,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>43</v>
@@ -8682,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="1" t="str">
@@ -8695,16 +8704,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="1" t="str">
@@ -8726,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="1" t="str">
@@ -8739,7 +8748,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>45</v>
@@ -8748,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H34"/>
       <c r="I34" s="1" t="str">
@@ -8761,7 +8770,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>46</v>
@@ -8770,7 +8779,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="1" t="str">
@@ -8783,7 +8792,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>48</v>
@@ -8792,7 +8801,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="1" t="str">
@@ -8805,7 +8814,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>47</v>
@@ -8814,7 +8823,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="1" t="str">
@@ -8827,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>35</v>
@@ -8836,7 +8845,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H38"/>
       <c r="I38" s="1" t="str">
@@ -8849,7 +8858,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>51</v>
@@ -8858,7 +8867,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H39"/>
       <c r="I39" s="1" t="str">
@@ -8871,7 +8880,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>36</v>
@@ -8880,7 +8889,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="1" t="str">
@@ -8893,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
@@ -8902,7 +8911,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H41"/>
       <c r="I41" s="1" t="str">
@@ -8915,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>56</v>
@@ -8924,7 +8933,7 @@
         <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H42"/>
       <c r="I42" s="1" t="str">
@@ -8934,27 +8943,27 @@
     </row>
     <row r="45" spans="1:9">
       <c r="I45" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="I46" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="I47" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="I48" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8986,13 +8995,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9034,18 +9043,18 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9053,10 +9062,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -9069,10 +9078,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -9085,10 +9094,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9104,7 +9113,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9123,7 +9132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -9143,13 +9152,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9191,20 +9200,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9212,13 +9221,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -9230,13 +9239,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -9251,10 +9260,10 @@
         <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -9266,13 +9275,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -9287,10 +9296,10 @@
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -9302,13 +9311,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -9320,13 +9329,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -9338,13 +9347,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -9359,10 +9368,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -9371,30 +9380,30 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9427,58 +9436,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="57" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -9507,13 +9516,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="57"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9556,7 +9565,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -9597,7 +9606,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -9638,7 +9647,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -9673,7 +9682,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -9683,7 +9692,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -9702,15 +9711,15 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="44" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -9729,9 +9738,9 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="44" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
@@ -9754,7 +9763,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -9785,7 +9794,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -9814,7 +9823,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -9845,7 +9854,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
@@ -9853,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
@@ -9876,15 +9885,15 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="44" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15"/>
@@ -9907,7 +9916,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
@@ -9915,7 +9924,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="15"/>
@@ -9938,7 +9947,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
@@ -9946,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="15"/>
@@ -9969,7 +9978,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
@@ -9977,7 +9986,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="15"/>
@@ -10000,7 +10009,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
@@ -10008,7 +10017,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="15"/>
@@ -10031,7 +10040,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
@@ -10039,7 +10048,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
@@ -10062,7 +10071,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -10072,7 +10081,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>12</v>
@@ -10093,7 +10102,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -10128,7 +10137,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -10161,7 +10170,7 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="61" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -10171,7 +10180,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
@@ -10194,7 +10203,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -10223,7 +10232,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="61" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -10250,7 +10259,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -10288,6 +10297,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -10295,12 +10310,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -10312,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10334,14 +10343,14 @@
         <v>82</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C1" s="65"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10381,26 +10390,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10409,13 +10418,13 @@
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -10431,10 +10440,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -10446,16 +10455,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -10471,16 +10480,16 @@
         <v>96</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10492,16 +10501,16 @@
         <v>94</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>270</v>
+        <v>594</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10513,16 +10522,16 @@
         <v>95</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>271</v>
+        <v>595</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>742</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10531,19 +10540,19 @@
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="27" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="27"/>
+        <v>743</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10552,19 +10561,19 @@
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="F12" s="27"/>
+        <v>743</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10573,19 +10582,19 @@
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="27"/>
+        <v>743</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10599,16 +10608,16 @@
         <v>77</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10617,19 +10626,19 @@
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10641,16 +10650,16 @@
         <v>78</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10659,19 +10668,19 @@
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10680,19 +10689,19 @@
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10700,22 +10709,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="64" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>715</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -10724,19 +10733,19 @@
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -10744,22 +10753,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -10768,19 +10777,19 @@
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10789,19 +10798,19 @@
       </c>
       <c r="B23" s="64"/>
       <c r="C23" s="27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -10809,22 +10818,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10833,19 +10842,19 @@
       </c>
       <c r="B25" s="70"/>
       <c r="C25" s="27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10853,22 +10862,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10877,19 +10886,19 @@
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -10903,16 +10912,16 @@
         <v>77</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -10921,19 +10930,19 @@
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10942,19 +10951,19 @@
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -10963,19 +10972,19 @@
       </c>
       <c r="B31" s="64"/>
       <c r="C31" s="27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -10987,16 +10996,16 @@
         <v>80</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11004,22 +11013,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>229</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -11027,16 +11036,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -11049,13 +11058,13 @@
       </c>
       <c r="B35" s="64"/>
       <c r="C35" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -11064,12 +11073,12 @@
     </row>
     <row r="38" spans="1:9">
       <c r="C38" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="D39" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -11097,7 +11106,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11117,7 +11126,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -11165,20 +11174,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11189,10 +11198,10 @@
         <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11207,10 +11216,10 @@
         <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11225,16 +11234,16 @@
         <v>96</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11242,13 +11251,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11263,10 +11272,10 @@
         <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11278,13 +11287,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11296,13 +11305,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11314,13 +11323,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -11332,13 +11341,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -11350,13 +11359,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -11372,13 +11381,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -11392,13 +11401,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -11410,13 +11419,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -11428,13 +11437,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -11446,19 +11455,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11469,10 +11478,10 @@
         <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -11486,13 +11495,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -11504,19 +11513,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -11528,16 +11537,16 @@
         <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11545,13 +11554,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -11566,15 +11575,15 @@
         <v>102</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -11586,10 +11595,10 @@
         <v>103</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -11604,15 +11613,15 @@
         <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -11624,10 +11633,10 @@
         <v>105</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -11642,10 +11651,10 @@
         <v>92</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -11816,12 +11825,12 @@
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -11854,7 +11863,7 @@
         <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
@@ -11902,20 +11911,20 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11926,10 +11935,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11941,13 +11950,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11962,10 +11971,10 @@
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -11979,13 +11988,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11997,18 +12006,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>119</v>
@@ -12022,15 +12031,15 @@
         <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -12042,10 +12051,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -12060,15 +12069,15 @@
         <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -12080,10 +12089,10 @@
         <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -12099,10 +12108,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -12183,12 +12192,12 @@
     </row>
     <row r="30" spans="4:5">
       <c r="E30" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -12222,13 +12231,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -12236,7 +12245,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12273,20 +12282,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -12297,10 +12306,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12315,10 +12324,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12333,10 +12342,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -12348,18 +12357,18 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>126</v>
@@ -12373,10 +12382,10 @@
         <v>219</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -12390,13 +12399,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -12411,10 +12420,10 @@
         <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -12429,10 +12438,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -12447,10 +12456,10 @@
         <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -12465,10 +12474,10 @@
         <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -12482,15 +12491,15 @@
         <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -12502,10 +12511,10 @@
         <v>216</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -12520,15 +12529,15 @@
         <v>217</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -12540,10 +12549,10 @@
         <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -12560,10 +12569,10 @@
         <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -12684,12 +12693,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -12722,7 +12731,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
@@ -12736,7 +12745,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12773,20 +12782,20 @@
         <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -12797,10 +12806,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12815,10 +12824,10 @@
         <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12833,10 +12842,10 @@
         <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -12853,10 +12862,10 @@
         <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -12868,18 +12877,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -12891,15 +12900,15 @@
         <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -12911,10 +12920,10 @@
         <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -12929,15 +12938,15 @@
         <v>122</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -12949,10 +12958,10 @@
         <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -12969,10 +12978,10 @@
         <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13053,12 +13062,12 @@
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -13092,7 +13101,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -13143,20 +13152,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13167,10 +13176,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -13185,10 +13194,10 @@
         <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -13200,19 +13209,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13223,10 +13232,10 @@
         <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -13243,10 +13252,10 @@
         <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -13261,10 +13270,10 @@
         <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -13279,10 +13288,10 @@
         <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -13294,18 +13303,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -13317,15 +13326,15 @@
         <v>102</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -13337,10 +13346,10 @@
         <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13355,15 +13364,15 @@
         <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -13375,10 +13384,10 @@
         <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13395,10 +13404,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -13497,12 +13506,12 @@
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -13537,13 +13546,13 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13588,20 +13597,20 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13612,10 +13621,10 @@
         <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -13627,13 +13636,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -13645,13 +13654,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13665,19 +13674,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13688,10 +13697,10 @@
         <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13703,13 +13712,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13721,13 +13730,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -13739,13 +13748,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -13760,10 +13769,10 @@
         <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13778,10 +13787,10 @@
         <v>227</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13796,10 +13805,10 @@
         <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -13814,10 +13823,10 @@
         <v>224</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13834,10 +13843,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -13846,7 +13855,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13941,12 +13950,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="OLE_LINK1" localSheetId="1">功能一览表!$D$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">功能一览表!$A$1:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +51,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3047,7 +3052,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3490,6 +3495,15 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3512,15 +3526,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3820,7 +3825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3834,7 +3839,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -3844,7 +3849,7 @@
     <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
         <v>666</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>657</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>642</v>
       </c>
@@ -3899,7 +3904,7 @@
       </c>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="27">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="46"/>
       <c r="B4" s="48" t="s">
         <v>40</v>
@@ -3916,7 +3921,7 @@
       </c>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
@@ -3933,7 +3938,7 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
@@ -3950,7 +3955,7 @@
       </c>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46" t="s">
@@ -3969,7 +3974,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
@@ -3986,7 +3991,7 @@
       </c>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -4001,7 +4006,7 @@
       </c>
       <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="48" t="s">
         <v>634</v>
@@ -4018,7 +4023,7 @@
       </c>
       <c r="G10" s="46"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -4035,7 +4040,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -4052,7 +4057,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
@@ -4069,7 +4074,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="46"/>
       <c r="B14" s="48" t="s">
         <v>637</v>
@@ -4086,7 +4091,7 @@
       </c>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
         <v>643</v>
       </c>
@@ -4101,7 +4106,7 @@
       </c>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="46"/>
       <c r="B16" s="48" t="s">
         <v>64</v>
@@ -4120,7 +4125,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="46"/>
       <c r="B17" s="48" t="s">
         <v>42</v>
@@ -4137,7 +4142,7 @@
       </c>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
@@ -4152,7 +4157,7 @@
       </c>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
@@ -4169,7 +4174,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
@@ -4186,7 +4191,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
@@ -4203,7 +4208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="46"/>
       <c r="B22" s="48" t="s">
         <v>43</v>
@@ -4220,7 +4225,7 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46" t="s">
@@ -4235,7 +4240,7 @@
       </c>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46" t="s">
@@ -4252,7 +4257,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46" t="s">
@@ -4269,7 +4274,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46" t="s">
@@ -4286,7 +4291,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="46"/>
       <c r="B27" s="48" t="s">
         <v>422</v>
@@ -4303,7 +4308,7 @@
       </c>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46" t="s">
@@ -4318,7 +4323,7 @@
       </c>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46" t="s">
@@ -4335,7 +4340,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46" t="s">
@@ -4352,7 +4357,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46" t="s">
@@ -4367,7 +4372,7 @@
       </c>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46" t="s">
@@ -4384,7 +4389,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="46"/>
       <c r="B33" s="48" t="s">
         <v>44</v>
@@ -4401,7 +4406,7 @@
       </c>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46" t="s">
@@ -4416,7 +4421,7 @@
       </c>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46" t="s">
@@ -4433,7 +4438,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46" t="s">
@@ -4450,7 +4455,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46" t="s">
@@ -4467,7 +4472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="46"/>
       <c r="B38" s="48" t="s">
         <v>45</v>
@@ -4484,7 +4489,7 @@
       </c>
       <c r="G38" s="46"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
@@ -4499,7 +4504,7 @@
       </c>
       <c r="G39" s="46"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46" t="s">
@@ -4516,7 +4521,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46" t="s">
@@ -4533,7 +4538,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46" t="s">
@@ -4550,7 +4555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="46"/>
       <c r="B43" s="48" t="s">
         <v>46</v>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46" t="s">
@@ -4582,7 +4587,7 @@
       </c>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46" t="s">
@@ -4599,7 +4604,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46" t="s">
@@ -4616,7 +4621,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46" t="s">
@@ -4633,7 +4638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="46"/>
       <c r="B48" s="48" t="s">
         <v>48</v>
@@ -4650,7 +4655,7 @@
       </c>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46" t="s">
@@ -4667,7 +4672,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46" t="s">
@@ -4684,7 +4689,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46" t="s">
@@ -4701,7 +4706,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46" t="s">
@@ -4718,7 +4723,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="46"/>
       <c r="B53" s="48" t="s">
         <v>47</v>
@@ -4735,7 +4740,7 @@
       </c>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46" t="s">
@@ -4752,7 +4757,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46" t="s">
@@ -4769,7 +4774,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46" t="s">
@@ -4786,7 +4791,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46" t="s">
@@ -4803,7 +4808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="46" t="s">
         <v>644</v>
       </c>
@@ -4822,7 +4827,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="46"/>
       <c r="B59" s="49" t="s">
         <v>679</v>
@@ -4839,7 +4844,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="46"/>
       <c r="B60" s="46" t="s">
         <v>652</v>
@@ -4856,7 +4861,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="46"/>
       <c r="B61" s="46" t="s">
         <v>653</v>
@@ -4873,7 +4878,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="46"/>
       <c r="B62" s="46" t="s">
         <v>664</v>
@@ -4890,7 +4895,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="46"/>
       <c r="B63" s="46" t="s">
         <v>654</v>
@@ -4907,7 +4912,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="46"/>
       <c r="B64" s="46" t="s">
         <v>655</v>
@@ -4924,7 +4929,7 @@
       </c>
       <c r="G64" s="46"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="48" t="s">
         <v>640</v>
       </c>
@@ -4941,7 +4946,7 @@
       </c>
       <c r="G65" s="46"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="46"/>
       <c r="B66" s="46" t="s">
         <v>656</v>
@@ -4958,7 +4963,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="46"/>
       <c r="B67" s="46" t="s">
         <v>645</v>
@@ -4973,7 +4978,7 @@
       </c>
       <c r="G67" s="46"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="46"/>
       <c r="B68" s="46" t="s">
         <v>646</v>
@@ -4990,7 +4995,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="46"/>
       <c r="B69" s="46" t="s">
         <v>647</v>
@@ -5024,7 +5029,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5035,7 +5040,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5125,7 +5130,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5143,7 +5148,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -5161,7 +5166,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -5179,7 +5184,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -5197,7 +5202,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -5215,7 +5220,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>14</v>
       </c>
@@ -5233,71 +5238,71 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment_item (</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">item_name varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">reimbursement_cap DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>629</v>
       </c>
@@ -5316,7 +5321,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5326,7 +5331,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5340,12 +5345,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5395,7 +5400,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5415,7 +5420,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5443,7 +5448,7 @@
       </c>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5463,7 +5468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36">
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
         <v>740</v>
@@ -5503,7 +5508,7 @@
       <c r="H9" s="4"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
         <v>704</v>
@@ -5520,7 +5525,7 @@
       <c r="H10" s="4"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -5538,7 +5543,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -5556,7 +5561,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -5595,7 +5600,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -5613,7 +5618,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -5651,7 +5656,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -5669,7 +5674,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C21" s="31" t="s">
         <v>523</v>
       </c>
@@ -5677,96 +5682,96 @@
         <v>41863</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_arrears (</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f>C6&amp;" "&amp;D6&amp;", "</f>
         <v xml:space="preserve">arrears_type varchar(50), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f>C7&amp;" "&amp;D7&amp;", "</f>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f>C8&amp;" "&amp;D8&amp;", "</f>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" ref="E28:E35" si="0">C11&amp;" "&amp;D11&amp;", "</f>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f>C17&amp;" "&amp;D17&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>629</v>
       </c>
@@ -5786,7 +5791,7 @@
       <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5797,7 +5802,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5811,12 +5816,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5884,7 +5889,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5902,7 +5907,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5920,7 +5925,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5938,7 +5943,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -5956,7 +5961,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -5974,7 +5979,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -5992,7 +5997,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6012,7 +6017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6030,78 +6035,78 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_profile (</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E26" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">expected_value DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">profile_point varchar(100), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>629</v>
       </c>
@@ -6120,7 +6125,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -6131,7 +6136,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -6145,12 +6150,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6176,7 +6181,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6220,7 +6225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6240,7 +6245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6258,7 +6263,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6296,7 +6301,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6314,7 +6319,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6332,7 +6337,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6350,7 +6355,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6388,7 +6393,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -6426,7 +6431,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -6444,7 +6449,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -6464,7 +6469,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -6482,7 +6487,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -6500,7 +6505,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -6518,7 +6523,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -6536,7 +6541,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -6556,138 +6561,138 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_chop (</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" ref="E27:E44" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">chop_code varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">content varchar(500), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_user char(36), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_time datetime(0), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">organization_id char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(200), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_idea varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_time datetime(0), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_idea varchar(200), </v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_user char(36), </v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_time datetime(0), </v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="str">
         <f>C23&amp;" "&amp;D23&amp;", "</f>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>629</v>
       </c>
@@ -6706,7 +6711,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -6716,7 +6721,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6730,12 +6735,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6785,7 +6790,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6823,7 +6828,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6841,7 +6846,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6859,7 +6864,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6877,7 +6882,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6895,7 +6900,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6913,7 +6918,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6931,7 +6936,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6949,7 +6954,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6967,7 +6972,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6985,7 +6990,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7003,7 +7008,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7021,7 +7026,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7039,7 +7044,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7057,7 +7062,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7077,7 +7082,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7095,126 +7100,126 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_information (</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E41" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">department char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">address varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">developer varchar(200), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">epc_corporation varchar(200), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">variety varchar(100), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">total_area varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">real_name varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">identification varchar(20), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contact varchar(100), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">subscriber char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="1" t="s">
         <v>629</v>
       </c>
@@ -7229,11 +7234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7244,7 +7249,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -7258,12 +7263,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7289,7 +7294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7327,7 +7332,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7343,7 +7348,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7361,7 +7366,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7377,7 +7382,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7393,7 +7398,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7409,7 +7414,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7425,7 +7430,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -7441,7 +7446,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -7457,7 +7462,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -7473,7 +7478,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7507,7 +7512,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7525,7 +7530,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7543,7 +7548,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7561,7 +7566,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7579,7 +7584,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7597,12 +7602,12 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"dujuan","杜鹃","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务总监，系统管理员",1);</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangmeng","张梦","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务经理",2);</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -7688,7 +7693,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"liuyuecui","刘月翠","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务核算员",3);</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangshuyan","王书岩","0ed4d3a1-0c3a-11e4-9300-001c42328937","盖章经办人",4);</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -7732,7 +7737,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"yangdeyou","杨德友","0ed44f90-0c3a-11e4-9300-001c42328937","项目部负责人",5);</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyong","王勇","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",6);</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>7</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"xiadongyan","夏冬燕","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",7);</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>8</v>
       </c>
@@ -7800,7 +7805,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangyan","张岩","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",8);</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -7824,7 +7829,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangpeng","王鹏","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",9);</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyouqing","王有青","0ed38235-0c3a-11e4-9300-001c42328937","事业部负责人",10);</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>11</v>
       </c>
@@ -7868,7 +7873,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhoukai","周楷","0ed38235-0c3a-11e4-9300-001c42328937","项目部操作员",11);</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>12</v>
       </c>
@@ -7907,7 +7912,7 @@
       <selection activeCell="H15" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7918,7 +7923,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -7932,12 +7937,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8001,7 +8006,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8017,7 +8022,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>18</v>
       </c>
@@ -8033,12 +8038,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -8052,7 +8057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -8068,7 +8073,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"事业部");</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"项目部");</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -8115,7 +8120,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -8128,7 +8133,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -8142,12 +8147,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -8173,7 +8178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8195,7 +8200,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8222,7 +8227,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="13.5">
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8259,7 +8264,7 @@
       </c>
       <c r="U7" s="39"/>
     </row>
-    <row r="8" spans="1:21" ht="13.5">
+    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8296,7 +8301,7 @@
       </c>
       <c r="U8" s="39"/>
     </row>
-    <row r="9" spans="1:21" ht="13.5">
+    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8333,7 +8338,7 @@
       </c>
       <c r="U9" s="39"/>
     </row>
-    <row r="10" spans="1:21" ht="13.5">
+    <row r="10" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8370,7 +8375,7 @@
       </c>
       <c r="U10" s="39"/>
     </row>
-    <row r="11" spans="1:21" ht="13.5">
+    <row r="11" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8407,7 +8412,7 @@
       </c>
       <c r="U11" s="39"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5">
+    <row r="12" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8434,7 +8439,7 @@
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8450,7 +8455,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -8466,7 +8471,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="36">
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"系统框架", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 1, "该模块是整个系统的基础及核心，用于为其他各模块提供统一的接口协议，包括提供统一的人机交互界面，以及数据存储访问管理服务。");</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="36">
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -8508,7 +8513,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"登录认证", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 2, "该模块提供用户、密码登录验证及安全访问控制功能，登录密码采用非对称加密算法（MD5），防止破坏性攻击，保证系统的访问安全。");</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -8529,7 +8534,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"修改个人信息", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 3, "为已经登录系统的用户修改自己的个人信息，包括密码的功能。");</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24">
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"报表导出", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 4, "提供报表数据导出功能，可将单项目统计和多项目汇总功能导出成Excel文件。");</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24">
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -8571,7 +8576,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用户管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 1, "该模块提供系统登录帐户信息的管理功能，包括用户的新建，修改及删除，以及用户信息及密码的重置功能。");</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -8592,7 +8597,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"角色管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 2, "该模块用于新建/修改/删除系统角色，以及为角色授权。");</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="36">
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -8613,7 +8618,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"权限控制", "9f932cce-06a3-11e4-99f8-6cf049046039", 3, "该模块用于控制其他各业务模块的访问权限，提供基于用户的权限控制管理，通过该模块可以设置每个登录帐户可以访问哪些模块。");</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"项目汇总表", "9f94f3df-06a3-11e4-99f8-6cf049046039", 1, "按业务需求实现多项目汇总的3张报表，包括按全部、项目部或事业部分别输出报表。");</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24">
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -8655,7 +8660,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"汇总参数设置", "9f94f3df-06a3-11e4-99f8-6cf049046039", 2, "通过该功能可以设置系统的结算周期，比如指定25日为结算日，则系统所有数据的汇总统计按照上月26日~本月25日的结算周期。");</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5">
+    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -8677,7 +8682,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同项目信息", "9f94f3df-06a3-11e4-99f8-6cf049046039", 3, "按业务需求实现合同项目信息功能");</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5">
+    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同补充协议", "9f94f3df-06a3-11e4-99f8-6cf049046039", 4, "按业务需求实现合同补充协议功能");</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5">
+    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -8721,7 +8726,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"甲方开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 5, "按业务需求实现甲方开票功能，包括审核功能。");</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5">
+    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -8743,7 +8748,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"客户开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 6, "按业务需求实现客户开票功能。");</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5">
+    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -8765,7 +8770,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"收款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 7, "按业务需求实现收款情况功能。");</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24">
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"付款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 8, "按业务需求实现付款情况功能，包括期间费用报销功能，以及报销比例的设置，报销上限及剩余金额的计算与控制。");</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24">
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -8809,7 +8814,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"往来欠款", "9f94f3df-06a3-11e4-99f8-6cf049046039", 9, "按业务需求实现往来欠款功能，包括利率的设置，以及利息的计算。");</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5">
+    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"型材", "9f94f3df-06a3-11e4-99f8-6cf049046039", 10, "按业务需求实现型材功能。");</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5">
+    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -8853,7 +8858,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章申请", "9f982ad0-06a3-11e4-99f8-6cf049046039", 1, "由项目部或事业部人员填写用章申请,并提交给财务部审核");</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24">
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -8875,7 +8880,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章审批控制", "9f982ad0-06a3-11e4-99f8-6cf049046039", 2, "财务部对用章申请进行审批,当财务主管外出,可将审批权限委托给财务经理，财务经办人根据审批通过的用章申请进行盖章。");</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24">
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -8897,7 +8902,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章统计表", "9f982ad0-06a3-11e4-99f8-6cf049046039", 3, "包括用章的申请各环节的业务控制，以及输出按月的用章统计表。");</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24">
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -8919,7 +8924,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息检索", "9f99c4af-06a3-11e4-99f8-6cf049046039", 1, "提供按关键字进行信息检索的功能，进行模糊搜索匹配展示信息检索结果。");</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24">
+    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -8941,27 +8946,27 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息录入", "9f99c4af-06a3-11e4-99f8-6cf049046039", 2, "提供信息管理平台的录入管理功能，包括信息的新建/修改与删除。");</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I45" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I49" s="1" t="s">
         <v>587</v>
       </c>
@@ -8969,6 +8974,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8980,7 +8986,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -8990,7 +8996,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9004,12 +9010,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9057,7 +9063,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9073,7 +9079,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9089,7 +9095,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9105,7 +9111,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9133,10 +9139,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -9147,7 +9153,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9161,12 +9167,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9216,7 +9222,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9234,7 +9240,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9252,7 +9258,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9270,7 +9276,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -9288,7 +9294,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -9306,7 +9312,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -9324,7 +9330,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -9342,7 +9348,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -9360,7 +9366,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -9378,27 +9384,27 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>262</v>
       </c>
@@ -9421,7 +9427,7 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
@@ -9435,59 +9441,59 @@
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="54" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -9516,13 +9522,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" ht="36">
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9561,11 +9567,11 @@
       </c>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="36">
+    <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -9602,11 +9608,11 @@
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="12">
+    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -9643,11 +9649,11 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="24">
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -9678,11 +9684,11 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="24">
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -9707,11 +9713,11 @@
       </c>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="12">
+    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="44" t="s">
         <v>634</v>
       </c>
@@ -9734,11 +9740,11 @@
       </c>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="36">
+    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="44" t="s">
         <v>637</v>
       </c>
@@ -9759,11 +9765,11 @@
       </c>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="24">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -9790,11 +9796,11 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="24">
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -9819,11 +9825,11 @@
       <c r="N12" s="15"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="12">
+    <row r="13" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
@@ -9850,11 +9856,11 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="12">
+    <row r="14" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
@@ -9881,11 +9887,11 @@
       <c r="N14" s="15"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="12">
+    <row r="15" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="44" t="s">
         <v>422</v>
       </c>
@@ -9912,11 +9918,11 @@
       <c r="N15" s="15"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="12">
+    <row r="16" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
@@ -9943,11 +9949,11 @@
       <c r="N16" s="15"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="12">
+    <row r="17" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
@@ -9974,11 +9980,11 @@
       <c r="N17" s="15"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="24">
+    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
@@ -10005,11 +10011,11 @@
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="24">
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
@@ -10036,11 +10042,11 @@
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="12">
+    <row r="20" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
@@ -10067,11 +10073,11 @@
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="12">
+    <row r="21" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -10098,11 +10104,11 @@
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="36">
+    <row r="22" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -10133,11 +10139,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24">
+    <row r="23" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -10166,11 +10172,11 @@
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="24">
+    <row r="24" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="53" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -10199,11 +10205,11 @@
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="24">
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -10228,11 +10234,11 @@
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="12">
+    <row r="26" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -10255,11 +10261,11 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" ht="12">
+    <row r="27" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -10280,7 +10286,7 @@
       </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -10297,12 +10303,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -10310,6 +10310,12 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -10321,11 +10327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
@@ -10338,7 +10344,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -10353,12 +10359,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10431,7 +10437,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10450,7 +10456,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10471,7 +10477,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10492,7 +10498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10513,7 +10519,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10534,7 +10540,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10555,7 +10561,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10576,7 +10582,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10597,7 +10603,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10620,7 +10626,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -10704,7 +10710,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -10748,7 +10754,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -10771,7 +10777,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -10813,7 +10819,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -10857,7 +10863,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -10924,7 +10930,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -10966,7 +10972,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -11008,7 +11014,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -11052,7 +11058,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -11071,12 +11077,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>633</v>
       </c>
@@ -11109,7 +11115,7 @@
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11121,7 +11127,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -11135,12 +11141,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -11166,7 +11172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11190,7 +11196,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11208,7 +11214,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11226,7 +11232,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11246,7 +11252,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11264,7 +11270,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11282,7 +11288,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11300,7 +11306,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11318,7 +11324,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11336,7 +11342,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11354,7 +11360,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -11414,7 +11420,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -11432,7 +11438,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -11450,7 +11456,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -11470,7 +11476,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -11490,7 +11496,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -11508,7 +11514,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -11529,7 +11535,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -11567,7 +11573,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -11587,7 +11593,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -11605,7 +11611,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -11625,7 +11631,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -11643,7 +11649,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -11661,174 +11667,174 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_project (</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" ref="E35:E59" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(100), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">department_id char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_name varchar(100), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_address varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(50), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_code varchar(50), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">cooperation varchar(100), </v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">legal_assignee varchar(50), </v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">is_withholding_offsite TINYINT, </v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">settlement_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_time DATETIME(0), </v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_code varchar(50), </v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">capital_occupied DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_status TINYINT, </v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E56" s="1" t="str">
         <f>C26&amp;" "&amp;D26&amp;", "</f>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E60" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="1" t="s">
         <v>630</v>
       </c>
@@ -11847,7 +11853,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11858,7 +11864,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -11872,12 +11878,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11927,7 +11933,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11945,7 +11951,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11963,7 +11969,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11983,7 +11989,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12001,7 +12007,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12043,7 +12049,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12061,7 +12067,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12081,7 +12087,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12100,7 +12106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12118,84 +12124,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_contract_change (</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" ref="E20:E29" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">csa_code varchar(50), </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">change_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f>C13&amp;" "&amp;D13&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="1" t="s">
         <v>629</v>
       </c>
@@ -12215,7 +12221,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12226,7 +12232,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -12274,7 +12280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12298,7 +12304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12316,7 +12322,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12334,7 +12340,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12352,7 +12358,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12394,7 +12400,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12412,7 +12418,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12430,7 +12436,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12448,7 +12454,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12466,7 +12472,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12483,7 +12489,7 @@
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -12503,7 +12509,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -12521,7 +12527,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -12541,7 +12547,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -12561,7 +12567,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -12579,7 +12585,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40"/>
@@ -12589,114 +12595,114 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_party_billing (</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" ref="E22:E37" si="0">C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(100), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>
@@ -12715,7 +12721,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12726,7 +12732,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -12740,7 +12746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -12748,7 +12754,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -12774,7 +12780,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12798,7 +12804,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12816,7 +12822,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12834,7 +12840,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12872,7 +12878,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12892,7 +12898,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12912,7 +12918,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12930,7 +12936,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12950,7 +12956,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12970,7 +12976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12988,84 +12994,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_customer_billing (</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E27" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_type varchar(50), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>629</v>
       </c>
@@ -13084,7 +13090,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13096,7 +13102,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13118,7 +13124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13144,7 +13150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13168,7 +13174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13186,7 +13192,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13204,7 +13210,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13224,7 +13230,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13244,7 +13250,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13262,7 +13268,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13280,7 +13286,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13298,7 +13304,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13318,7 +13324,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13338,7 +13344,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13356,7 +13362,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13376,7 +13382,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13396,7 +13402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -13414,102 +13420,102 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_collections (</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" ref="E21:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">source_of varchar(50), </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_type varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="1" t="s">
         <v>629</v>
       </c>
@@ -13530,7 +13536,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13541,7 +13547,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13555,7 +13561,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13563,7 +13569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13589,7 +13595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13613,7 +13619,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13631,7 +13637,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13649,7 +13655,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13669,7 +13675,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13689,7 +13695,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13707,7 +13713,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13725,7 +13731,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13743,7 +13749,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13761,7 +13767,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13779,7 +13785,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13797,7 +13803,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13815,7 +13821,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13835,7 +13841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -13853,107 +13859,107 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H21" s="30" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment (</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E37" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_item_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="OLE_LINK1" localSheetId="1">功能一览表!$D$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">功能一览表!$A$1:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +46,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +82,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="749">
   <si>
     <t>序号</t>
   </si>
@@ -3043,6 +3038,14 @@
   </si>
   <si>
     <t>0ed44f90-0c3a-11e4-9300-001c42328937</t>
+  </si>
+  <si>
+    <t>资金使用方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3052,7 +3055,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3495,15 +3498,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3526,6 +3520,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3825,7 +3828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3839,7 +3842,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -3849,7 +3852,7 @@
     <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="51" t="s">
         <v>666</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="46" t="s">
         <v>657</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="46" t="s">
         <v>642</v>
       </c>
@@ -3904,7 +3907,7 @@
       </c>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="46"/>
       <c r="B4" s="48" t="s">
         <v>40</v>
@@ -3921,7 +3924,7 @@
       </c>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
@@ -3938,7 +3941,7 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
@@ -3955,7 +3958,7 @@
       </c>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46" t="s">
@@ -3974,7 +3977,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
@@ -3991,7 +3994,7 @@
       </c>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -4006,7 +4009,7 @@
       </c>
       <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="46"/>
       <c r="B10" s="48" t="s">
         <v>634</v>
@@ -4023,7 +4026,7 @@
       </c>
       <c r="G10" s="46"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -4040,7 +4043,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -4057,7 +4060,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
@@ -4074,7 +4077,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="46"/>
       <c r="B14" s="48" t="s">
         <v>637</v>
@@ -4091,7 +4094,7 @@
       </c>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="46" t="s">
         <v>643</v>
       </c>
@@ -4106,7 +4109,7 @@
       </c>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="46"/>
       <c r="B16" s="48" t="s">
         <v>64</v>
@@ -4125,7 +4128,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="46"/>
       <c r="B17" s="48" t="s">
         <v>42</v>
@@ -4142,7 +4145,7 @@
       </c>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
@@ -4157,7 +4160,7 @@
       </c>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
@@ -4174,7 +4177,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
@@ -4191,7 +4194,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
@@ -4208,7 +4211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="46"/>
       <c r="B22" s="48" t="s">
         <v>43</v>
@@ -4225,7 +4228,7 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46" t="s">
@@ -4240,7 +4243,7 @@
       </c>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46" t="s">
@@ -4257,7 +4260,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46" t="s">
@@ -4274,7 +4277,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46" t="s">
@@ -4291,7 +4294,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="46"/>
       <c r="B27" s="48" t="s">
         <v>422</v>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46" t="s">
@@ -4323,7 +4326,7 @@
       </c>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46" t="s">
@@ -4340,7 +4343,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46" t="s">
@@ -4357,7 +4360,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46" t="s">
@@ -4372,7 +4375,7 @@
       </c>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46" t="s">
@@ -4389,7 +4392,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="46"/>
       <c r="B33" s="48" t="s">
         <v>44</v>
@@ -4406,7 +4409,7 @@
       </c>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46" t="s">
@@ -4421,7 +4424,7 @@
       </c>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46" t="s">
@@ -4438,7 +4441,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46" t="s">
@@ -4455,7 +4458,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46" t="s">
@@ -4472,7 +4475,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="46"/>
       <c r="B38" s="48" t="s">
         <v>45</v>
@@ -4489,7 +4492,7 @@
       </c>
       <c r="G38" s="46"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
@@ -4504,7 +4507,7 @@
       </c>
       <c r="G39" s="46"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46" t="s">
@@ -4521,7 +4524,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46" t="s">
@@ -4538,7 +4541,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46" t="s">
@@ -4555,7 +4558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="46"/>
       <c r="B43" s="48" t="s">
         <v>46</v>
@@ -4572,7 +4575,7 @@
       </c>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46" t="s">
@@ -4587,7 +4590,7 @@
       </c>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46" t="s">
@@ -4604,7 +4607,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46" t="s">
@@ -4621,7 +4624,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46" t="s">
@@ -4638,7 +4641,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="46"/>
       <c r="B48" s="48" t="s">
         <v>48</v>
@@ -4655,7 +4658,7 @@
       </c>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46" t="s">
@@ -4672,7 +4675,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46" t="s">
@@ -4689,7 +4692,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46" t="s">
@@ -4706,7 +4709,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46" t="s">
@@ -4723,7 +4726,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="46"/>
       <c r="B53" s="48" t="s">
         <v>47</v>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46" t="s">
@@ -4757,7 +4760,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46" t="s">
@@ -4774,7 +4777,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46" t="s">
@@ -4791,7 +4794,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46" t="s">
@@ -4808,7 +4811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="46" t="s">
         <v>644</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="46"/>
       <c r="B59" s="49" t="s">
         <v>679</v>
@@ -4844,7 +4847,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="46"/>
       <c r="B60" s="46" t="s">
         <v>652</v>
@@ -4861,7 +4864,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="46"/>
       <c r="B61" s="46" t="s">
         <v>653</v>
@@ -4878,7 +4881,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="46"/>
       <c r="B62" s="46" t="s">
         <v>664</v>
@@ -4895,7 +4898,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="46"/>
       <c r="B63" s="46" t="s">
         <v>654</v>
@@ -4912,7 +4915,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="46"/>
       <c r="B64" s="46" t="s">
         <v>655</v>
@@ -4929,7 +4932,7 @@
       </c>
       <c r="G64" s="46"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="48" t="s">
         <v>640</v>
       </c>
@@ -4946,7 +4949,7 @@
       </c>
       <c r="G65" s="46"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="46"/>
       <c r="B66" s="46" t="s">
         <v>656</v>
@@ -4963,7 +4966,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="46"/>
       <c r="B67" s="46" t="s">
         <v>645</v>
@@ -4978,7 +4981,7 @@
       </c>
       <c r="G67" s="46"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="46"/>
       <c r="B68" s="46" t="s">
         <v>646</v>
@@ -4995,7 +4998,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69" s="46"/>
       <c r="B69" s="46" t="s">
         <v>647</v>
@@ -5029,7 +5032,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5040,7 +5043,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5130,7 +5133,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5148,7 +5151,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -5166,7 +5169,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -5184,7 +5187,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -5202,7 +5205,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -5220,7 +5223,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>14</v>
       </c>
@@ -5238,71 +5241,71 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="C14" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5">
       <c r="D17" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment_item (</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="E18" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="E19" s="1" t="str">
         <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">item_name varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">reimbursement_cap DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="E26" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
         <v>629</v>
       </c>
@@ -5315,13 +5318,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5331,7 +5334,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5345,12 +5348,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5420,43 +5423,33 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>157</v>
+        <v>747</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>327</v>
+        <v>748</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>315</v>
+        <v>157</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>606</v>
@@ -5465,39 +5458,46 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
       <c r="B9" s="9" t="s">
-        <v>740</v>
+        <v>229</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>739</v>
+        <v>325</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>611</v>
@@ -5505,16 +5505,22 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>611</v>
@@ -5525,254 +5531,273 @@
       <c r="H10" s="4"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>320</v>
+        <v>704</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="7" customFormat="1">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="31" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H22" s="34">
         <v>41863</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="1" t="str">
+    <row r="23" spans="1:8">
+      <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_arrears (</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E23" s="1" t="str">
+    <row r="24" spans="1:8">
+      <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="1" t="str">
+    <row r="25" spans="1:8">
+      <c r="E25" s="1" t="str">
         <f>C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="1" t="str">
-        <f>C6&amp;" "&amp;D6&amp;", "</f>
-        <v xml:space="preserve">arrears_type varchar(50), </v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f>C7&amp;" "&amp;D7&amp;", "</f>
-        <v xml:space="preserve">pay_type varchar(50), </v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">arrears_type varchar(50), </v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f>C8&amp;" "&amp;D8&amp;", "</f>
+        <v xml:space="preserve">pay_type varchar(50), </v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="E28" s="1" t="str">
+        <f>C9&amp;" "&amp;D9&amp;", "</f>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E28" s="1" t="str">
-        <f t="shared" ref="E28:E35" si="0">C11&amp;" "&amp;D11&amp;", "</f>
+    <row r="29" spans="1:8">
+      <c r="E29" s="1" t="str">
+        <f t="shared" ref="E29:E36" si="0">C12&amp;" "&amp;D12&amp;", "</f>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E29" s="1" t="str">
+    <row r="30" spans="1:8">
+      <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E30" s="1" t="str">
+    <row r="31" spans="1:8">
+      <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E31" s="1" t="str">
+    <row r="32" spans="1:8">
+      <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E32" s="1" t="str">
+    <row r="33" spans="4:5">
+      <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="1" t="str">
+    <row r="34" spans="4:5">
+      <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E34" s="1" t="str">
-        <f>C17&amp;" "&amp;D17&amp;", "</f>
+    <row r="35" spans="4:5">
+      <c r="E35" s="1" t="str">
+        <f>C18&amp;" "&amp;D18&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E35" s="1" t="str">
+    <row r="36" spans="4:5">
+      <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E36" s="1" t="s">
+    <row r="37" spans="4:5">
+      <c r="E37" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="4:5">
+      <c r="D38" s="1" t="s">
         <v>629</v>
       </c>
     </row>
@@ -5791,7 +5816,7 @@
       <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5802,7 +5827,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5816,12 +5841,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5847,7 +5872,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5871,7 +5896,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5889,7 +5914,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5907,7 +5932,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5925,7 +5950,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5943,7 +5968,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -5961,7 +5986,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -5979,7 +6004,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -5997,7 +6022,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6035,78 +6060,78 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_profile (</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E26" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">expected_value DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">profile_point varchar(100), </v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="E27" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5">
       <c r="D28" s="1" t="s">
         <v>629</v>
       </c>
@@ -6125,7 +6150,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -6136,7 +6161,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -6150,12 +6175,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6181,7 +6206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6205,7 +6230,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6225,7 +6250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6245,7 +6270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6263,7 +6288,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6283,7 +6308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6301,7 +6326,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6319,7 +6344,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6337,7 +6362,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6355,7 +6380,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6375,7 +6400,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6393,7 +6418,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6413,7 +6438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -6431,7 +6456,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -6449,7 +6474,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -6469,7 +6494,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -6487,7 +6512,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -6505,7 +6530,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -6523,7 +6548,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -6541,7 +6566,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -6561,138 +6586,138 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="D25" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_chop (</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f t="shared" ref="E27:E44" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">chop_code varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">content varchar(500), </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_user char(36), </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_time datetime(0), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">organization_id char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(200), </v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_idea varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_time datetime(0), </v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_idea varchar(200), </v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_user char(36), </v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_time datetime(0), </v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5">
       <c r="E45" s="1" t="str">
         <f>C23&amp;" "&amp;D23&amp;", "</f>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5">
       <c r="E46" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
         <v>629</v>
       </c>
@@ -6711,7 +6736,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -6721,7 +6746,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6735,12 +6760,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6766,7 +6791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6790,7 +6815,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6810,7 +6835,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6828,7 +6853,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6846,7 +6871,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6864,7 +6889,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6882,7 +6907,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6900,7 +6925,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6918,7 +6943,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6936,7 +6961,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6954,7 +6979,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6972,7 +6997,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6990,7 +7015,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7008,7 +7033,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7026,7 +7051,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7044,7 +7069,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7062,7 +7087,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="7" customFormat="1">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7082,7 +7107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7100,126 +7125,126 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_information (</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E41" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">department char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">address varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">developer varchar(200), </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">epc_corporation varchar(200), </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">variety varchar(100), </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">total_area varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">real_name varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">identification varchar(20), </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contact varchar(100), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">subscriber char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5">
       <c r="E42" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
         <v>629</v>
       </c>
@@ -7238,7 +7263,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7249,7 +7274,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -7263,12 +7288,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7294,7 +7319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7316,7 +7341,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7332,7 +7357,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7348,7 +7373,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7366,7 +7391,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7382,7 +7407,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7398,7 +7423,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7414,7 +7439,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7430,7 +7455,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -7446,7 +7471,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -7462,7 +7487,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -7478,7 +7503,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -7496,7 +7521,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7512,7 +7537,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7530,7 +7555,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7548,7 +7573,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7566,7 +7591,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="7" customFormat="1">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7584,7 +7609,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7602,12 +7627,12 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="B23" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -7627,7 +7652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -7649,7 +7674,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"dujuan","杜鹃","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务总监，系统管理员",1);</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -7671,7 +7696,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangmeng","张梦","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务经理",2);</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -7693,7 +7718,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"liuyuecui","刘月翠","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务核算员",3);</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -7715,7 +7740,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangshuyan","王书岩","0ed4d3a1-0c3a-11e4-9300-001c42328937","盖章经办人",4);</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -7737,7 +7762,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"yangdeyou","杨德友","0ed44f90-0c3a-11e4-9300-001c42328937","项目部负责人",5);</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -7759,7 +7784,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyong","王勇","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",6);</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="6">
         <v>7</v>
       </c>
@@ -7781,7 +7806,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"xiadongyan","夏冬燕","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",7);</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>8</v>
       </c>
@@ -7805,7 +7830,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangyan","张岩","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",8);</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -7829,7 +7854,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangpeng","王鹏","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",9);</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -7851,7 +7876,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyouqing","王有青","0ed38235-0c3a-11e4-9300-001c42328937","事业部负责人",10);</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>11</v>
       </c>
@@ -7873,7 +7898,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhoukai","周楷","0ed38235-0c3a-11e4-9300-001c42328937","项目部操作员",11);</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>12</v>
       </c>
@@ -7912,7 +7937,7 @@
       <selection activeCell="H15" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7923,7 +7948,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -7937,12 +7962,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7968,7 +7993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7990,7 +8015,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8006,7 +8031,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8022,7 +8047,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>18</v>
       </c>
@@ -8038,12 +8063,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="B9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -8057,7 +8082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -8073,7 +8098,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"事业部");</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -8089,7 +8114,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"项目部");</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -8120,7 +8145,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -8133,7 +8158,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -8147,12 +8172,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -8178,7 +8203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8200,7 +8225,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8211,7 +8236,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8227,7 +8252,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8264,7 +8289,7 @@
       </c>
       <c r="U7" s="39"/>
     </row>
-    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8301,7 +8326,7 @@
       </c>
       <c r="U8" s="39"/>
     </row>
-    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="13.5">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8338,7 +8363,7 @@
       </c>
       <c r="U9" s="39"/>
     </row>
-    <row r="10" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8375,7 +8400,7 @@
       </c>
       <c r="U10" s="39"/>
     </row>
-    <row r="11" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8412,7 +8437,7 @@
       </c>
       <c r="U11" s="39"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8439,7 +8464,7 @@
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8455,7 +8480,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -8471,7 +8496,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="36">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -8492,7 +8517,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"系统框架", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 1, "该模块是整个系统的基础及核心，用于为其他各模块提供统一的接口协议，包括提供统一的人机交互界面，以及数据存储访问管理服务。");</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="36">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -8513,7 +8538,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"登录认证", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 2, "该模块提供用户、密码登录验证及安全访问控制功能，登录密码采用非对称加密算法（MD5），防止破坏性攻击，保证系统的访问安全。");</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -8534,7 +8559,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"修改个人信息", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 3, "为已经登录系统的用户修改自己的个人信息，包括密码的功能。");</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="24">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -8555,7 +8580,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"报表导出", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 4, "提供报表数据导出功能，可将单项目统计和多项目汇总功能导出成Excel文件。");</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="24">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -8576,7 +8601,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用户管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 1, "该模块提供系统登录帐户信息的管理功能，包括用户的新建，修改及删除，以及用户信息及密码的重置功能。");</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -8597,7 +8622,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"角色管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 2, "该模块用于新建/修改/删除系统角色，以及为角色授权。");</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="36">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -8618,7 +8643,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"权限控制", "9f932cce-06a3-11e4-99f8-6cf049046039", 3, "该模块用于控制其他各业务模块的访问权限，提供基于用户的权限控制管理，通过该模块可以设置每个登录帐户可以访问哪些模块。");</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="24">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -8639,7 +8664,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"项目汇总表", "9f94f3df-06a3-11e4-99f8-6cf049046039", 1, "按业务需求实现多项目汇总的3张报表，包括按全部、项目部或事业部分别输出报表。");</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="24">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -8660,7 +8685,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"汇总参数设置", "9f94f3df-06a3-11e4-99f8-6cf049046039", 2, "通过该功能可以设置系统的结算周期，比如指定25日为结算日，则系统所有数据的汇总统计按照上月26日~本月25日的结算周期。");</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="13.5">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -8682,7 +8707,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同项目信息", "9f94f3df-06a3-11e4-99f8-6cf049046039", 3, "按业务需求实现合同项目信息功能");</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="13.5">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8704,7 +8729,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同补充协议", "9f94f3df-06a3-11e4-99f8-6cf049046039", 4, "按业务需求实现合同补充协议功能");</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="13.5">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -8726,7 +8751,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"甲方开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 5, "按业务需求实现甲方开票功能，包括审核功能。");</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="13.5">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -8748,7 +8773,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"客户开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 6, "按业务需求实现客户开票功能。");</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="13.5">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -8770,7 +8795,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"收款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 7, "按业务需求实现收款情况功能。");</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="24">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -8792,7 +8817,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"付款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 8, "按业务需求实现付款情况功能，包括期间费用报销功能，以及报销比例的设置，报销上限及剩余金额的计算与控制。");</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="24">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -8814,7 +8839,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"往来欠款", "9f94f3df-06a3-11e4-99f8-6cf049046039", 9, "按业务需求实现往来欠款功能，包括利率的设置，以及利息的计算。");</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="13.5">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -8836,7 +8861,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"型材", "9f94f3df-06a3-11e4-99f8-6cf049046039", 10, "按业务需求实现型材功能。");</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="13.5">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -8858,7 +8883,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章申请", "9f982ad0-06a3-11e4-99f8-6cf049046039", 1, "由项目部或事业部人员填写用章申请,并提交给财务部审核");</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="24">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -8880,7 +8905,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章审批控制", "9f982ad0-06a3-11e4-99f8-6cf049046039", 2, "财务部对用章申请进行审批,当财务主管外出,可将审批权限委托给财务经理，财务经办人根据审批通过的用章申请进行盖章。");</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="24">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -8902,7 +8927,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章统计表", "9f982ad0-06a3-11e4-99f8-6cf049046039", 3, "包括用章的申请各环节的业务控制，以及输出按月的用章统计表。");</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="24">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -8924,7 +8949,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息检索", "9f99c4af-06a3-11e4-99f8-6cf049046039", 1, "提供按关键字进行信息检索的功能，进行模糊搜索匹配展示信息检索结果。");</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="24">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -8946,27 +8971,27 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息录入", "9f99c4af-06a3-11e4-99f8-6cf049046039", 2, "提供信息管理平台的录入管理功能，包括信息的新建/修改与删除。");</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="I45" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="I46" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="I47" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="I48" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:9">
       <c r="I49" s="1" t="s">
         <v>587</v>
       </c>
@@ -8986,7 +9011,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -8996,7 +9021,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9010,12 +9035,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9041,7 +9066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9063,7 +9088,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9079,7 +9104,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9095,7 +9120,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9111,7 +9136,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9138,11 +9163,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -9153,7 +9178,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9167,12 +9192,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9198,7 +9223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9222,7 +9247,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9240,7 +9265,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9258,7 +9283,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9276,7 +9301,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -9294,7 +9319,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -9312,7 +9337,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -9330,7 +9355,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -9348,7 +9373,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="7" customFormat="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -9366,7 +9391,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -9384,27 +9409,27 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
         <v>262</v>
       </c>
@@ -9427,7 +9452,7 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.75" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
@@ -9441,59 +9466,59 @@
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" ht="24" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="57" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="57"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -9522,13 +9547,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9567,11 +9592,11 @@
       </c>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="36">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -9608,11 +9633,11 @@
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="12">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -9649,11 +9674,11 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="24">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -9684,11 +9709,11 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="24">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -9713,11 +9738,11 @@
       </c>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="12">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="44" t="s">
         <v>634</v>
       </c>
@@ -9740,11 +9765,11 @@
       </c>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="36">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="44" t="s">
         <v>637</v>
       </c>
@@ -9765,11 +9790,11 @@
       </c>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="24">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -9796,11 +9821,11 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="24">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -9825,11 +9850,11 @@
       <c r="N12" s="15"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="12">
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
@@ -9856,11 +9881,11 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="12">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
@@ -9887,11 +9912,11 @@
       <c r="N14" s="15"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="12">
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="44" t="s">
         <v>422</v>
       </c>
@@ -9918,11 +9943,11 @@
       <c r="N15" s="15"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="12">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
@@ -9949,11 +9974,11 @@
       <c r="N16" s="15"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="12">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
@@ -9980,11 +10005,11 @@
       <c r="N17" s="15"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="24">
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
@@ -10011,11 +10036,11 @@
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="24">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
@@ -10042,11 +10067,11 @@
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="12">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
@@ -10073,11 +10098,11 @@
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="12">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -10104,11 +10129,11 @@
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="36">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -10139,11 +10164,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="24">
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -10172,11 +10197,11 @@
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="24">
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="61" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -10205,11 +10230,11 @@
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="24">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -10234,11 +10259,11 @@
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="12">
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="61" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -10261,11 +10286,11 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="12">
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -10286,7 +10311,7 @@
       </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -10303,6 +10328,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -10310,12 +10341,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -10331,7 +10356,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
@@ -10344,7 +10369,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -10359,12 +10384,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -10391,7 +10416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10418,7 +10443,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10437,7 +10462,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10456,7 +10481,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10477,7 +10502,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10498,7 +10523,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10519,7 +10544,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10540,7 +10565,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10561,7 +10586,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10582,7 +10607,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10603,7 +10628,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10626,7 +10651,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -10647,7 +10672,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -10668,7 +10693,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -10689,7 +10714,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -10710,7 +10735,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -10733,7 +10758,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -10754,7 +10779,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -10777,7 +10802,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -10798,7 +10823,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -10819,7 +10844,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -10842,7 +10867,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -10863,7 +10888,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -10886,7 +10911,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -10907,7 +10932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -10930,7 +10955,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -10951,7 +10976,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -10972,7 +10997,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -10993,7 +11018,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -11014,7 +11039,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -11037,7 +11062,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -11058,7 +11083,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -11077,12 +11102,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="C38" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="D39" s="1" t="s">
         <v>633</v>
       </c>
@@ -11115,7 +11140,7 @@
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11127,7 +11152,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -11141,12 +11166,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -11172,7 +11197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11196,7 +11221,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11214,7 +11239,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11232,7 +11257,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11252,7 +11277,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11270,7 +11295,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11288,7 +11313,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11306,7 +11331,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11324,7 +11349,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11342,7 +11367,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11360,7 +11385,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11382,7 +11407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -11402,7 +11427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -11420,7 +11445,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -11438,7 +11463,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -11456,7 +11481,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -11476,7 +11501,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -11496,7 +11521,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -11514,7 +11539,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -11535,7 +11560,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -11555,7 +11580,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -11573,7 +11598,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -11593,7 +11618,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -11611,7 +11636,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -11631,7 +11656,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -11649,7 +11674,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -11667,174 +11692,174 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="D33" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_project (</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
         <f t="shared" ref="E35:E59" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(100), </v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">department_id char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_name varchar(100), </v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_address varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(50), </v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_code varchar(50), </v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">cooperation varchar(100), </v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">legal_assignee varchar(50), </v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">is_withholding_offsite TINYINT, </v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5">
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5">
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5">
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5">
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">settlement_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5">
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_time DATETIME(0), </v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5">
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5">
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_code varchar(50), </v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:5">
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">capital_occupied DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5">
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_status TINYINT, </v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5">
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:5">
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5">
       <c r="E56" s="1" t="str">
         <f>C26&amp;" "&amp;D26&amp;", "</f>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5">
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5">
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:5">
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:5">
       <c r="D61" s="1" t="s">
         <v>630</v>
       </c>
@@ -11853,7 +11878,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11864,7 +11889,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -11878,12 +11903,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -11909,7 +11934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11933,7 +11958,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11951,7 +11976,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11969,7 +11994,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11989,7 +12014,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12007,7 +12032,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12029,7 +12054,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12049,7 +12074,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12067,7 +12092,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12087,7 +12112,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12106,7 +12131,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12124,84 +12149,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="D18" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_contract_change (</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="E19" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="E20" s="1" t="str">
         <f t="shared" ref="E20:E29" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">csa_code varchar(50), </v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">change_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5">
       <c r="E28" s="1" t="str">
         <f>C13&amp;" "&amp;D13&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5">
       <c r="E30" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:5">
       <c r="D31" s="1" t="s">
         <v>629</v>
       </c>
@@ -12221,7 +12246,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12232,7 +12257,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -12246,7 +12271,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -12254,7 +12279,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -12280,7 +12305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12304,7 +12329,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12322,7 +12347,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12340,7 +12365,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12358,7 +12383,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12380,7 +12405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12400,7 +12425,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12418,7 +12443,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12436,7 +12461,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12454,7 +12479,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12472,7 +12497,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12489,7 +12514,7 @@
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -12509,7 +12534,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -12527,7 +12552,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -12547,7 +12572,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -12567,7 +12592,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -12585,7 +12610,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="7" customFormat="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40"/>
@@ -12595,114 +12620,114 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="D21" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_party_billing (</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="E22" s="1" t="str">
         <f t="shared" ref="E22:E37" si="0">C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(100), </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>
@@ -12721,7 +12746,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12732,7 +12757,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -12746,7 +12771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -12754,7 +12779,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -12780,7 +12805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12804,7 +12829,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12822,7 +12847,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12840,7 +12865,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12860,7 +12885,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12878,7 +12903,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12898,7 +12923,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12918,7 +12943,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12936,7 +12961,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12956,7 +12981,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="7" customFormat="1">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12976,7 +13001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12994,84 +13019,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_customer_billing (</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E27" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_type varchar(50), </v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5">
       <c r="E28" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
         <v>629</v>
       </c>
@@ -13090,7 +13115,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13102,7 +13127,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13116,7 +13141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13124,7 +13149,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13150,7 +13175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13174,7 +13199,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13192,7 +13217,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13210,7 +13235,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13230,7 +13255,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13250,7 +13275,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13268,7 +13293,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13286,7 +13311,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13304,7 +13329,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13324,7 +13349,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="7" customFormat="1">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13344,7 +13369,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="7" customFormat="1">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13362,7 +13387,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13382,7 +13407,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13402,7 +13427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -13420,102 +13445,102 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="D19" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_collections (</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="E20" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="E21" s="1" t="str">
         <f t="shared" ref="E21:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">source_of varchar(50), </v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_type varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
         <v>629</v>
       </c>
@@ -13536,7 +13561,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13547,7 +13572,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13561,7 +13586,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13569,7 +13594,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13595,7 +13620,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13619,7 +13644,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13637,7 +13662,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13655,7 +13680,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13675,7 +13700,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13695,7 +13720,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13713,7 +13738,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13731,7 +13756,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13749,7 +13774,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13767,7 +13792,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="7" customFormat="1">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13785,7 +13810,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="7" customFormat="1">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13803,7 +13828,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13821,7 +13846,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13841,7 +13866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -13859,107 +13884,107 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="H21" s="30" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment (</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E37" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_item_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="E35" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="10"/>
   </bookViews>
@@ -31,7 +36,7 @@
     <definedName name="OLE_LINK1" localSheetId="1">功能一览表!$D$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">功能一览表!$A$1:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +51,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
     <author>Cheng Qiyi</author>
   </authors>
   <commentList>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3044,7 +3049,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>using</t>
+    <t>funds_using</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3055,7 +3060,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3498,6 +3503,15 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3520,15 +3534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3828,7 +3833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3842,7 +3847,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -3852,7 +3857,7 @@
     <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
         <v>666</v>
       </c>
@@ -3871,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>657</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>642</v>
       </c>
@@ -3907,7 +3912,7 @@
       </c>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="27">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="46"/>
       <c r="B4" s="48" t="s">
         <v>40</v>
@@ -3924,7 +3929,7 @@
       </c>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
@@ -3941,7 +3946,7 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
@@ -3958,7 +3963,7 @@
       </c>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46" t="s">
@@ -3977,7 +3982,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
@@ -3994,7 +3999,7 @@
       </c>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -4009,7 +4014,7 @@
       </c>
       <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="48" t="s">
         <v>634</v>
@@ -4026,7 +4031,7 @@
       </c>
       <c r="G10" s="46"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -4043,7 +4048,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -4060,7 +4065,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
@@ -4077,7 +4082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="46"/>
       <c r="B14" s="48" t="s">
         <v>637</v>
@@ -4094,7 +4099,7 @@
       </c>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
         <v>643</v>
       </c>
@@ -4109,7 +4114,7 @@
       </c>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="46"/>
       <c r="B16" s="48" t="s">
         <v>64</v>
@@ -4128,7 +4133,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="46"/>
       <c r="B17" s="48" t="s">
         <v>42</v>
@@ -4145,7 +4150,7 @@
       </c>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46" t="s">
@@ -4160,7 +4165,7 @@
       </c>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46" t="s">
@@ -4177,7 +4182,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
@@ -4194,7 +4199,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
@@ -4211,7 +4216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="46"/>
       <c r="B22" s="48" t="s">
         <v>43</v>
@@ -4228,7 +4233,7 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46" t="s">
@@ -4243,7 +4248,7 @@
       </c>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46" t="s">
@@ -4260,7 +4265,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46" t="s">
@@ -4277,7 +4282,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46" t="s">
@@ -4294,7 +4299,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="46"/>
       <c r="B27" s="48" t="s">
         <v>422</v>
@@ -4311,7 +4316,7 @@
       </c>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46" t="s">
@@ -4326,7 +4331,7 @@
       </c>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46" t="s">
@@ -4343,7 +4348,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46" t="s">
@@ -4360,7 +4365,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46" t="s">
@@ -4375,7 +4380,7 @@
       </c>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46" t="s">
@@ -4392,7 +4397,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="46"/>
       <c r="B33" s="48" t="s">
         <v>44</v>
@@ -4409,7 +4414,7 @@
       </c>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46" t="s">
@@ -4424,7 +4429,7 @@
       </c>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46" t="s">
@@ -4441,7 +4446,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46" t="s">
@@ -4458,7 +4463,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46" t="s">
@@ -4475,7 +4480,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="46"/>
       <c r="B38" s="48" t="s">
         <v>45</v>
@@ -4492,7 +4497,7 @@
       </c>
       <c r="G38" s="46"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="46" t="s">
@@ -4507,7 +4512,7 @@
       </c>
       <c r="G39" s="46"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46" t="s">
@@ -4524,7 +4529,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46" t="s">
@@ -4541,7 +4546,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46" t="s">
@@ -4558,7 +4563,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="46"/>
       <c r="B43" s="48" t="s">
         <v>46</v>
@@ -4575,7 +4580,7 @@
       </c>
       <c r="G43" s="46"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46" t="s">
@@ -4590,7 +4595,7 @@
       </c>
       <c r="G44" s="46"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46" t="s">
@@ -4607,7 +4612,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46" t="s">
@@ -4624,7 +4629,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46" t="s">
@@ -4641,7 +4646,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="46"/>
       <c r="B48" s="48" t="s">
         <v>48</v>
@@ -4658,7 +4663,7 @@
       </c>
       <c r="G48" s="46"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46" t="s">
@@ -4675,7 +4680,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46" t="s">
@@ -4692,7 +4697,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46" t="s">
@@ -4709,7 +4714,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46" t="s">
@@ -4726,7 +4731,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="46"/>
       <c r="B53" s="48" t="s">
         <v>47</v>
@@ -4743,7 +4748,7 @@
       </c>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46" t="s">
@@ -4760,7 +4765,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46" t="s">
@@ -4777,7 +4782,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46" t="s">
@@ -4794,7 +4799,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46" t="s">
@@ -4811,7 +4816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="46" t="s">
         <v>644</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="46"/>
       <c r="B59" s="49" t="s">
         <v>679</v>
@@ -4847,7 +4852,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="46"/>
       <c r="B60" s="46" t="s">
         <v>652</v>
@@ -4864,7 +4869,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="46"/>
       <c r="B61" s="46" t="s">
         <v>653</v>
@@ -4881,7 +4886,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="46"/>
       <c r="B62" s="46" t="s">
         <v>664</v>
@@ -4898,7 +4903,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="46"/>
       <c r="B63" s="46" t="s">
         <v>654</v>
@@ -4915,7 +4920,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="46"/>
       <c r="B64" s="46" t="s">
         <v>655</v>
@@ -4932,7 +4937,7 @@
       </c>
       <c r="G64" s="46"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="48" t="s">
         <v>640</v>
       </c>
@@ -4949,7 +4954,7 @@
       </c>
       <c r="G65" s="46"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="46"/>
       <c r="B66" s="46" t="s">
         <v>656</v>
@@ -4966,7 +4971,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="46"/>
       <c r="B67" s="46" t="s">
         <v>645</v>
@@ -4981,7 +4986,7 @@
       </c>
       <c r="G67" s="46"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="46"/>
       <c r="B68" s="46" t="s">
         <v>646</v>
@@ -4998,7 +5003,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="46"/>
       <c r="B69" s="46" t="s">
         <v>647</v>
@@ -5032,7 +5037,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5043,7 +5048,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -5065,7 +5070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5133,7 +5138,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5151,7 +5156,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -5169,7 +5174,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -5187,7 +5192,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -5205,7 +5210,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>14</v>
       </c>
@@ -5241,71 +5246,71 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment_item (</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" ref="E19:E25" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">item_name varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">reimbursement_cap DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>629</v>
       </c>
@@ -5321,10 +5326,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5334,7 +5339,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5348,12 +5353,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5441,7 +5446,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5469,7 +5474,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36">
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -5531,7 +5536,7 @@
       <c r="H10" s="4"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -5550,7 +5555,7 @@
       <c r="H11" s="4"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -5568,7 +5573,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -5586,7 +5591,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -5625,7 +5630,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -5643,7 +5648,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -5681,7 +5686,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -5699,7 +5704,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="31" t="s">
         <v>523</v>
       </c>
@@ -5707,96 +5712,96 @@
         <v>41863</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_arrears (</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f>C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f>C7&amp;" "&amp;D7&amp;", "</f>
         <v xml:space="preserve">arrears_type varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f>C8&amp;" "&amp;D8&amp;", "</f>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f>C9&amp;" "&amp;D9&amp;", "</f>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" ref="E29:E36" si="0">C12&amp;" "&amp;D12&amp;", "</f>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f>C18&amp;" "&amp;D18&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="1" t="s">
         <v>629</v>
       </c>
@@ -5816,7 +5821,7 @@
       <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -5827,7 +5832,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -5841,12 +5846,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5872,7 +5877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5896,7 +5901,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5914,7 +5919,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5932,7 +5937,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -5950,7 +5955,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -5968,7 +5973,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -5986,7 +5991,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6004,7 +6009,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6022,7 +6027,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6042,7 +6047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -6060,78 +6065,78 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_profile (</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E26" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">expected_value DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">profile_point varchar(100), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>629</v>
       </c>
@@ -6150,7 +6155,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -6161,7 +6166,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -6175,12 +6180,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6206,7 +6211,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6250,7 +6255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6288,7 +6293,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6308,7 +6313,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6326,7 +6331,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6344,7 +6349,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6362,7 +6367,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6380,7 +6385,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6400,7 +6405,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6418,7 +6423,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -6438,7 +6443,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -6456,7 +6461,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -6474,7 +6479,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -6512,7 +6517,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -6530,7 +6535,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -6548,7 +6553,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -6566,7 +6571,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -6586,138 +6591,138 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_chop (</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" ref="E27:E44" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">chop_code varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">content varchar(500), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_user char(36), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">apply_time datetime(0), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">organization_id char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(200), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_idea varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step2_time datetime(0), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_idea varchar(200), </v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_user char(36), </v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step3_time datetime(0), </v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="str">
         <f>C23&amp;" "&amp;D23&amp;", "</f>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>629</v>
       </c>
@@ -6736,7 +6741,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -6746,7 +6751,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6760,12 +6765,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -6853,7 +6858,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -6871,7 +6876,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -6889,7 +6894,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -6907,7 +6912,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -6925,7 +6930,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -6943,7 +6948,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6961,7 +6966,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -6979,7 +6984,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -6997,7 +7002,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -7015,7 +7020,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7033,7 +7038,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7051,7 +7056,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7069,7 +7074,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7087,7 +7092,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7125,126 +7130,126 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_information (</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E41" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">department char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(200), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">address varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">developer varchar(200), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">epc_corporation varchar(200), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">variety varchar(100), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">total_area varchar(20), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">real_name varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">identification varchar(20), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contact varchar(100), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">subscriber char(36), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="1" t="s">
         <v>629</v>
       </c>
@@ -7263,7 +7268,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7274,7 +7279,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -7288,12 +7293,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7319,7 +7324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7341,7 +7346,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7357,7 +7362,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7373,7 +7378,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7391,7 +7396,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7407,7 +7412,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -7423,7 +7428,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7439,7 +7444,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7455,7 +7460,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -7471,7 +7476,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -7487,7 +7492,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -7503,7 +7508,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -7521,7 +7526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -7537,7 +7542,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -7555,7 +7560,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -7573,7 +7578,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -7591,7 +7596,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -7609,7 +7614,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -7627,12 +7632,12 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"dujuan","杜鹃","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务总监，系统管理员",1);</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -7696,7 +7701,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangmeng","张梦","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务经理",2);</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -7718,7 +7723,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"liuyuecui","刘月翠","0ed4d3a1-0c3a-11e4-9300-001c42328937","财务核算员",3);</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangshuyan","王书岩","0ed4d3a1-0c3a-11e4-9300-001c42328937","盖章经办人",4);</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -7762,7 +7767,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"yangdeyou","杨德友","0ed44f90-0c3a-11e4-9300-001c42328937","项目部负责人",5);</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>6</v>
       </c>
@@ -7784,7 +7789,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyong","王勇","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",6);</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>7</v>
       </c>
@@ -7806,7 +7811,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"xiadongyan","夏冬燕","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",7);</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>8</v>
       </c>
@@ -7830,7 +7835,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhangyan","张岩","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",8);</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>9</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangpeng","王鹏","0ed44f90-0c3a-11e4-9300-001c42328937","项目部操作员",9);</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>10</v>
       </c>
@@ -7876,7 +7881,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"wangyouqing","王有青","0ed38235-0c3a-11e4-9300-001c42328937","事业部负责人",10);</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>11</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>INSERT INTO t_sys_user (id, login_name, real_name, organization_id, position, order_by) VALUES(uuid(),"zhoukai","周楷","0ed38235-0c3a-11e4-9300-001c42328937","项目部操作员",11);</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>12</v>
       </c>
@@ -7937,7 +7942,7 @@
       <selection activeCell="H15" sqref="H13:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -7948,7 +7953,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -7962,12 +7967,12 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -7993,7 +7998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8015,7 +8020,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8031,7 +8036,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8047,7 +8052,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>18</v>
       </c>
@@ -8063,12 +8068,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"事业部");</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>INSERT INTO t_sys_organization(id,organization_name) VALUES(uuid(),"项目部");</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -8145,7 +8150,7 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -8158,7 +8163,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -8172,12 +8177,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8236,7 +8241,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8252,7 +8257,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="13.5">
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8289,7 +8294,7 @@
       </c>
       <c r="U7" s="39"/>
     </row>
-    <row r="8" spans="1:21" ht="13.5">
+    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8326,7 +8331,7 @@
       </c>
       <c r="U8" s="39"/>
     </row>
-    <row r="9" spans="1:21" ht="13.5">
+    <row r="9" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="U9" s="39"/>
     </row>
-    <row r="10" spans="1:21" ht="13.5">
+    <row r="10" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8400,7 +8405,7 @@
       </c>
       <c r="U10" s="39"/>
     </row>
-    <row r="11" spans="1:21" ht="13.5">
+    <row r="11" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8437,7 +8442,7 @@
       </c>
       <c r="U11" s="39"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5">
+    <row r="12" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8464,7 +8469,7 @@
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8480,7 +8485,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -8496,7 +8501,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="36">
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -8517,7 +8522,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"系统框架", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 1, "该模块是整个系统的基础及核心，用于为其他各模块提供统一的接口协议，包括提供统一的人机交互界面，以及数据存储访问管理服务。");</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="36">
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"登录认证", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 2, "该模块提供用户、密码登录验证及安全访问控制功能，登录密码采用非对称加密算法（MD5），防止破坏性攻击，保证系统的访问安全。");</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"修改个人信息", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 3, "为已经登录系统的用户修改自己的个人信息，包括密码的功能。");</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24">
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -8580,7 +8585,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"报表导出", "9f8fd7da-06a3-11e4-99f8-6cf049046039", 4, "提供报表数据导出功能，可将单项目统计和多项目汇总功能导出成Excel文件。");</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="24">
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用户管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 1, "该模块提供系统登录帐户信息的管理功能，包括用户的新建，修改及删除，以及用户信息及密码的重置功能。");</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"角色管理", "9f932cce-06a3-11e4-99f8-6cf049046039", 2, "该模块用于新建/修改/删除系统角色，以及为角色授权。");</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="36">
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -8643,7 +8648,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"权限控制", "9f932cce-06a3-11e4-99f8-6cf049046039", 3, "该模块用于控制其他各业务模块的访问权限，提供基于用户的权限控制管理，通过该模块可以设置每个登录帐户可以访问哪些模块。");</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -8664,7 +8669,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"项目汇总表", "9f94f3df-06a3-11e4-99f8-6cf049046039", 1, "按业务需求实现多项目汇总的3张报表，包括按全部、项目部或事业部分别输出报表。");</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24">
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"汇总参数设置", "9f94f3df-06a3-11e4-99f8-6cf049046039", 2, "通过该功能可以设置系统的结算周期，比如指定25日为结算日，则系统所有数据的汇总统计按照上月26日~本月25日的结算周期。");</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5">
+    <row r="30" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同项目信息", "9f94f3df-06a3-11e4-99f8-6cf049046039", 3, "按业务需求实现合同项目信息功能");</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5">
+    <row r="31" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"合同补充协议", "9f94f3df-06a3-11e4-99f8-6cf049046039", 4, "按业务需求实现合同补充协议功能");</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5">
+    <row r="32" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -8751,7 +8756,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"甲方开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 5, "按业务需求实现甲方开票功能，包括审核功能。");</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5">
+    <row r="33" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"客户开票情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 6, "按业务需求实现客户开票功能。");</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5">
+    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -8795,7 +8800,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"收款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 7, "按业务需求实现收款情况功能。");</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24">
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"付款情况", "9f94f3df-06a3-11e4-99f8-6cf049046039", 8, "按业务需求实现付款情况功能，包括期间费用报销功能，以及报销比例的设置，报销上限及剩余金额的计算与控制。");</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="24">
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -8839,7 +8844,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"往来欠款", "9f94f3df-06a3-11e4-99f8-6cf049046039", 9, "按业务需求实现往来欠款功能，包括利率的设置，以及利息的计算。");</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5">
+    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -8861,7 +8866,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"型材", "9f94f3df-06a3-11e4-99f8-6cf049046039", 10, "按业务需求实现型材功能。");</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5">
+    <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章申请", "9f982ad0-06a3-11e4-99f8-6cf049046039", 1, "由项目部或事业部人员填写用章申请,并提交给财务部审核");</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="24">
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -8905,7 +8910,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章审批控制", "9f982ad0-06a3-11e4-99f8-6cf049046039", 2, "财务部对用章申请进行审批,当财务主管外出,可将审批权限委托给财务经理，财务经办人根据审批通过的用章申请进行盖章。");</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="24">
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -8927,7 +8932,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"用章统计表", "9f982ad0-06a3-11e4-99f8-6cf049046039", 3, "包括用章的申请各环节的业务控制，以及输出按月的用章统计表。");</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24">
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -8949,7 +8954,7 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息检索", "9f99c4af-06a3-11e4-99f8-6cf049046039", 1, "提供按关键字进行信息检索的功能，进行模糊搜索匹配展示信息检索结果。");</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24">
+    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -8971,27 +8976,27 @@
         <v>INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),"信息录入", "9f99c4af-06a3-11e4-99f8-6cf049046039", 2, "提供信息管理平台的录入管理功能，包括信息的新建/修改与删除。");</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I45" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I49" s="1" t="s">
         <v>587</v>
       </c>
@@ -9011,7 +9016,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -9021,7 +9026,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9035,12 +9040,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9104,7 +9109,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -9120,7 +9125,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9136,7 +9141,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -9167,7 +9172,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -9178,7 +9183,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -9192,12 +9197,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -9223,7 +9228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9247,7 +9252,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9265,7 +9270,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9283,7 +9288,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9301,7 +9306,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -9319,7 +9324,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -9337,7 +9342,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -9355,7 +9360,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -9373,7 +9378,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -9391,7 +9396,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -9409,27 +9414,27 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>262</v>
       </c>
@@ -9452,7 +9457,7 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="18" bestFit="1" customWidth="1"/>
@@ -9466,59 +9471,59 @@
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="54" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54"/>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -9547,13 +9552,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" ht="36">
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -9592,11 +9597,11 @@
       </c>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="36">
+    <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -9633,11 +9638,11 @@
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="12">
+    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -9674,11 +9679,11 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="24">
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -9709,11 +9714,11 @@
       <c r="N7" s="15"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="24">
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -9738,11 +9743,11 @@
       </c>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="12">
+    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="44" t="s">
         <v>634</v>
       </c>
@@ -9765,11 +9770,11 @@
       </c>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="36">
+    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="44" t="s">
         <v>637</v>
       </c>
@@ -9790,11 +9795,11 @@
       </c>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="24">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -9821,11 +9826,11 @@
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="24">
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -9850,11 +9855,11 @@
       <c r="N12" s="15"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="12">
+    <row r="13" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
@@ -9881,11 +9886,11 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="12">
+    <row r="14" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
@@ -9912,11 +9917,11 @@
       <c r="N14" s="15"/>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15" ht="12">
+    <row r="15" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="44" t="s">
         <v>422</v>
       </c>
@@ -9943,11 +9948,11 @@
       <c r="N15" s="15"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="12">
+    <row r="16" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
@@ -9974,11 +9979,11 @@
       <c r="N16" s="15"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="12">
+    <row r="17" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
@@ -10005,11 +10010,11 @@
       <c r="N17" s="15"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="24">
+    <row r="18" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
@@ -10036,11 +10041,11 @@
       <c r="N18" s="15"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="24">
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
@@ -10067,11 +10072,11 @@
       <c r="N19" s="15"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="12">
+    <row r="20" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
@@ -10098,11 +10103,11 @@
       <c r="N20" s="15"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="12">
+    <row r="21" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -10129,11 +10134,11 @@
       <c r="N21" s="15"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="36">
+    <row r="22" spans="1:15" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -10164,11 +10169,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="24">
+    <row r="23" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -10197,11 +10202,11 @@
       <c r="N23" s="15"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="24">
+    <row r="24" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="53" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -10230,11 +10235,11 @@
       <c r="N24" s="15"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="24">
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -10259,11 +10264,11 @@
       <c r="N25" s="15"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="12">
+    <row r="26" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -10286,11 +10291,11 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="1:15" ht="12">
+    <row r="27" spans="1:15" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -10311,7 +10316,7 @@
       </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -10328,12 +10333,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -10341,6 +10340,12 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -10356,7 +10361,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" bestFit="1" customWidth="1"/>
@@ -10369,7 +10374,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -10384,12 +10389,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10443,7 +10448,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10462,7 +10467,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10481,7 +10486,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10502,7 +10507,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10523,7 +10528,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10544,7 +10549,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10565,7 +10570,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -10586,7 +10591,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -10607,7 +10612,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -10628,7 +10633,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -10672,7 +10677,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -10693,7 +10698,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -10714,7 +10719,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -10735,7 +10740,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -10758,7 +10763,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -10779,7 +10784,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -10844,7 +10849,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -10867,7 +10872,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -10888,7 +10893,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -10911,7 +10916,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -10932,7 +10937,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -10955,7 +10960,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -10976,7 +10981,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -10997,7 +11002,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -11018,7 +11023,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -11039,7 +11044,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -11083,7 +11088,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -11102,12 +11107,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>633</v>
       </c>
@@ -11140,7 +11145,7 @@
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11152,7 +11157,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -11166,12 +11171,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -11197,7 +11202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11221,7 +11226,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11239,7 +11244,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11257,7 +11262,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -11277,7 +11282,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -11295,7 +11300,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -11313,7 +11318,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -11331,7 +11336,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -11349,7 +11354,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -11367,7 +11372,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -11385,7 +11390,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -11407,7 +11412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -11427,7 +11432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -11445,7 +11450,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -11463,7 +11468,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -11481,7 +11486,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -11501,7 +11506,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -11521,7 +11526,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -11539,7 +11544,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -11560,7 +11565,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -11580,7 +11585,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -11598,7 +11603,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -11618,7 +11623,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -11636,7 +11641,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -11656,7 +11661,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -11674,7 +11679,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -11692,174 +11697,174 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_project (</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" ref="E35:E59" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_code varchar(50), </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_name varchar(100), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">department_id char(36), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_name varchar(100), </v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">party_address varchar(200), </v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">manager varchar(50), </v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_code varchar(50), </v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">cooperation varchar(100), </v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">legal_assignee varchar(50), </v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">is_withholding_offsite TINYINT, </v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">contract_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">settlement_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_time DATETIME(0), </v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">duty_paid_code varchar(50), </v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">capital_occupied DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_status TINYINT, </v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E56" s="1" t="str">
         <f>C26&amp;" "&amp;D26&amp;", "</f>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E60" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="1" t="s">
         <v>630</v>
       </c>
@@ -11878,7 +11883,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -11889,7 +11894,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -11903,12 +11908,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -11958,7 +11963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -11976,7 +11981,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -11994,7 +11999,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12032,7 +12037,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12054,7 +12059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12074,7 +12079,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12092,7 +12097,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12112,7 +12117,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12131,7 +12136,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12149,84 +12154,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_contract_change (</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" ref="E20:E29" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">csa_code varchar(50), </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">management_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">change_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f>C13&amp;" "&amp;D13&amp;", "</f>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="1" t="s">
         <v>629</v>
       </c>
@@ -12246,7 +12251,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12257,7 +12262,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -12271,7 +12276,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -12279,7 +12284,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
@@ -12305,7 +12310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12329,7 +12334,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12347,7 +12352,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12365,7 +12370,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12383,7 +12388,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12405,7 +12410,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12425,7 +12430,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12443,7 +12448,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12461,7 +12466,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12479,7 +12484,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -12497,7 +12502,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -12514,7 +12519,7 @@
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -12534,7 +12539,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -12552,7 +12557,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -12572,7 +12577,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -12592,7 +12597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -12610,7 +12615,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="40"/>
@@ -12620,114 +12625,114 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_party_billing (</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" ref="E22:E37" si="0">C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_rate DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">tax_amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_idea varchar(100), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step1_time datetime(0), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">step_status varchar(20), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>
@@ -12746,7 +12751,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -12757,7 +12762,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -12771,7 +12776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -12779,7 +12784,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -12805,7 +12810,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12829,7 +12834,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12847,7 +12852,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12865,7 +12870,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12885,7 +12890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12903,7 +12908,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12923,7 +12928,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12943,7 +12948,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -12961,7 +12966,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -12981,7 +12986,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13001,7 +13006,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13019,84 +13024,84 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_customer_billing (</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="str">
         <f t="shared" ref="E18:E27" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_code varchar(50), </v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">invoice_type varchar(50), </v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>629</v>
       </c>
@@ -13115,7 +13120,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13127,7 +13132,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13141,7 +13146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13149,7 +13154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13175,7 +13180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13217,7 +13222,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13235,7 +13240,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13255,7 +13260,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13275,7 +13280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13293,7 +13298,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13311,7 +13316,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13329,7 +13334,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13349,7 +13354,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13369,7 +13374,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13387,7 +13392,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13407,7 +13412,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13427,7 +13432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -13445,102 +13450,102 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_collections (</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E20" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E21" s="1" t="str">
         <f t="shared" ref="E21:E33" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">source_of varchar(50), </v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_type varchar(50), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="1" t="s">
         <v>629</v>
       </c>
@@ -13561,7 +13566,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -13572,7 +13577,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13586,7 +13591,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -13594,7 +13599,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
@@ -13620,7 +13625,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -13644,7 +13649,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -13662,7 +13667,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -13680,7 +13685,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -13700,7 +13705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -13720,7 +13725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -13738,7 +13743,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -13756,7 +13761,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -13774,7 +13779,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -13792,7 +13797,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -13810,7 +13815,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -13828,7 +13833,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -13846,7 +13851,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -13884,107 +13889,107 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H21" s="30" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="str">
         <f>"create table "&amp;$B$1&amp;" ("</f>
         <v>create table t_payment (</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1" t="str">
         <f>C4&amp;" "&amp;D4&amp;", "</f>
         <v xml:space="preserve">id char(36), </v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="str">
         <f t="shared" ref="E25:E37" si="0">C5&amp;" "&amp;D5&amp;", "</f>
         <v xml:space="preserve">project_id char(36), </v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ticket_code varchar(50), </v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pay_type varchar(50), </v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">payment_item_id char(36), </v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">amount DECIMAL(20,4), </v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_account varchar(50), </v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bank_name varchar(200), </v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">trice DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">create_user char(36), </v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1" t="str">
         <f>C15&amp;" "&amp;D15&amp;", "</f>
         <v xml:space="preserve">update_time DATETIME(0) DEFAULT CURRENT_TIMESTAMP, </v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">update_user char(36), </v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">description VARCHAR(500), </v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>629</v>
       </c>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="23" r:id="rId1"/>
@@ -3609,6 +3609,24 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3633,15 +3651,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3662,15 +3671,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3945,7 +3945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4956,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8799,7 +8799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -8826,11 +8826,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="48" t="s">
         <v>786</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="D50" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="49" t="s">
         <v>746</v>
       </c>
       <c r="F50" s="3" t="str">
@@ -10751,7 +10751,7 @@
       <c r="I50" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="J50" s="69" t="s">
+      <c r="J50" s="49" t="s">
         <v>707</v>
       </c>
       <c r="K50" s="3">
@@ -11172,58 +11172,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="50" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="42"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -11252,13 +11252,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="50"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -11301,7 +11301,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -11447,7 +11447,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="44" t="s">
         <v>632</v>
       </c>
@@ -11474,7 +11474,7 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="44" t="s">
         <v>635</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -11530,7 +11530,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="44" t="s">
         <v>43</v>
       </c>
@@ -11621,7 +11621,7 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="44" t="s">
         <v>420</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="44" t="s">
         <v>44</v>
       </c>
@@ -11683,7 +11683,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="44" t="s">
         <v>46</v>
       </c>
@@ -11745,7 +11745,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="44" t="s">
         <v>48</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -11838,7 +11838,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -11873,7 +11873,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -11906,7 +11906,7 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="52" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -11939,7 +11939,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -11968,7 +11968,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -11995,7 +11995,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -12033,12 +12033,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -12046,6 +12040,12 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -12078,10 +12078,10 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="64" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="61"/>
+      <c r="C1" s="64"/>
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
@@ -12098,10 +12098,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="65" t="s">
         <v>415</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -12152,7 +12152,7 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="27" t="s">
         <v>387</v>
       </c>
@@ -12171,7 +12171,7 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="65" t="s">
         <v>403</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -12211,7 +12211,7 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
@@ -12253,7 +12253,7 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
@@ -12274,7 +12274,7 @@
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="27" t="s">
         <v>388</v>
       </c>
@@ -12295,7 +12295,7 @@
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="27" t="s">
         <v>389</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="27" t="s">
         <v>390</v>
       </c>
@@ -12337,7 +12337,7 @@
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -12360,7 +12360,7 @@
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="27" t="s">
         <v>404</v>
       </c>
@@ -12381,7 +12381,7 @@
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="27" t="s">
         <v>78</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="27" t="s">
         <v>405</v>
       </c>
@@ -12423,7 +12423,7 @@
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="27" t="s">
         <v>406</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="63" t="s">
         <v>672</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -12467,7 +12467,7 @@
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="27" t="s">
         <v>431</v>
       </c>
@@ -12488,7 +12488,7 @@
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="63" t="s">
         <v>428</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -12511,7 +12511,7 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="27" t="s">
         <v>393</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="27" t="s">
         <v>394</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="68" t="s">
         <v>673</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -12576,7 +12576,7 @@
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="66"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="27" t="s">
         <v>431</v>
       </c>
@@ -12597,7 +12597,7 @@
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="63" t="s">
         <v>395</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -12620,7 +12620,7 @@
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="27" t="s">
         <v>397</v>
       </c>
@@ -12641,7 +12641,7 @@
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -12664,7 +12664,7 @@
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="27" t="s">
         <v>398</v>
       </c>
@@ -12685,7 +12685,7 @@
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="27" t="s">
         <v>440</v>
       </c>
@@ -12706,7 +12706,7 @@
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="27" t="s">
         <v>399</v>
       </c>
@@ -12727,7 +12727,7 @@
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="27" t="s">
         <v>80</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="63" t="s">
         <v>401</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -12792,7 +12792,7 @@
       <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="2" t="s">
         <v>402</v>
       </c>
@@ -14817,7 +14817,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -1739,10 +1739,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摘要信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>从“合同项目信息”中自动提取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1788,10 +1784,6 @@
   </si>
   <si>
     <t>收到的客户开的发票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从甲方收款情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3161,6 +3153,14 @@
   </si>
   <si>
     <t>change_total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从甲方收款情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3600,10 +3600,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3630,25 +3660,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3657,29 +3675,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3954,7 +3954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3991,34 +3991,34 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="47" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>767</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>772</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>769</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>774</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>9</v>
@@ -4026,12 +4026,12 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="str">
@@ -4040,10 +4040,10 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3">
@@ -4066,10 +4066,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" ref="F4:F52" si="0">A4&amp;B4&amp;C4</f>
@@ -4077,20 +4077,20 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K52" si="1">K3+10</f>
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" ref="M4:M52" si="2">"uuid(),'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;J4&amp;"','"&amp;H4&amp;"',"&amp;K4&amp;",'"&amp;L4&amp;"'"</f>
@@ -4108,10 +4108,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4119,13 +4119,13 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
@@ -4145,13 +4145,13 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4159,10 +4159,10 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4185,13 +4185,13 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4199,10 +4199,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
@@ -4210,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4225,13 +4225,13 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4239,10 +4239,10 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
@@ -4250,7 +4250,7 @@
         <v>60</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4268,10 +4268,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4279,13 +4279,13 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
@@ -4305,13 +4305,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4319,10 +4319,10 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -4330,7 +4330,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4345,13 +4345,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4359,10 +4359,10 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
@@ -4370,7 +4370,7 @@
         <v>90</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4385,13 +4385,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4399,10 +4399,10 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
@@ -4410,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4424,14 +4424,14 @@
     <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4439,13 +4439,13 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
@@ -4465,13 +4465,13 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4479,10 +4479,10 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
@@ -4490,7 +4490,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4505,13 +4505,13 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4519,10 +4519,10 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
@@ -4530,7 +4530,7 @@
         <v>130</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4545,13 +4545,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4559,10 +4559,10 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
@@ -4583,13 +4583,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4597,10 +4597,10 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
@@ -4608,7 +4608,7 @@
         <v>150</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4626,10 +4626,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4637,13 +4637,13 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
@@ -4663,13 +4663,13 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4677,10 +4677,10 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
@@ -4688,7 +4688,7 @@
         <v>170</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4703,13 +4703,13 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4717,10 +4717,10 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
@@ -4728,7 +4728,7 @@
         <v>180</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4743,13 +4743,13 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4757,10 +4757,10 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3">
@@ -4768,7 +4768,7 @@
         <v>190</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4786,10 +4786,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4797,13 +4797,13 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="1"/>
@@ -4823,13 +4823,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4837,10 +4837,10 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3">
@@ -4848,7 +4848,7 @@
         <v>210</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4863,13 +4863,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4877,10 +4877,10 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3">
@@ -4888,7 +4888,7 @@
         <v>220</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4903,13 +4903,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4917,10 +4917,10 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3">
@@ -4928,7 +4928,7 @@
         <v>230</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4946,10 +4946,10 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4957,13 +4957,13 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
@@ -4983,13 +4983,13 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4997,10 +4997,10 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
@@ -5008,7 +5008,7 @@
         <v>250</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5023,13 +5023,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5037,10 +5037,10 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3">
@@ -5048,7 +5048,7 @@
         <v>260</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5063,13 +5063,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5077,10 +5077,10 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3">
@@ -5088,7 +5088,7 @@
         <v>270</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5106,10 +5106,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5117,13 +5117,13 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="1"/>
@@ -5143,13 +5143,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5157,10 +5157,10 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
@@ -5168,7 +5168,7 @@
         <v>290</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5183,13 +5183,13 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5197,10 +5197,10 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
@@ -5208,7 +5208,7 @@
         <v>300</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5223,13 +5223,13 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5237,10 +5237,10 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
@@ -5248,7 +5248,7 @@
         <v>310</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M33" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5266,10 +5266,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5277,13 +5277,13 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
@@ -5303,13 +5303,13 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5317,10 +5317,10 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
@@ -5328,7 +5328,7 @@
         <v>330</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5343,13 +5343,13 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5357,10 +5357,10 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
@@ -5368,7 +5368,7 @@
         <v>340</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M36" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5383,13 +5383,13 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5397,10 +5397,10 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
@@ -5408,7 +5408,7 @@
         <v>350</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M37" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5421,15 +5421,15 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5437,20 +5437,20 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M38" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5464,14 +5464,14 @@
     <row r="39" spans="1:14">
       <c r="A39" s="3"/>
       <c r="B39" s="46" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5479,10 +5479,10 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
@@ -5490,7 +5490,7 @@
         <v>370</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M39" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5504,14 +5504,14 @@
     <row r="40" spans="1:14">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5519,10 +5519,10 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3">
@@ -5530,7 +5530,7 @@
         <v>380</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M40" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5544,14 +5544,14 @@
     <row r="41" spans="1:14">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5559,10 +5559,10 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3">
@@ -5570,7 +5570,7 @@
         <v>390</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M41" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5584,11 +5584,11 @@
     <row r="42" spans="1:14">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="str">
@@ -5597,10 +5597,10 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
@@ -5608,7 +5608,7 @@
         <v>400</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M42" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5622,11 +5622,11 @@
     <row r="43" spans="1:14">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="str">
@@ -5635,10 +5635,10 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3">
@@ -5646,7 +5646,7 @@
         <v>410</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M43" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5660,14 +5660,14 @@
     <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5675,13 +5675,13 @@
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
@@ -5699,15 +5699,15 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5715,13 +5715,13 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="1"/>
@@ -5740,14 +5740,14 @@
     <row r="46" spans="1:14">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5755,10 +5755,10 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
@@ -5766,7 +5766,7 @@
         <v>440</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M46" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5780,14 +5780,14 @@
     <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5795,10 +5795,10 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
@@ -5806,7 +5806,7 @@
         <v>450</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M47" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5820,14 +5820,14 @@
     <row r="48" spans="1:14">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5835,10 +5835,10 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
@@ -5846,7 +5846,7 @@
         <v>460</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M48" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5859,12 +5859,12 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="str">
@@ -5873,10 +5873,10 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3">
@@ -5900,10 +5900,10 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5911,20 +5911,20 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M50" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5938,14 +5938,14 @@
     <row r="51" spans="1:14">
       <c r="A51" s="3"/>
       <c r="B51" s="45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5953,20 +5953,20 @@
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M51" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5980,14 +5980,14 @@
     <row r="52" spans="1:14">
       <c r="A52" s="3"/>
       <c r="B52" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5995,20 +5995,20 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M52" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6053,7 +6053,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -6107,7 +6107,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -6131,7 +6131,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6149,7 +6149,7 @@
         <v>358</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6167,7 +6167,7 @@
         <v>315</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -6181,19 +6181,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6207,7 +6207,7 @@
         <v>318</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -6225,7 +6225,7 @@
         <v>320</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6243,7 +6243,7 @@
         <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6261,7 +6261,7 @@
         <v>405</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6279,7 +6279,7 @@
         <v>296</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6297,7 +6297,7 @@
         <v>297</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6315,7 +6315,7 @@
         <v>298</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6333,7 +6333,7 @@
         <v>299</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6353,7 +6353,7 @@
         <v>300</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6457,12 +6457,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6502,7 +6502,7 @@
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6550,7 +6550,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -6568,13 +6568,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>303</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6592,7 +6592,7 @@
         <v>324</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6610,7 +6610,7 @@
         <v>296</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6628,7 +6628,7 @@
         <v>297</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6646,7 +6646,7 @@
         <v>298</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6664,7 +6664,7 @@
         <v>299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6682,7 +6682,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6750,12 +6750,12 @@
     </row>
     <row r="26" spans="4:5">
       <c r="E26" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6787,7 +6787,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -6838,7 +6838,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -6862,7 +6862,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6876,13 +6876,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6900,7 +6900,7 @@
         <v>327</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6909,11 +6909,11 @@
         <v>198</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L7" s="30"/>
     </row>
@@ -6928,7 +6928,7 @@
         <v>315</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6948,16 +6948,16 @@
         <v>325</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6965,13 +6965,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -6984,13 +6984,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -7009,7 +7009,7 @@
         <v>320</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -7027,7 +7027,7 @@
         <v>322</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -7045,14 +7045,14 @@
         <v>405</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1">
@@ -7066,7 +7066,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -7084,7 +7084,7 @@
         <v>297</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -7102,7 +7102,7 @@
         <v>298</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7122,7 +7122,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7140,7 +7140,7 @@
         <v>300</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H22" s="33">
         <v>41863</v>
@@ -7241,12 +7241,12 @@
     </row>
     <row r="37" spans="4:5">
       <c r="E37" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -7280,7 +7280,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -7331,7 +7331,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -7355,7 +7355,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -7367,13 +7367,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -7391,7 +7391,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7409,7 +7409,7 @@
         <v>405</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -7427,7 +7427,7 @@
         <v>296</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -7445,7 +7445,7 @@
         <v>297</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -7463,7 +7463,7 @@
         <v>298</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -7481,7 +7481,7 @@
         <v>299</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -7501,7 +7501,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -7576,12 +7576,12 @@
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -7665,7 +7665,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -7689,7 +7689,7 @@
         <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -7709,7 +7709,7 @@
         <v>302</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -7729,7 +7729,7 @@
         <v>334</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7747,7 +7747,7 @@
         <v>335</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -7767,7 +7767,7 @@
         <v>337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -7785,7 +7785,7 @@
         <v>338</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -7803,7 +7803,7 @@
         <v>343</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -7821,7 +7821,7 @@
         <v>340</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -7836,10 +7836,10 @@
         <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -7859,7 +7859,7 @@
         <v>341</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -7877,7 +7877,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7897,7 +7897,7 @@
         <v>344</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -7915,7 +7915,7 @@
         <v>346</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -7933,7 +7933,7 @@
         <v>347</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -7953,7 +7953,7 @@
         <v>348</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -7971,7 +7971,7 @@
         <v>349</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -7989,7 +7989,7 @@
         <v>350</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -8007,7 +8007,7 @@
         <v>351</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -8025,7 +8025,7 @@
         <v>345</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -8162,12 +8162,12 @@
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8199,7 +8199,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -8250,7 +8250,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -8274,7 +8274,7 @@
         <v>360</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8294,7 +8294,7 @@
         <v>361</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -8312,7 +8312,7 @@
         <v>362</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8330,7 +8330,7 @@
         <v>364</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -8348,7 +8348,7 @@
         <v>366</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -8366,7 +8366,7 @@
         <v>367</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -8384,7 +8384,7 @@
         <v>369</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -8402,7 +8402,7 @@
         <v>370</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -8420,7 +8420,7 @@
         <v>371</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -8438,7 +8438,7 @@
         <v>372</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -8456,7 +8456,7 @@
         <v>374</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -8474,7 +8474,7 @@
         <v>405</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8492,7 +8492,7 @@
         <v>296</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -8510,7 +8510,7 @@
         <v>297</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -8528,7 +8528,7 @@
         <v>298</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -8546,7 +8546,7 @@
         <v>299</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -8566,7 +8566,7 @@
         <v>300</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -8689,12 +8689,12 @@
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8727,13 +8727,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8775,7 +8775,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -8797,7 +8797,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8826,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>269</v>
@@ -8863,7 +8863,7 @@
         <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -8876,10 +8876,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8892,10 +8892,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -8924,10 +8924,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8940,10 +8940,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -8956,10 +8956,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8977,7 +8977,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -8990,13 +8990,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -9011,10 +9011,10 @@
         <v>103</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -9026,13 +9026,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -9044,13 +9044,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -9062,13 +9062,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -9088,7 +9088,7 @@
         <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>256</v>
@@ -9105,13 +9105,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>247</v>
@@ -9127,13 +9127,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>248</v>
@@ -9149,13 +9149,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>249</v>
@@ -9171,13 +9171,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>250</v>
@@ -9193,13 +9193,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>251</v>
@@ -9215,13 +9215,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>252</v>
@@ -9237,13 +9237,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>252</v>
@@ -9259,13 +9259,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>252</v>
@@ -9283,13 +9283,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>252</v>
@@ -9307,13 +9307,13 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>255</v>
@@ -9329,13 +9329,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>252</v>
@@ -9351,13 +9351,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>252</v>
@@ -9401,13 +9401,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9468,10 +9468,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -9521,7 +9521,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
@@ -9551,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -9567,7 +9567,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
@@ -9611,13 +9611,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -9678,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>378</v>
@@ -9692,7 +9692,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9716,10 +9716,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="J7" s="38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L7" s="38"/>
       <c r="N7" s="38"/>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T7" s="38">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>380</v>
@@ -9753,10 +9753,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="J8" s="38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L8" s="38"/>
       <c r="N8" s="38"/>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T8" s="38">
         <v>1</v>
@@ -9782,7 +9782,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9790,10 +9790,10 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="J9" s="38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L9" s="38"/>
       <c r="N9" s="38"/>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T9" s="38">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9830,7 +9830,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L10" s="38"/>
       <c r="N10" s="38"/>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T10" s="38">
         <v>1</v>
@@ -9853,10 +9853,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9867,7 +9867,7 @@
         <v>200</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L11" s="38"/>
       <c r="N11" s="38"/>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T11" s="38">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>266</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -9917,7 +9917,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>377</v>
@@ -9933,10 +9933,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>37</v>
@@ -9958,7 +9958,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C21 &amp;""", """&amp;E21&amp;""", "&amp;A21&amp;", """&amp;D21&amp;""");"</f>
@@ -9970,7 +9970,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>38</v>
@@ -9979,7 +9979,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" ref="I22:I42" si="0">"INSERT INTO t_sys_resource(id,res_name,parent_id,order_by,description) VALUES(uuid(),""" &amp; C22 &amp;""", """&amp;E22&amp;""", "&amp;A22&amp;", """&amp;D22&amp;""");"</f>
@@ -9991,7 +9991,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -10000,7 +10000,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10012,7 +10012,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>39</v>
@@ -10021,7 +10021,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>40</v>
@@ -10042,7 +10042,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10054,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>67</v>
@@ -10063,7 +10063,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10075,7 +10075,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>41</v>
@@ -10084,7 +10084,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>64</v>
@@ -10105,7 +10105,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10126,7 +10126,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10138,7 +10138,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>42</v>
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="1" t="str">
@@ -10160,7 +10160,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>43</v>
@@ -10169,7 +10169,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="1" t="str">
@@ -10182,16 +10182,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="1" t="str">
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="1" t="str">
@@ -10226,7 +10226,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>45</v>
@@ -10235,7 +10235,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H34"/>
       <c r="I34" s="1" t="str">
@@ -10248,7 +10248,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>46</v>
@@ -10257,7 +10257,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="1" t="str">
@@ -10270,7 +10270,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>48</v>
@@ -10279,7 +10279,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="1" t="str">
@@ -10292,7 +10292,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>47</v>
@@ -10301,7 +10301,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="1" t="str">
@@ -10314,7 +10314,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>35</v>
@@ -10323,7 +10323,7 @@
         <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H38"/>
       <c r="I38" s="1" t="str">
@@ -10336,7 +10336,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>51</v>
@@ -10345,7 +10345,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H39"/>
       <c r="I39" s="1" t="str">
@@ -10358,7 +10358,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>36</v>
@@ -10367,7 +10367,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="1" t="str">
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
@@ -10389,7 +10389,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H41"/>
       <c r="I41" s="1" t="str">
@@ -10402,7 +10402,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>56</v>
@@ -10411,7 +10411,7 @@
         <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H42"/>
       <c r="I42" s="1" t="str">
@@ -10421,27 +10421,27 @@
     </row>
     <row r="45" spans="1:9">
       <c r="I45" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="I46" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="I47" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="I48" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10474,13 +10474,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10541,10 +10541,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -10557,10 +10557,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -10573,10 +10573,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -10592,7 +10592,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -10630,58 +10630,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="42"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="52" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="41"/>
       <c r="F3" s="10" t="s">
         <v>58</v>
@@ -10710,13 +10710,13 @@
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="52"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" ht="36">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -10759,7 +10759,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
@@ -10800,7 +10800,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
@@ -10876,7 +10876,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="43" t="s">
@@ -10886,7 +10886,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
@@ -10905,15 +10905,15 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="43" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
@@ -10932,9 +10932,9 @@
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="43" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
@@ -10957,7 +10957,7 @@
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="43" t="s">
@@ -10988,7 +10988,7 @@
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
@@ -11048,7 +11048,7 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="43" t="s">
         <v>43</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
@@ -11079,15 +11079,15 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15"/>
@@ -11110,7 +11110,7 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="43" t="s">
         <v>44</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="15"/>
@@ -11141,7 +11141,7 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="43" t="s">
         <v>45</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="15"/>
@@ -11172,7 +11172,7 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="43" t="s">
         <v>46</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="15"/>
@@ -11203,7 +11203,7 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="15"/>
@@ -11234,7 +11234,7 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="43" t="s">
         <v>47</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
@@ -11265,7 +11265,7 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -11275,7 +11275,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>12</v>
@@ -11296,7 +11296,7 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
@@ -11331,7 +11331,7 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>200</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -11374,7 +11374,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
@@ -11397,7 +11397,7 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
@@ -11426,7 +11426,7 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -11453,7 +11453,7 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
@@ -11491,12 +11491,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -11504,6 +11498,12 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:N2"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.23622047244094491" bottom="0.15748031496062992" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -11535,13 +11535,13 @@
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11586,7 +11586,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -11604,13 +11604,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
@@ -11622,13 +11622,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>308</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
@@ -11643,10 +11643,10 @@
         <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
@@ -11658,13 +11658,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>309</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -11679,10 +11679,10 @@
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -11694,13 +11694,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -11712,13 +11712,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -11730,13 +11730,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -11754,7 +11754,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -11894,14 +11894,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="27" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>, ID, trice, description, project_id, organization_id</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -12014,14 +12014,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>, ID, trice, description, project_id, organization_id, project_code, project_name, contract_amount, settlement_amount, management_rate, management_plan_amount</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>778</v>
+      <c r="C13" s="49" t="s">
+        <v>776</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -12054,14 +12054,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>, ID, trice, description, project_id, organization_id, project_code, project_name, contract_amount, settlement_amount, management_rate, management_plan_amount, tax_rate, tax_plan_amount</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>779</v>
+      <c r="C15" s="49" t="s">
+        <v>777</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -12085,10 +12085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12107,10 +12107,10 @@
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1" s="62"/>
+      <c r="B1" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="70"/>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
@@ -12127,10 +12127,10 @@
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8" t="s">
         <v>87</v>
       </c>
@@ -12147,18 +12147,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="65" customFormat="1">
+    <row r="4" spans="1:8" s="50" customFormat="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>413</v>
+      <c r="B4" s="71" t="s">
+        <v>786</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>310</v>
@@ -12171,27 +12171,27 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="65" customFormat="1">
+    <row r="5" spans="1:8" s="50" customFormat="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="27" t="s">
         <v>385</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" s="65" customFormat="1">
+    <row r="6" spans="1:8" s="50" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
@@ -12203,83 +12203,83 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" s="65" customFormat="1">
+    <row r="7" spans="1:8" s="50" customFormat="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="71" t="s">
         <v>401</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>384</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="65" customFormat="1">
+    <row r="8" spans="1:8" s="50" customFormat="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="65" customFormat="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="50" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="65" customFormat="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="50" customFormat="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="65" customFormat="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="50" customFormat="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="27" t="s">
         <v>386</v>
       </c>
@@ -12290,46 +12290,46 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="65" customFormat="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="50" customFormat="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="27" t="s">
         <v>387</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="65" customFormat="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="50" customFormat="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:8" s="65" customFormat="1">
+    <row r="14" spans="1:8" s="50" customFormat="1">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="27" t="s">
         <v>388</v>
       </c>
@@ -12340,416 +12340,416 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="65" customFormat="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="50" customFormat="1">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="65" customFormat="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="50" customFormat="1">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="27" t="s">
         <v>402</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="73" customFormat="1">
-      <c r="A17" s="72">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="53" customFormat="1">
+      <c r="A17" s="52">
         <v>13</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="I17" s="75"/>
-    </row>
-    <row r="18" spans="1:9" s="65" customFormat="1">
+        <v>439</v>
+      </c>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" s="50" customFormat="1">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="27" t="s">
         <v>403</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="65" customFormat="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="50" customFormat="1">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="27" t="s">
         <v>404</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="73" customFormat="1">
-      <c r="A20" s="72">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="53" customFormat="1">
+      <c r="A20" s="52">
         <v>16</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>666</v>
+      <c r="B20" s="69" t="s">
+        <v>664</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>389</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" s="65" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="50" customFormat="1">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="73" customFormat="1">
-      <c r="A22" s="72">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="53" customFormat="1">
+      <c r="A22" s="52">
         <v>18</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>426</v>
+      <c r="B22" s="69" t="s">
+        <v>787</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>390</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="I22" s="75"/>
-    </row>
-    <row r="23" spans="1:9" s="65" customFormat="1">
+        <v>781</v>
+      </c>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="50" customFormat="1">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="27" t="s">
         <v>391</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="65" customFormat="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="50" customFormat="1">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="27" t="s">
         <v>392</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="73" customFormat="1">
-      <c r="A25" s="72">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="53" customFormat="1">
+      <c r="A25" s="52">
         <v>21</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>667</v>
+      <c r="B25" s="74" t="s">
+        <v>665</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>389</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:9" s="65" customFormat="1">
+        <v>423</v>
+      </c>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" s="50" customFormat="1">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="65" customFormat="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="50" customFormat="1">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="69" t="s">
         <v>393</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>394</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="65" customFormat="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="50" customFormat="1">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="27" t="s">
         <v>395</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="65" customFormat="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="50" customFormat="1">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="69" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="65" customFormat="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="50" customFormat="1">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="27" t="s">
         <v>396</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="73" customFormat="1">
-      <c r="A31" s="72">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="53" customFormat="1">
+      <c r="A31" s="52">
         <v>27</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" s="65" customFormat="1">
+        <v>782</v>
+      </c>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" s="50" customFormat="1">
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="27" t="s">
         <v>397</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="65" customFormat="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="50" customFormat="1">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="27" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="65" customFormat="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="50" customFormat="1">
       <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="51" t="s">
         <v>398</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>229</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="65" customFormat="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="50" customFormat="1">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="69" t="s">
         <v>399</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" s="65" customFormat="1">
+    <row r="36" spans="1:8" s="50" customFormat="1">
       <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="27" t="s">
         <v>400</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
@@ -12758,12 +12758,12 @@
     </row>
     <row r="39" spans="1:8">
       <c r="C39" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="D40" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -12852,7 +12852,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="72">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -12862,7 +12862,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -12876,7 +12876,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="72">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -12886,7 +12886,7 @@
         <v>267</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -12894,7 +12894,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="72">
+      <c r="A6" s="52">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -12904,7 +12904,7 @@
         <v>268</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -12912,27 +12912,27 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="72">
+      <c r="A7" s="52">
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="72">
+      <c r="A8" s="52">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -12942,7 +12942,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -12960,7 +12960,7 @@
         <v>272</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -12978,7 +12978,7 @@
         <v>337</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -12996,7 +12996,7 @@
         <v>274</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -13014,7 +13014,7 @@
         <v>276</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -13032,7 +13032,7 @@
         <v>278</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13050,7 +13050,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13062,7 +13062,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="72">
+      <c r="A15" s="52">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -13072,7 +13072,7 @@
         <v>284</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -13082,7 +13082,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="72">
+      <c r="A16" s="52">
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -13092,7 +13092,7 @@
         <v>283</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13100,7 +13100,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="72">
+      <c r="A17" s="52">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -13110,7 +13110,7 @@
         <v>286</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -13118,7 +13118,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="72">
+      <c r="A18" s="52">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -13128,7 +13128,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -13146,13 +13146,13 @@
         <v>290</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13166,7 +13166,7 @@
         <v>291</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -13186,7 +13186,7 @@
         <v>292</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -13204,13 +13204,13 @@
         <v>294</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I22" s="30"/>
     </row>
@@ -13225,17 +13225,17 @@
         <v>295</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72">
+      <c r="A24" s="52">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -13245,7 +13245,7 @@
         <v>412</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -13263,7 +13263,7 @@
         <v>296</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -13283,7 +13283,7 @@
         <v>297</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -13301,7 +13301,7 @@
         <v>298</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -13321,7 +13321,7 @@
         <v>299</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -13329,7 +13329,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="72">
+      <c r="A29" s="52">
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -13339,7 +13339,7 @@
         <v>300</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -13510,12 +13510,12 @@
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="D61" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -13550,7 +13550,7 @@
         <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
@@ -13591,7 +13591,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="72">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -13601,7 +13601,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -13615,7 +13615,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="72">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -13625,7 +13625,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -13643,7 +13643,7 @@
         <v>305</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -13651,17 +13651,17 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="72">
+      <c r="A7" s="52">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13671,17 +13671,17 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="72">
+      <c r="A8" s="52">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>306</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -13689,17 +13689,17 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="72">
+      <c r="A9" s="52">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>407</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -13721,7 +13721,7 @@
         <v>296</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -13741,7 +13741,7 @@
         <v>297</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -13759,7 +13759,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -13779,7 +13779,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13788,7 +13788,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="72">
+      <c r="A14" s="52">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -13798,7 +13798,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -13806,11 +13806,11 @@
       <c r="H14" s="6"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>590</v>
+      <c r="C18" s="49" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -13834,23 +13834,23 @@
         <v>402</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>663</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -13858,7 +13858,7 @@
         <v>404</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -13892,13 +13892,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13906,7 +13906,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13946,7 +13946,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -13970,7 +13970,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -13988,7 +13988,7 @@
         <v>353</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -14006,7 +14006,7 @@
         <v>354</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -14024,7 +14024,7 @@
         <v>405</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -14046,7 +14046,7 @@
         <v>283</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -14062,11 +14062,11 @@
       <c r="B10" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="54" t="s">
         <v>356</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -14084,7 +14084,7 @@
         <v>341</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -14102,7 +14102,7 @@
         <v>342</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -14120,7 +14120,7 @@
         <v>344</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14138,7 +14138,7 @@
         <v>352</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -14155,7 +14155,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -14175,7 +14175,7 @@
         <v>297</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -14193,7 +14193,7 @@
         <v>298</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -14213,7 +14213,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -14233,7 +14233,7 @@
         <v>300</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -14354,12 +14354,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -14392,7 +14392,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>110</v>
@@ -14406,7 +14406,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14446,7 +14446,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -14470,7 +14470,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -14488,7 +14488,7 @@
         <v>353</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -14506,7 +14506,7 @@
         <v>357</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -14526,7 +14526,7 @@
         <v>318</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -14544,7 +14544,7 @@
         <v>405</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -14564,7 +14564,7 @@
         <v>296</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -14584,7 +14584,7 @@
         <v>297</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -14602,7 +14602,7 @@
         <v>298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -14622,7 +14622,7 @@
         <v>299</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -14642,7 +14642,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -14723,12 +14723,12 @@
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -14763,7 +14763,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>134</v>
@@ -14817,7 +14817,7 @@
         <v>307</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>310</v>
@@ -14841,7 +14841,7 @@
         <v>302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -14859,7 +14859,7 @@
         <v>358</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -14871,19 +14871,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14897,7 +14897,7 @@
         <v>359</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -14917,7 +14917,7 @@
         <v>318</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -14935,7 +14935,7 @@
         <v>320</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -14953,7 +14953,7 @@
         <v>322</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -14971,7 +14971,7 @@
         <v>405</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -14991,7 +14991,7 @@
         <v>296</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -15011,7 +15011,7 @@
         <v>297</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -15029,7 +15029,7 @@
         <v>298</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -15049,7 +15049,7 @@
         <v>299</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -15069,7 +15069,7 @@
         <v>300</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -15168,12 +15168,12 @@
     </row>
     <row r="34" spans="4:5">
       <c r="E34" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/工程项目核算系统业务功能一览表.xlsx
+++ b/04_设计文档/工程项目核算系统业务功能一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="11985" tabRatio="920" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -1398,10 +1398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>arrears_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>expected_value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3197,6 +3193,10 @@
   </si>
   <si>
     <t>该模块提供用户、密码登录验证及安全访问控制功能，登录密码采用非对称加密算法（SHA-256），防止破坏性攻击，保证系统的访问安全。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrears_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3648,10 +3648,22 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3678,15 +3690,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3706,9 +3709,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3984,7 +3984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4021,34 +4021,34 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="46" t="s">
-        <v>729</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>728</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>727</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>618</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>9</v>
@@ -4056,12 +4056,12 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="str">
@@ -4070,10 +4070,10 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3">
@@ -4096,10 +4096,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" ref="F4:F52" si="0">A4&amp;B4&amp;C4</f>
@@ -4107,20 +4107,20 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K52" si="1">K3+10</f>
         <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" ref="M4:M52" si="2">"uuid(),'"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;J4&amp;"','"&amp;H4&amp;"',"&amp;K4&amp;",'"&amp;L4&amp;"'"</f>
@@ -4138,10 +4138,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4149,13 +4149,13 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
@@ -4175,13 +4175,13 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4189,10 +4189,10 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
@@ -4200,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4215,13 +4215,13 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4229,10 +4229,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3">
@@ -4240,7 +4240,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4255,13 +4255,13 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4269,10 +4269,10 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
@@ -4280,7 +4280,7 @@
         <v>60</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4298,10 +4298,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4309,13 +4309,13 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
@@ -4335,13 +4335,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4349,10 +4349,10 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -4360,7 +4360,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4375,13 +4375,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4389,10 +4389,10 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
@@ -4400,7 +4400,7 @@
         <v>90</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4415,13 +4415,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4429,10 +4429,10 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
@@ -4440,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4454,14 +4454,14 @@
     <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4469,13 +4469,13 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
@@ -4495,13 +4495,13 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4509,10 +4509,10 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
@@ -4520,7 +4520,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4535,13 +4535,13 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4549,10 +4549,10 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
@@ -4560,7 +4560,7 @@
         <v>130</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4575,13 +4575,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4589,10 +4589,10 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
@@ -4613,13 +4613,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4627,10 +4627,10 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
@@ -4638,7 +4638,7 @@
         <v>150</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4656,10 +4656,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4667,13 +4667,13 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
@@ -4693,13 +4693,13 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4707,10 +4707,10 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
@@ -4718,7 +4718,7 @@
         <v>170</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4733,13 +4733,13 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4747,10 +4747,10 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
@@ -4758,7 +4758,7 @@
         <v>180</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4773,13 +4773,13 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4787,10 +4787,10 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3">
@@ -4798,7 +4798,7 @@
         <v>190</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4816,10 +4816,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4827,13 +4827,13 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="1"/>
@@ -4853,13 +4853,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4867,10 +4867,10 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3">
@@ -4878,7 +4878,7 @@
         <v>210</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4893,13 +4893,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4907,10 +4907,10 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3">
@@ -4918,7 +4918,7 @@
         <v>220</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4933,13 +4933,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4947,10 +4947,10 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3">
@@ -4958,7 +4958,7 @@
         <v>230</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4976,10 +4976,10 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4987,13 +4987,13 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
@@ -5013,13 +5013,13 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5027,10 +5027,10 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
@@ -5038,7 +5038,7 @@
         <v>250</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5053,13 +5053,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5067,10 +5067,10 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3">
@@ -5078,7 +5078,7 @@
         <v>260</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5093,13 +5093,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5107,10 +5107,10 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3">
@@ -5118,7 +5118,7 @@
         <v>270</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5136,10 +5136,10 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5147,13 +5147,13 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="1"/>
@@ -5173,13 +5173,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5187,10 +5187,10 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
@@ -5198,7 +5198,7 @@
         <v>290</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5213,13 +5213,13 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5227,10 +5227,10 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
@@ -5238,7 +5238,7 @@
         <v>300</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5253,13 +5253,13 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5267,10 +5267,10 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
@@ -5278,7 +5278,7 @@
         <v>310</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M33" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5296,10 +5296,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5307,13 +5307,13 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="1"/>
@@ -5333,13 +5333,13 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5347,10 +5347,10 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
@@ -5358,7 +5358,7 @@
         <v>330</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5373,13 +5373,13 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5387,10 +5387,10 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
@@ -5398,7 +5398,7 @@
         <v>340</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M36" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5413,13 +5413,13 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5427,10 +5427,10 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
@@ -5438,7 +5438,7 @@
         <v>350</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M37" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5451,15 +5451,15 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5467,20 +5467,20 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     